--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6109255F-0CCE-4DEB-95B5-084AEF823E3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797FF35-F6A2-46B4-9862-CD8ABE1F87B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>newFile</t>
   </si>
@@ -141,13 +141,16 @@
     <t>display</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>ture</t>
+    <t>order</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -500,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AF13B-AD09-4EC1-B187-55BF9EDB6D77}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -525,17 +528,20 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="str">
-        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(H:H)&amp;"}"</f>
-        <v>"tools":{"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":"ture","top":"0","left":"0"},"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":"ture","top":"0","left":"40"},"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":"ture","top":"0","left":"80"},"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":"ture","top":"0","left":"120"},"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":"ture","top":"0","left":"160"},"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":"ture","top":"0","left":"200"},"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":"ture","top":"0","left":"240"},"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":"ture","top":"0","left":"280"},"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":"ture","top":"0","left":"320"},"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":"ture","top":"0","left":"360"}}</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="str">
+        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(I:I)&amp;"}"</f>
+        <v>"tools":{"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":"false","y":"0","x":"0","order":"0"},"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":"false","y":"0","x":"40","order":"1"},"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":"false","y":"0","x":"80","order":"2"},"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":"false","y":"0","x":"120","order":"3"},"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":"false","y":"0","x":"160","order":"4"},"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":"false","y":"0","x":"200","order":"5"},"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":"false","y":"0","x":"240","order":"6"},"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":"false","y":"0","x":"280","order":"7"},"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":"false","y":"0","x":"320","order":"8"},"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":"false","y":"0","x":"360","order":"9"}}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +555,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -557,12 +563,15 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="str">
-        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
-        <v>"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":"ture","top":"0","left":"0"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$H$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
+        <v>"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":"false","y":"0","x":"0","order":"0"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -575,8 +584,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
+      <c r="E3" s="1" t="str">
+        <f>E2</f>
+        <v>false</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -585,12 +595,15 @@
         <f>+G2+40</f>
         <v>40</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H11" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
-        <v>"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":"ture","top":"0","left":"40"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I11" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$H$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
+        <v>"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":"false","y":"0","x":"40","order":"1"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -603,22 +616,26 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4:E11" si="1">E3</f>
+        <v>false</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G11" si="1">+G3+40</f>
+        <f t="shared" ref="G4:G11" si="2">+G3+40</f>
         <v>80</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":"ture","top":"0","left":"80"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":"false","y":"0","x":"80","order":"2"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -631,22 +648,26 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":"ture","top":"0","left":"120"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":"false","y":"0","x":"120","order":"3"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -659,22 +680,26 @@
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":"ture","top":"0","left":"160"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":"false","y":"0","x":"160","order":"4"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -687,22 +712,26 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":"ture","top":"0","left":"200"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":"false","y":"0","x":"200","order":"5"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -715,22 +744,26 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":"ture","top":"0","left":"240"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":"false","y":"0","x":"240","order":"6"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -743,22 +776,26 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":"ture","top":"0","left":"280"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":"false","y":"0","x":"280","order":"7"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -771,22 +808,26 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":"ture","top":"0","left":"320"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":"false","y":"0","x":"320","order":"8"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -799,19 +840,23 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":"ture","top":"0","left":"360"}</v>
+        <v>"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":"false","y":"0","x":"360","order":"9"}</v>
       </c>
     </row>
   </sheetData>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797FF35-F6A2-46B4-9862-CD8ABE1F87B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E3C784-0EBA-4376-A7C0-2864C11CB72D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
+    <sheet name="functionsCategories" sheetId="3" r:id="rId2"/>
+    <sheet name="texts" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>newFile</t>
   </si>
@@ -151,16 +153,148 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>basics</t>
+  </si>
+  <si>
+    <t>logics</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>discrete</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Basic operations</t>
+  </si>
+  <si>
+    <t>Logical operations</t>
+  </si>
+  <si>
+    <t>Continuous time</t>
+  </si>
+  <si>
+    <t>Discrete time</t>
+  </si>
+  <si>
+    <t>Hardware tools</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>Sinks</t>
+  </si>
+  <si>
+    <t>sinks</t>
+  </si>
+  <si>
+    <t>#00FFFF</t>
+  </si>
+  <si>
+    <t>#80FF00</t>
+  </si>
+  <si>
+    <t>#FF0080</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>#00FF80</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>color01</t>
+  </si>
+  <si>
+    <t>color02</t>
+  </si>
+  <si>
+    <t>color03</t>
+  </si>
+  <si>
+    <t>color04</t>
+  </si>
+  <si>
+    <t>Sinks output the information. They can be graphs or file download</t>
+  </si>
+  <si>
+    <t>Sources generate the signals to feed to the model.</t>
+  </si>
+  <si>
+    <t>Basic mathematical operations are given</t>
+  </si>
+  <si>
+    <t>Logical operations are available in this section</t>
+  </si>
+  <si>
+    <t>Dynamic operations are available here for continuous time operations</t>
+  </si>
+  <si>
+    <t>Dynamic operations are available here for discrete time operations</t>
+  </si>
+  <si>
+    <t>Hardware i/o blocks are available here</t>
+  </si>
+  <si>
+    <t>#8000FF</t>
+  </si>
+  <si>
+    <t>#00FF7F</t>
+  </si>
+  <si>
+    <t>#FFFE00</t>
+  </si>
+  <si>
+    <t>#04FB6B</t>
+  </si>
+  <si>
+    <t>#36FC89</t>
+  </si>
+  <si>
+    <t>&lt;/g&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='</t>
+  </si>
+  <si>
+    <t>' stroke-width='10'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,9 +320,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AF13B-AD09-4EC1-B187-55BF9EDB6D77}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -538,7 +675,7 @@
       </c>
       <c r="J1" t="str">
         <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(I:I)&amp;"}"</f>
-        <v>"tools":{"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":"false","y":"0","x":"0","order":"0"},"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":"false","y":"0","x":"40","order":"1"},"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":"false","y":"0","x":"80","order":"2"},"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":"false","y":"0","x":"120","order":"3"},"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":"false","y":"0","x":"160","order":"4"},"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":"false","y":"0","x":"200","order":"5"},"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":"false","y":"0","x":"240","order":"6"},"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":"false","y":"0","x":"280","order":"7"},"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":"false","y":"0","x":"320","order":"8"},"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":"false","y":"0","x":"360","order":"9"}}</v>
+        <v>"tools":{"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":false,"y":"0","x":"0","order":"0"},"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":false,"y":"0","x":"40","order":"1"},"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":false,"y":"0","x":"80","order":"2"},"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":false,"y":"0","x":"120","order":"3"},"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":false,"y":"0","x":"160","order":"4"},"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":false,"y":"0","x":"200","order":"5"},"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":false,"y":"0","x":"240","order":"6"},"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":false,"y":"0","x":"280","order":"7"},"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":false,"y":"0","x":"320","order":"8"},"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":false,"y":"0","x":"360","order":"9"}}</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -567,8 +704,8 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$H$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
-        <v>"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":"false","y":"0","x":"0","order":"0"},</v>
+        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;E2&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$H$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
+        <v>"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":false,"y":"0","x":"0","order":"0"},</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -599,8 +736,8 @@
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I11" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$H$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
-        <v>"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":"false","y":"0","x":"40","order":"1"},</v>
+        <f t="shared" ref="I3:I11" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$E$1&amp;CHAR(34)&amp;":"&amp;E3&amp;","&amp;CHAR(34)&amp;$F$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$G$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$H$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
+        <v>"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":false,"y":"0","x":"40","order":"1"},</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -632,7 +769,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":"false","y":"0","x":"80","order":"2"},</v>
+        <v>"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":false,"y":"0","x":"80","order":"2"},</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -664,7 +801,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":"false","y":"0","x":"120","order":"3"},</v>
+        <v>"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":false,"y":"0","x":"120","order":"3"},</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -696,7 +833,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":"false","y":"0","x":"160","order":"4"},</v>
+        <v>"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":false,"y":"0","x":"160","order":"4"},</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -728,7 +865,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":"false","y":"0","x":"200","order":"5"},</v>
+        <v>"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":false,"y":"0","x":"200","order":"5"},</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -760,7 +897,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":"false","y":"0","x":"240","order":"6"},</v>
+        <v>"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":false,"y":"0","x":"240","order":"6"},</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -792,7 +929,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":"false","y":"0","x":"280","order":"7"},</v>
+        <v>"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":false,"y":"0","x":"280","order":"7"},</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -824,7 +961,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":"false","y":"0","x":"320","order":"8"},</v>
+        <v>"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":false,"y":"0","x":"320","order":"8"},</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -856,11 +993,355 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":"false","y":"0","x":"360","order":"9"}</v>
+        <v>"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":false,"y":"0","x":"360","order":"9"}</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F39CB5B-D4DE-41EA-B454-0F01FA82151C}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="str">
+        <f ca="1">_xlfn.CONCAT(J:J)&amp;CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(I:I)&amp;"}"</f>
+        <v>"sources":{},"sinks":{},"basics":{},"logics":{},"continuous":{},"discrete":{},"hardware":{},"functionsCategories":{"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#04FB6B' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#36FC89' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E2&amp;texts!$A$2&amp;F2&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
+        <v>"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#04FB6B' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#36FC89' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{},"</f>
+        <v>"sources":{},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="str">
+        <f>CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E3&amp;texts!$A$2&amp;F3&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
+        <v>"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J8" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{},"</f>
+        <v>"sinks":{},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CHAR(34)&amp;A4&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E4&amp;texts!$A$2&amp;F4&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A5),"",",")</f>
+        <v>"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>"basics":{},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CHAR(34)&amp;A5&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E5&amp;texts!$A$2&amp;F5&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A6),"",",")</f>
+        <v>"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>"logics":{},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="str">
+        <f>CHAR(34)&amp;A6&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E6&amp;texts!$A$2&amp;F6&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A7),"",",")</f>
+        <v>"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>"continuous":{},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CHAR(34)&amp;A7&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E7&amp;texts!$A$2&amp;F7&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A8),"",",")</f>
+        <v>"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>"discrete":{},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CHAR(34)&amp;A8&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E8&amp;texts!$A$2&amp;F8&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A9),"",",")</f>
+        <v>"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>"hardware":{},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C9AEB-C6BB-44D2-B1DC-A1A0A65CA6D9}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E3C784-0EBA-4376-A7C0-2864C11CB72D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6870ED8-8290-4646-A8B2-BFA0CB346BFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>newFile</t>
   </si>
@@ -257,18 +257,9 @@
     <t>#8000FF</t>
   </si>
   <si>
-    <t>#00FF7F</t>
-  </si>
-  <si>
     <t>#FFFE00</t>
   </si>
   <si>
-    <t>#04FB6B</t>
-  </si>
-  <si>
-    <t>#36FC89</t>
-  </si>
-  <si>
     <t>&lt;/g&gt;&lt;/svg&gt;</t>
   </si>
   <si>
@@ -278,7 +269,40 @@
     <t>' stroke-width='10'&gt;</t>
   </si>
   <si>
-    <t>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='</t>
+    <t>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='</t>
+  </si>
+  <si>
+    <t>preIcon</t>
+  </si>
+  <si>
+    <t>postIcon</t>
+  </si>
+  <si>
+    <t>#FF007F</t>
+  </si>
+  <si>
+    <t>#FF3333</t>
+  </si>
+  <si>
+    <t>#99FF33</t>
+  </si>
+  <si>
+    <t>#33FFFF</t>
+  </si>
+  <si>
+    <t>#9933FF</t>
+  </si>
+  <si>
+    <t>#FFFF33</t>
+  </si>
+  <si>
+    <t>#33FF99</t>
+  </si>
+  <si>
+    <t>#3333FF</t>
+  </si>
+  <si>
+    <t>#FF3399</t>
   </si>
 </sst>
 </file>
@@ -320,10 +344,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1004,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F39CB5B-D4DE-41EA-B454-0F01FA82151C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1042,7 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1042,10 +1069,16 @@
       </c>
       <c r="K1" t="str">
         <f ca="1">_xlfn.CONCAT(J:J)&amp;CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(I:I)&amp;"}"</f>
-        <v>"sources":{},"sinks":{},"basics":{},"logics":{},"continuous":{},"discrete":{},"hardware":{},"functionsCategories":{"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#04FB6B' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#36FC89' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}}</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>"sources":{},"sinks":{},"basics":{},"logics":{},"continuous":{},"discrete":{},"hardware":{},"functionsCategories":{"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF3333' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#99FF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FFFF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#9933FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FF99' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#3333FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}}</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1059,27 +1092,35 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>57</v>
       </c>
       <c r="I2" t="str">
         <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E2&amp;texts!$A$2&amp;F2&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
-        <v>"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#04FB6B' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#36FC89' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <v>"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF3333' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
       </c>
       <c r="J2" t="str">
         <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{},"</f>
         <v>"sources":{},</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="str">
+        <f>texts!$A$1&amp;functionsCategories!E2&amp;texts!$A$2&amp;functionsCategories!F2&amp;texts!$A$3</f>
+        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF3333' stroke-width='10'&gt;</v>
+      </c>
+      <c r="M2" t="str">
+        <f>texts!$A$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1093,27 +1134,35 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
         <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
       </c>
       <c r="I3" t="str">
         <f>CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E3&amp;texts!$A$2&amp;F3&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
-        <v>"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <v>"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#99FF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J8" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{},"</f>
         <v>"sinks":{},</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="str">
+        <f>texts!$A$1&amp;functionsCategories!E3&amp;texts!$A$2&amp;functionsCategories!F3&amp;texts!$A$3</f>
+        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#99FF33' stroke-width='10'&gt;</v>
+      </c>
+      <c r="M3" t="str">
+        <f>texts!$A$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1127,27 +1176,35 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
         <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="str">
         <f>CHAR(34)&amp;A4&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E4&amp;texts!$A$2&amp;F4&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A5),"",",")</f>
-        <v>"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <v>"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FFFF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>"basics":{},</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="str">
+        <f>texts!$A$1&amp;functionsCategories!E4&amp;texts!$A$2&amp;functionsCategories!F4&amp;texts!$A$3</f>
+        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FFFF' stroke-width='10'&gt;</v>
+      </c>
+      <c r="M4" t="str">
+        <f>texts!$A$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1161,27 +1218,35 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
       </c>
       <c r="I5" t="str">
         <f>CHAR(34)&amp;A5&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E5&amp;texts!$A$2&amp;F5&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A6),"",",")</f>
-        <v>"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <v>"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#9933FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>"logics":{},</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="str">
+        <f>texts!$A$1&amp;functionsCategories!E5&amp;texts!$A$2&amp;functionsCategories!F5&amp;texts!$A$3</f>
+        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#9933FF' stroke-width='10'&gt;</v>
+      </c>
+      <c r="M5" t="str">
+        <f>texts!$A$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1195,27 +1260,35 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="str">
         <f>CHAR(34)&amp;A6&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E6&amp;texts!$A$2&amp;F6&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A7),"",",")</f>
-        <v>"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <v>"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>"continuous":{},</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <f>texts!$A$1&amp;functionsCategories!E6&amp;texts!$A$2&amp;functionsCategories!F6&amp;texts!$A$3</f>
+        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF33' stroke-width='10'&gt;</v>
+      </c>
+      <c r="M6" t="str">
+        <f>texts!$A$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1229,27 +1302,35 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
         <v>74</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="str">
         <f>CHAR(34)&amp;A7&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E7&amp;texts!$A$2&amp;F7&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A8),"",",")</f>
-        <v>"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <v>"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FF99' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>"discrete":{},</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="str">
+        <f>texts!$A$1&amp;functionsCategories!E7&amp;texts!$A$2&amp;functionsCategories!F7&amp;texts!$A$3</f>
+        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FF99' stroke-width='10'&gt;</v>
+      </c>
+      <c r="M7" t="str">
+        <f>texts!$A$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1263,44 +1344,52 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
         <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
       <c r="I8" t="str">
         <f>CHAR(34)&amp;A8&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E8&amp;texts!$A$2&amp;F8&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A9),"",",")</f>
-        <v>"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='5' dy='5' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='5' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FF7F' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}</v>
+        <v>"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#3333FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>"hardware":{},</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="str">
+        <f>texts!$A$1&amp;functionsCategories!E8&amp;texts!$A$2&amp;functionsCategories!F8&amp;texts!$A$3</f>
+        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#3333FF' stroke-width='10'&gt;</v>
+      </c>
+      <c r="M8" t="str">
+        <f>texts!$A$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
   </sheetData>
@@ -1314,7 +1403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C9AEB-C6BB-44D2-B1DC-A1A0A65CA6D9}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1323,22 +1414,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>79</v>
+      <c r="A2" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6870ED8-8290-4646-A8B2-BFA0CB346BFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C42FC3-870C-4378-8173-EEDA3F341AD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>newFile</t>
   </si>
@@ -266,12 +266,6 @@
     <t>' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='</t>
   </si>
   <si>
-    <t>' stroke-width='10'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='</t>
-  </si>
-  <si>
     <t>preIcon</t>
   </si>
   <si>
@@ -281,28 +275,28 @@
     <t>#FF007F</t>
   </si>
   <si>
-    <t>#FF3333</t>
-  </si>
-  <si>
-    <t>#99FF33</t>
-  </si>
-  <si>
-    <t>#33FFFF</t>
-  </si>
-  <si>
-    <t>#9933FF</t>
-  </si>
-  <si>
-    <t>#FFFF33</t>
-  </si>
-  <si>
-    <t>#33FF99</t>
-  </si>
-  <si>
-    <t>#3333FF</t>
-  </si>
-  <si>
-    <t>#FF3399</t>
+    <t>#7F00FF</t>
+  </si>
+  <si>
+    <t>#7FFF00</t>
+  </si>
+  <si>
+    <t>' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='</t>
+  </si>
+  <si>
+    <t>preIcon1</t>
+  </si>
+  <si>
+    <t>postIcon1</t>
+  </si>
+  <si>
+    <t>' stroke-width='10' fill='none'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='</t>
   </si>
 </sst>
 </file>
@@ -344,12 +338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1031,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F39CB5B-D4DE-41EA-B454-0F01FA82151C}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1033,7 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1069,16 +1060,22 @@
       </c>
       <c r="K1" t="str">
         <f ca="1">_xlfn.CONCAT(J:J)&amp;CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(I:I)&amp;"}"</f>
-        <v>"sources":{},"sinks":{},"basics":{},"logics":{},"continuous":{},"discrete":{},"hardware":{},"functionsCategories":{"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF3333' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#99FF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FFFF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#9933FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FF99' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#3333FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}}</v>
+        <v>"sources":{},"sinks":{},"basics":{},"logics":{},"continuous":{},"discrete":{},"hardware":{},"functionsCategories":{"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0"},"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1"},"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2"},"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3"},"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4"},"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5"},"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6"}}</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="N1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1095,7 +1092,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>74</v>
@@ -1104,8 +1101,8 @@
         <v>57</v>
       </c>
       <c r="I2" t="str">
-        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E2&amp;texts!$A$2&amp;F2&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
-        <v>"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF3333' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
+        <v>"sources":{"text":"Sources","description":"Sources generate the signals to feed to the model.","order":"0"},</v>
       </c>
       <c r="J2" t="str">
         <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;":{},"</f>
@@ -1113,14 +1110,22 @@
       </c>
       <c r="L2" t="str">
         <f>texts!$A$1&amp;functionsCategories!E2&amp;texts!$A$2&amp;functionsCategories!F2&amp;texts!$A$3</f>
-        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF3333' stroke-width='10'&gt;</v>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FFFF' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M2" t="str">
         <f>texts!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="str">
+        <f>texts!$B$1&amp;functionsCategories!E2&amp;texts!$B$2&amp;functionsCategories!F2&amp;texts!$B$3</f>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#00FFFF' stroke-width='10' fill='none'&gt;</v>
+      </c>
+      <c r="O2" t="str">
+        <f>texts!$B$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1137,7 +1142,7 @@
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -1146,23 +1151,31 @@
         <v>57</v>
       </c>
       <c r="I3" t="str">
-        <f>CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E3&amp;texts!$A$2&amp;F3&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
-        <v>"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#99FF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <f t="shared" ref="I3:I8" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
+        <v>"sinks":{"text":"Sinks","description":"Sinks output the information. They can be graphs or file download","order":"1"},</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J8" si="0">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{},"</f>
+        <f t="shared" ref="J3:J8" si="1">CHAR(34)&amp;A3&amp;CHAR(34)&amp;":{},"</f>
         <v>"sinks":{},</v>
       </c>
       <c r="L3" t="str">
         <f>texts!$A$1&amp;functionsCategories!E3&amp;texts!$A$2&amp;functionsCategories!F3&amp;texts!$A$3</f>
-        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#99FF33' stroke-width='10'&gt;</v>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#7F00FF' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M3" t="str">
         <f>texts!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="str">
+        <f>texts!$B$1&amp;functionsCategories!E3&amp;texts!$B$2&amp;functionsCategories!F3&amp;texts!$B$3</f>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#7F00FF' stroke-width='10' fill='none'&gt;</v>
+      </c>
+      <c r="O3" t="str">
+        <f>texts!$B$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -1188,23 +1201,31 @@
         <v>57</v>
       </c>
       <c r="I4" t="str">
-        <f>CHAR(34)&amp;A4&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E4&amp;texts!$A$2&amp;F4&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A5),"",",")</f>
-        <v>"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FFFF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <f t="shared" si="0"/>
+        <v>"basics":{"text":"Basic operations","description":"Basic mathematical operations are given","order":"2"},</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"basics":{},</v>
       </c>
       <c r="L4" t="str">
         <f>texts!$A$1&amp;functionsCategories!E4&amp;texts!$A$2&amp;functionsCategories!F4&amp;texts!$A$3</f>
-        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FFFF' stroke-width='10'&gt;</v>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF0000' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M4" t="str">
         <f>texts!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="str">
+        <f>texts!$B$1&amp;functionsCategories!E4&amp;texts!$B$2&amp;functionsCategories!F4&amp;texts!$B$3</f>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#FF0000' stroke-width='10' fill='none'&gt;</v>
+      </c>
+      <c r="O4" t="str">
+        <f>texts!$B$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1221,7 +1242,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>74</v>
@@ -1230,23 +1251,31 @@
         <v>57</v>
       </c>
       <c r="I5" t="str">
-        <f>CHAR(34)&amp;A5&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E5&amp;texts!$A$2&amp;F5&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A6),"",",")</f>
-        <v>"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#9933FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <f t="shared" si="0"/>
+        <v>"logics":{"text":"Logical operations","description":"Logical operations are available in this section","order":"3"},</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"logics":{},</v>
       </c>
       <c r="L5" t="str">
         <f>texts!$A$1&amp;functionsCategories!E5&amp;texts!$A$2&amp;functionsCategories!F5&amp;texts!$A$3</f>
-        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#9933FF' stroke-width='10'&gt;</v>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#7FFF00' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M5" t="str">
         <f>texts!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="str">
+        <f>texts!$B$1&amp;functionsCategories!E5&amp;texts!$B$2&amp;functionsCategories!F5&amp;texts!$B$3</f>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#7FFF00' stroke-width='10' fill='none'&gt;</v>
+      </c>
+      <c r="O5" t="str">
+        <f>texts!$B$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1292,7 @@
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>74</v>
@@ -1272,23 +1301,31 @@
         <v>57</v>
       </c>
       <c r="I6" t="str">
-        <f>CHAR(34)&amp;A6&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E6&amp;texts!$A$2&amp;F6&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A7),"",",")</f>
-        <v>"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF33' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <f t="shared" si="0"/>
+        <v>"continuous":{"text":"Continuous time","description":"Dynamic operations are available here for continuous time operations","order":"4"},</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"continuous":{},</v>
       </c>
       <c r="L6" t="str">
         <f>texts!$A$1&amp;functionsCategories!E6&amp;texts!$A$2&amp;functionsCategories!F6&amp;texts!$A$3</f>
-        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF33' stroke-width='10'&gt;</v>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#0000FF' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M6" t="str">
         <f>texts!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="str">
+        <f>texts!$B$1&amp;functionsCategories!E6&amp;texts!$B$2&amp;functionsCategories!F6&amp;texts!$B$3</f>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#0000FF' stroke-width='10' fill='none'&gt;</v>
+      </c>
+      <c r="O6" t="str">
+        <f>texts!$B$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1305,7 +1342,7 @@
         <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>74</v>
@@ -1314,23 +1351,31 @@
         <v>57</v>
       </c>
       <c r="I7" t="str">
-        <f>CHAR(34)&amp;A7&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E7&amp;texts!$A$2&amp;F7&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A8),"",",")</f>
-        <v>"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FF99' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+        <f t="shared" si="0"/>
+        <v>"discrete":{"text":"Discrete time","description":"Dynamic operations are available here for discrete time operations","order":"5"},</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"discrete":{},</v>
       </c>
       <c r="L7" t="str">
         <f>texts!$A$1&amp;functionsCategories!E7&amp;texts!$A$2&amp;functionsCategories!F7&amp;texts!$A$3</f>
-        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#33FF99' stroke-width='10'&gt;</v>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF007F' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M7" t="str">
         <f>texts!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" t="str">
+        <f>texts!$B$1&amp;functionsCategories!E7&amp;texts!$B$2&amp;functionsCategories!F7&amp;texts!$B$3</f>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#FF007F' stroke-width='10' fill='none'&gt;</v>
+      </c>
+      <c r="O7" t="str">
+        <f>texts!$B$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1392,7 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>74</v>
@@ -1356,28 +1401,36 @@
         <v>57</v>
       </c>
       <c r="I8" t="str">
-        <f>CHAR(34)&amp;A8&amp;CHAR(34)&amp;":{"&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$D$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"preIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$1&amp;E8&amp;texts!$A$2&amp;F8&amp;texts!$A$3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"postIcon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;texts!$A$4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A9),"",",")</f>
-        <v>"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6","preIcon":"&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#3333FF' stroke-width='10'&gt;","postIcon":"&lt;/g&gt;&lt;/svg&gt;"}</v>
+        <f t="shared" si="0"/>
+        <v>"hardware":{"text":"Hardware tools","description":"Hardware i/o blocks are available here","order":"6"}</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"hardware":{},</v>
       </c>
       <c r="L8" t="str">
         <f>texts!$A$1&amp;functionsCategories!E8&amp;texts!$A$2&amp;functionsCategories!F8&amp;texts!$A$3</f>
-        <v>&lt;svg viewBox='0 0 120 120' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='3'/&gt;&lt;feOffset dx='2' dy='2' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='3' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='5' height='100' width='100' y='10' x='10' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#3333FF' stroke-width='10'&gt;</v>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF00' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M8" t="str">
         <f>texts!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" t="str">
+        <f>texts!$B$1&amp;functionsCategories!E8&amp;texts!$B$2&amp;functionsCategories!F8&amp;texts!$B$3</f>
+        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#FFFF00' stroke-width='10' fill='none'&gt;</v>
+      </c>
+      <c r="O8" t="str">
+        <f>texts!$B$4</f>
+        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>74</v>
@@ -1386,10 +1439,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
   </sheetData>
@@ -1401,34 +1454,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C9AEB-C6BB-44D2-B1DC-A1A0A65CA6D9}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C42FC3-870C-4378-8173-EEDA3F341AD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0924343-C157-4DE1-9EAB-D129E7815C30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
     <sheet name="functionsCategories" sheetId="3" r:id="rId2"/>
-    <sheet name="texts" sheetId="4" r:id="rId3"/>
+    <sheet name="IconText" sheetId="4" r:id="rId3"/>
+    <sheet name="networkIcon" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -281,9 +282,6 @@
     <t>#7FFF00</t>
   </si>
   <si>
-    <t>' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='</t>
-  </si>
-  <si>
     <t>preIcon1</t>
   </si>
   <si>
@@ -296,7 +294,10 @@
     <t>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='</t>
   </si>
   <si>
-    <t>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='</t>
+    <t>&lt;svg viewBox='0 0 100 100' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='0' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='</t>
+  </si>
+  <si>
+    <t>'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='</t>
   </si>
 </sst>
 </file>
@@ -338,12 +339,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F39CB5B-D4DE-41EA-B454-0F01FA82151C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
         <v>83</v>
-      </c>
-      <c r="O1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1109,20 +1112,20 @@
         <v>"sources":{},</v>
       </c>
       <c r="L2" t="str">
-        <f>texts!$A$1&amp;functionsCategories!E2&amp;texts!$A$2&amp;functionsCategories!F2&amp;texts!$A$3</f>
+        <f>IconText!$A$1&amp;functionsCategories!E2&amp;IconText!$A$2&amp;functionsCategories!F2&amp;IconText!$A$3</f>
         <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#00FFFF' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M2" t="str">
-        <f>texts!$A$4</f>
+        <f>IconText!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-      <c r="N2" t="str">
-        <f>texts!$B$1&amp;functionsCategories!E2&amp;texts!$B$2&amp;functionsCategories!F2&amp;texts!$B$3</f>
-        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FF0000' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#00FFFF' stroke-width='10' fill='none'&gt;</v>
-      </c>
-      <c r="O2" t="str">
-        <f>texts!$B$4</f>
-        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      <c r="N2" t="e">
+        <f>IconText!#REF!&amp;functionsCategories!E2&amp;IconText!#REF!&amp;functionsCategories!F2&amp;IconText!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" t="e">
+        <f>IconText!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1159,20 +1162,20 @@
         <v>"sinks":{},</v>
       </c>
       <c r="L3" t="str">
-        <f>texts!$A$1&amp;functionsCategories!E3&amp;texts!$A$2&amp;functionsCategories!F3&amp;texts!$A$3</f>
+        <f>IconText!$A$1&amp;functionsCategories!E3&amp;IconText!$A$2&amp;functionsCategories!F3&amp;IconText!$A$3</f>
         <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#7F00FF' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M3" t="str">
-        <f>texts!$A$4</f>
+        <f>IconText!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-      <c r="N3" t="str">
-        <f>texts!$B$1&amp;functionsCategories!E3&amp;texts!$B$2&amp;functionsCategories!F3&amp;texts!$B$3</f>
-        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#80FF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#7F00FF' stroke-width='10' fill='none'&gt;</v>
-      </c>
-      <c r="O3" t="str">
-        <f>texts!$B$4</f>
-        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      <c r="N3" t="e">
+        <f>IconText!#REF!&amp;functionsCategories!E3&amp;IconText!#REF!&amp;functionsCategories!F3&amp;IconText!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O3" t="e">
+        <f>IconText!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1209,20 +1212,20 @@
         <v>"basics":{},</v>
       </c>
       <c r="L4" t="str">
-        <f>texts!$A$1&amp;functionsCategories!E4&amp;texts!$A$2&amp;functionsCategories!F4&amp;texts!$A$3</f>
+        <f>IconText!$A$1&amp;functionsCategories!E4&amp;IconText!$A$2&amp;functionsCategories!F4&amp;IconText!$A$3</f>
         <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF0000' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M4" t="str">
-        <f>texts!$A$4</f>
+        <f>IconText!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-      <c r="N4" t="str">
-        <f>texts!$B$1&amp;functionsCategories!E4&amp;texts!$B$2&amp;functionsCategories!F4&amp;texts!$B$3</f>
-        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FFFF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#FF0000' stroke-width='10' fill='none'&gt;</v>
-      </c>
-      <c r="O4" t="str">
-        <f>texts!$B$4</f>
-        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      <c r="N4" t="e">
+        <f>IconText!#REF!&amp;functionsCategories!E4&amp;IconText!#REF!&amp;functionsCategories!F4&amp;IconText!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O4" t="e">
+        <f>IconText!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1259,20 +1262,20 @@
         <v>"logics":{},</v>
       </c>
       <c r="L5" t="str">
-        <f>texts!$A$1&amp;functionsCategories!E5&amp;texts!$A$2&amp;functionsCategories!F5&amp;texts!$A$3</f>
+        <f>IconText!$A$1&amp;functionsCategories!E5&amp;IconText!$A$2&amp;functionsCategories!F5&amp;IconText!$A$3</f>
         <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#7FFF00' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M5" t="str">
-        <f>texts!$A$4</f>
+        <f>IconText!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-      <c r="N5" t="str">
-        <f>texts!$B$1&amp;functionsCategories!E5&amp;texts!$B$2&amp;functionsCategories!F5&amp;texts!$B$3</f>
-        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#8000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#7FFF00' stroke-width='10' fill='none'&gt;</v>
-      </c>
-      <c r="O5" t="str">
-        <f>texts!$B$4</f>
-        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      <c r="N5" t="e">
+        <f>IconText!#REF!&amp;functionsCategories!E5&amp;IconText!#REF!&amp;functionsCategories!F5&amp;IconText!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O5" t="e">
+        <f>IconText!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1309,20 +1312,20 @@
         <v>"continuous":{},</v>
       </c>
       <c r="L6" t="str">
-        <f>texts!$A$1&amp;functionsCategories!E6&amp;texts!$A$2&amp;functionsCategories!F6&amp;texts!$A$3</f>
+        <f>IconText!$A$1&amp;functionsCategories!E6&amp;IconText!$A$2&amp;functionsCategories!F6&amp;IconText!$A$3</f>
         <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#0000FF' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M6" t="str">
-        <f>texts!$A$4</f>
+        <f>IconText!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-      <c r="N6" t="str">
-        <f>texts!$B$1&amp;functionsCategories!E6&amp;texts!$B$2&amp;functionsCategories!F6&amp;texts!$B$3</f>
-        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#FFFF00' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#0000FF' stroke-width='10' fill='none'&gt;</v>
-      </c>
-      <c r="O6" t="str">
-        <f>texts!$B$4</f>
-        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      <c r="N6" t="e">
+        <f>IconText!#REF!&amp;functionsCategories!E6&amp;IconText!#REF!&amp;functionsCategories!F6&amp;IconText!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O6" t="e">
+        <f>IconText!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1359,20 +1362,20 @@
         <v>"discrete":{},</v>
       </c>
       <c r="L7" t="str">
-        <f>texts!$A$1&amp;functionsCategories!E7&amp;texts!$A$2&amp;functionsCategories!F7&amp;texts!$A$3</f>
+        <f>IconText!$A$1&amp;functionsCategories!E7&amp;IconText!$A$2&amp;functionsCategories!F7&amp;IconText!$A$3</f>
         <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FF007F' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M7" t="str">
-        <f>texts!$A$4</f>
+        <f>IconText!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-      <c r="N7" t="str">
-        <f>texts!$B$1&amp;functionsCategories!E7&amp;texts!$B$2&amp;functionsCategories!F7&amp;texts!$B$3</f>
-        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#00FF80' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#FF007F' stroke-width='10' fill='none'&gt;</v>
-      </c>
-      <c r="O7" t="str">
-        <f>texts!$B$4</f>
-        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      <c r="N7" t="e">
+        <f>IconText!#REF!&amp;functionsCategories!E7&amp;IconText!#REF!&amp;functionsCategories!F7&amp;IconText!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O7" t="e">
+        <f>IconText!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1409,20 +1412,20 @@
         <v>"hardware":{},</v>
       </c>
       <c r="L8" t="str">
-        <f>texts!$A$1&amp;functionsCategories!E8&amp;texts!$A$2&amp;functionsCategories!F8&amp;texts!$A$3</f>
+        <f>IconText!$A$1&amp;functionsCategories!E8&amp;IconText!$A$2&amp;functionsCategories!F8&amp;IconText!$A$3</f>
         <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='#FFFF00' stroke-width='10' fill='none'&gt;</v>
       </c>
       <c r="M8" t="str">
-        <f>texts!$A$4</f>
+        <f>IconText!$A$4</f>
         <v>&lt;/g&gt;&lt;/svg&gt;</v>
       </c>
-      <c r="N8" t="str">
-        <f>texts!$B$1&amp;functionsCategories!E8&amp;texts!$B$2&amp;functionsCategories!F8&amp;texts!$B$3</f>
-        <v>&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='#0000FF' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' width='100' height='100' stroke='#FFFF00' stroke-width='10' fill='none'&gt;</v>
-      </c>
-      <c r="O8" t="str">
-        <f>texts!$B$4</f>
-        <v>&lt;/g&gt;&lt;/svg&gt;</v>
+      <c r="N8" t="e">
+        <f>IconText!#REF!&amp;functionsCategories!E8&amp;IconText!#REF!&amp;functionsCategories!F8&amp;IconText!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O8" t="e">
+        <f>IconText!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1454,50 +1457,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C9AEB-C6BB-44D2-B1DC-A1A0A65CA6D9}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CHAR(34)&amp;"icon"&amp;ROW(A1)&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A1&amp;CHAR(34)&amp;IF(ISBLANK(A2),"",",")</f>
+        <v>"icon1":"&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='",</v>
+      </c>
+      <c r="C1" t="str">
+        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(B:B)&amp;"},"</f>
+        <v>"IconText":{"icon1":"&lt;svg viewBox='-3 -3 106 106' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f0' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feGaussianBlur in='SourceAlpha' stdDeviation='1'/&gt;&lt;feOffset dx='0' dy='0' result='offsetblur'/&gt;&lt;feMerge&gt;&lt;feMergeNode/&gt;&lt;feMergeNode in='SourceGraphic'/&gt;&lt;/feMerge&gt;&lt;/filter&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='1' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='","icon2":"' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='","icon3":"' stroke-width='10' fill='none'&gt;","icon4":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B4" si="0">CHAR(34)&amp;"icon"&amp;ROW(A2)&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;IF(ISBLANK(A3),"",",")</f>
+        <v>"icon2":"' filter='url(#f0)'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>"icon3":"' stroke-width='10' fill='none'&gt;",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>"icon4":"&lt;/g&gt;&lt;/svg&gt;"</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD001D-C99D-4E3C-BE5C-3929C71869C0}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CHAR(34)&amp;"icon"&amp;ROW(A1)&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A1&amp;CHAR(34)&amp;IF(ISBLANK(A2),"",",")</f>
+        <v>"icon1":"&lt;svg viewBox='0 0 100 100' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='0' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='",</v>
+      </c>
+      <c r="C1" t="str">
+        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(B:B)&amp;"},"</f>
+        <v>"networkIcon":{"icon1":"&lt;svg viewBox='0 0 100 100' xmlns='http://www.w3.org/2000/svg'&gt;&lt;defs&gt;&lt;filter id='f1' x='-50%' y='-50%' width='200%' height='200%'&gt;&lt;feOffset result='offOut' in='SourceAlpha' dx='3' dy='3' /&gt;&lt;feGaussianBlur result='blurOut' in='offOut' stdDeviation='0' /&gt;&lt;feBlend in='SourceGraphic' in2='blurOut' mode='normal' /&gt;&lt;/filter&gt;&lt;/defs&gt;&lt;g&gt;&lt;rect rx='20' height='100' width='100' y='0' x='0' stroke-width='0' fill='","icon2":"'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='","icon3":"' stroke-width='10' fill='none'&gt;","icon4":"&lt;/g&gt;&lt;/svg&gt;"},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B4" si="0">CHAR(34)&amp;"icon"&amp;ROW(A2)&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;IF(ISBLANK(A3),"",",")</f>
+        <v>"icon2":"'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>"icon3":"' stroke-width='10' fill='none'&gt;",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>"icon4":"&lt;/g&gt;&lt;/svg&gt;"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0924343-C157-4DE1-9EAB-D129E7815C30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377D2E5-5A00-4F1C-B2E8-166E0E9DDDA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
     <sheet name="functionsCategories" sheetId="3" r:id="rId2"/>
     <sheet name="IconText" sheetId="4" r:id="rId3"/>
     <sheet name="networkIcon" sheetId="5" r:id="rId4"/>
+    <sheet name="blockTemplate" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
   <si>
     <t>newFile</t>
   </si>
@@ -298,6 +299,81 @@
   </si>
   <si>
     <t>'/&gt;&lt;/g&gt;&lt;g stroke-linecap='round' filter='url(#f1)' width='100' height='100' stroke='</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>MaxInTerminals</t>
+  </si>
+  <si>
+    <t>MaxOutTerminals</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Destructor</t>
+  </si>
+  <si>
+    <t>RunTimeExec</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>ValidateParams</t>
+  </si>
+  <si>
+    <t>openLeftMenu('ADD_BLOCK')</t>
+  </si>
+  <si>
+    <t>openLeftMenu('EDIT_BLOCK')</t>
   </si>
 </sst>
 </file>
@@ -663,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AF13B-AD09-4EC1-B187-55BF9EDB6D77}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -696,7 +772,7 @@
       </c>
       <c r="J1" t="str">
         <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":{"&amp;_xlfn.CONCAT(I:I)&amp;"}"</f>
-        <v>"tools":{"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":false,"y":"0","x":"0","order":"0"},"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":false,"y":"0","x":"40","order":"1"},"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":false,"y":"0","x":"80","order":"2"},"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":false,"y":"0","x":"120","order":"3"},"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":false,"y":"0","x":"160","order":"4"},"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":false,"y":"0","x":"200","order":"5"},"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":false,"y":"0","x":"240","order":"6"},"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":false,"y":"0","x":"280","order":"7"},"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":false,"y":"0","x":"320","order":"8"},"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":false,"y":"0","x":"360","order":"9"}}</v>
+        <v>"tools":{"newFile":{"icon":"fas fa-file","function":"openLeftMenu()","text":"New file","display":false,"y":"0","x":"0","order":"0"},"saveFile":{"icon":"far fa-save","function":"openLeftMenu()","text":"Save file","display":false,"y":"0","x":"40","order":"1"},"deleteFile":{"icon":"far fa-trash-alt","function":"openLeftMenu()","text":"Delete file","display":false,"y":"0","x":"80","order":"2"},"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu('ADD_BLOCK')","text":"Add block","display":false,"y":"0","x":"120","order":"3"},"editBlock":{"icon":"far fa-edit","function":"openLeftMenu('EDIT_BLOCK')","text":"Edit block","display":false,"y":"0","x":"160","order":"4"},"addConnection":{"icon":"fas fa-project-diagram","function":"openLeftMenu()","text":"Add connection","display":false,"y":"0","x":"200","order":"5"},"editConnection":{"icon":"fas fa-pencil-alt","function":"openLeftMenu()","text":"Edit connection","display":false,"y":"0","x":"240","order":"6"},"delete":{"icon":"fas fa-eraser","function":"openLeftMenu()","text":"Delete","display":false,"y":"0","x":"280","order":"7"},"filesView":{"icon":"far fa-folder-open","function":"openLeftMenu()","text":"Files view","display":false,"y":"0","x":"320","order":"8"},"simView":{"icon":"fas fa-play","function":"openLeftMenu()","text":"Simulation view","display":false,"y":"0","x":"360","order":"9"}}</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -801,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -822,7 +898,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu()","text":"Add block","display":false,"y":"0","x":"120","order":"3"},</v>
+        <v>"addBlock":{"icon":"far fa-plus-square","function":"openLeftMenu('ADD_BLOCK')","text":"Add block","display":false,"y":"0","x":"120","order":"3"},</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -833,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -854,7 +930,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>"editBlock":{"icon":"far fa-edit","function":"openLeftMenu()","text":"Edit block","display":false,"y":"0","x":"160","order":"4"},</v>
+        <v>"editBlock":{"icon":"far fa-edit","function":"openLeftMenu('EDIT_BLOCK')","text":"Edit block","display":false,"y":"0","x":"160","order":"4"},</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1518,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD001D-C99D-4E3C-BE5C-3929C71869C0}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,4 +1647,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B75BB5-727D-43CB-AB8E-FD2D3EDBD069}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="str">
+        <f ca="1">"const "&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"=["&amp;_xlfn.CONCAT(D:D)&amp;"];"</f>
+        <v>const blockTemplate=[{"name":"Category","type":"string","argument":""},{"name":"Name","type":"string","argument":""},{"name":"Description","type":"string","argument":""},{"name":"Parameters","type":"json","argument":""},{"name":"Label","type":"function","argument":""},{"name":"MaxInTerminals","type":"float","argument":""},{"name":"MaxOutTerminals","type":"float","argument":""},{"name":"Icon","type":"function","argument":""},{"name":"Init","type":"function","argument":""},{"name":"End","type":"function","argument":""},{"name":"Constructor","type":"function","argument":"Data"},{"name":"Destructor","type":"function","argument":"Data"},{"name":"RunTimeExec","type":"function","argument":""},{"name":"Evaluate","type":"function","argument":""},{"name":"Details","type":"function","argument":""},{"name":"ValidateParams","type":"function","argument":""}];</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"{"&amp;CHAR(34)&amp;$A$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),"",",")</f>
+        <v>{"name":"Category","type":"string","argument":""},</v>
+      </c>
+      <c r="I2" t="str">
+        <f>TRIM(A2)</f>
+        <v>Category</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D17" si="0">"{"&amp;CHAR(34)&amp;$A$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
+        <v>{"name":"Name","type":"string","argument":""},</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I17" si="1">TRIM(A3)</f>
+        <v>Name</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Description","type":"string","argument":""},</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Parameters","type":"json","argument":""},</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>Parameters</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Label","type":"function","argument":""},</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Label</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"MaxInTerminals","type":"float","argument":""},</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>MaxInTerminals</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"MaxOutTerminals","type":"float","argument":""},</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>MaxOutTerminals</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Icon","type":"function","argument":""},</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Init","type":"function","argument":""},</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>Init</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"End","type":"function","argument":""},</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>End</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Constructor","type":"function","argument":"Data"},</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>Constructor</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Destructor","type":"function","argument":"Data"},</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>Destructor</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"RunTimeExec","type":"function","argument":""},</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>RunTimeExec</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Evaluate","type":"function","argument":""},</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>Evaluate</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Details","type":"function","argument":""},</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>Details</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"ValidateParams","type":"function","argument":""}</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>ValidateParams</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377D2E5-5A00-4F1C-B2E8-166E0E9DDDA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9D8394-8CD7-4357-879C-75698CF34811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
   <si>
     <t>newFile</t>
   </si>
@@ -374,6 +374,21 @@
   </si>
   <si>
     <t>openLeftMenu('EDIT_BLOCK')</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>DefaultInTerminals</t>
+  </si>
+  <si>
+    <t>DefaultOutTerminals</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
 </sst>
 </file>
@@ -739,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AF13B-AD09-4EC1-B187-55BF9EDB6D77}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1651,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B75BB5-727D-43CB-AB8E-FD2D3EDBD069}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1689,7 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">"const "&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"=["&amp;_xlfn.CONCAT(D:D)&amp;"];"</f>
-        <v>const blockTemplate=[{"name":"Category","type":"string","argument":""},{"name":"Name","type":"string","argument":""},{"name":"Description","type":"string","argument":""},{"name":"Parameters","type":"json","argument":""},{"name":"Label","type":"function","argument":""},{"name":"MaxInTerminals","type":"float","argument":""},{"name":"MaxOutTerminals","type":"float","argument":""},{"name":"Icon","type":"function","argument":""},{"name":"Init","type":"function","argument":""},{"name":"End","type":"function","argument":""},{"name":"Constructor","type":"function","argument":"Data"},{"name":"Destructor","type":"function","argument":"Data"},{"name":"RunTimeExec","type":"function","argument":""},{"name":"Evaluate","type":"function","argument":""},{"name":"Details","type":"function","argument":""},{"name":"ValidateParams","type":"function","argument":""}];</v>
+        <v>const blockTemplate=[{"name":"Category","type":"string","argument":""},{"name":"Name","type":"string","argument":""},{"name":"Description","type":"string","argument":""},{"name":"Parameters","type":"json","argument":""},{"name":"Label","type":"function","argument":""},{"name":"MaxInTerminals","type":"float","argument":""},{"name":"MaxOutTerminals","type":"float","argument":""},{"name":"Icon","type":"function","argument":""},{"name":"Init","type":"function","argument":""},{"name":"End","type":"function","argument":""},{"name":"Constructor","type":"function","argument":"Data"},{"name":"Destructor","type":"function","argument":"Data"},{"name":"RunTimeExec","type":"function","argument":""},{"name":"Evaluate","type":"function","argument":""},{"name":"Details","type":"function","argument":""},{"name":"ValidateParams","type":"function","argument":""},{"name":"bid","type":"string","argument":""},{"name":"Colors","type":"object","argument":""},{"name":"DefaultInTerminals","type":"float","argument":""},{"name":"DefaultOutTerminals","type":"float","argument":""}];</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1701,11 +1716,11 @@
         <v>93</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D17" si="0">"{"&amp;CHAR(34)&amp;$A$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
+        <f t="shared" ref="D3:D21" si="0">"{"&amp;CHAR(34)&amp;$A$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
         <v>{"name":"Name","type":"string","argument":""},</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I17" si="1">TRIM(A3)</f>
+        <f t="shared" ref="I3:I21" si="1">TRIM(A3)</f>
         <v>Name</v>
       </c>
     </row>
@@ -1932,11 +1947,75 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"ValidateParams","type":"function","argument":""}</v>
+        <v>{"name":"ValidateParams","type":"function","argument":""},</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>ValidateParams</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"bid","type":"string","argument":""},</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>bid</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"Colors","type":"object","argument":""},</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>Colors</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"DefaultInTerminals","type":"float","argument":""},</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>DefaultInTerminals</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"DefaultOutTerminals","type":"float","argument":""}</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>DefaultOutTerminals</v>
       </c>
     </row>
   </sheetData>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9D8394-8CD7-4357-879C-75698CF34811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248AF714-BCB3-4936-9171-255B3883E7B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -382,13 +382,13 @@
     <t>Colors</t>
   </si>
   <si>
-    <t>DefaultInTerminals</t>
-  </si>
-  <si>
-    <t>DefaultOutTerminals</t>
-  </si>
-  <si>
     <t>object</t>
+  </si>
+  <si>
+    <t>InTerminals</t>
+  </si>
+  <si>
+    <t>OutTerminals</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">"const "&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"=["&amp;_xlfn.CONCAT(D:D)&amp;"];"</f>
-        <v>const blockTemplate=[{"name":"Category","type":"string","argument":""},{"name":"Name","type":"string","argument":""},{"name":"Description","type":"string","argument":""},{"name":"Parameters","type":"json","argument":""},{"name":"Label","type":"function","argument":""},{"name":"MaxInTerminals","type":"float","argument":""},{"name":"MaxOutTerminals","type":"float","argument":""},{"name":"Icon","type":"function","argument":""},{"name":"Init","type":"function","argument":""},{"name":"End","type":"function","argument":""},{"name":"Constructor","type":"function","argument":"Data"},{"name":"Destructor","type":"function","argument":"Data"},{"name":"RunTimeExec","type":"function","argument":""},{"name":"Evaluate","type":"function","argument":""},{"name":"Details","type":"function","argument":""},{"name":"ValidateParams","type":"function","argument":""},{"name":"bid","type":"string","argument":""},{"name":"Colors","type":"object","argument":""},{"name":"DefaultInTerminals","type":"float","argument":""},{"name":"DefaultOutTerminals","type":"float","argument":""}];</v>
+        <v>const blockTemplate=[{"name":"Category","type":"string","argument":""},{"name":"Name","type":"string","argument":""},{"name":"Description","type":"string","argument":""},{"name":"Parameters","type":"json","argument":""},{"name":"Label","type":"function","argument":""},{"name":"MaxInTerminals","type":"float","argument":""},{"name":"MaxOutTerminals","type":"float","argument":""},{"name":"Icon","type":"function","argument":""},{"name":"Init","type":"function","argument":""},{"name":"End","type":"function","argument":""},{"name":"Constructor","type":"function","argument":"Data"},{"name":"Destructor","type":"function","argument":"Data"},{"name":"RunTimeExec","type":"function","argument":""},{"name":"Evaluate","type":"function","argument":""},{"name":"Details","type":"function","argument":""},{"name":"ValidateParams","type":"function","argument":""},{"name":"bid","type":"string","argument":""},{"name":"Colors","type":"object","argument":""},{"name":"InTerminals","type":"float","argument":""},{"name":"OutTerminals","type":"float","argument":""}];</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1975,7 +1975,7 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1988,34 +1988,34 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
         <v>96</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"DefaultInTerminals","type":"float","argument":""},</v>
+        <v>{"name":"InTerminals","type":"float","argument":""},</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>DefaultInTerminals</v>
+        <v>InTerminals</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>96</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"DefaultOutTerminals","type":"float","argument":""}</v>
+        <v>{"name":"OutTerminals","type":"float","argument":""}</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
-        <v>DefaultOutTerminals</v>
+        <v>OutTerminals</v>
       </c>
     </row>
   </sheetData>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248AF714-BCB3-4936-9171-255B3883E7B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AF96E-A8D2-40BF-80E5-184683E32770}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>newFile</t>
   </si>
@@ -325,21 +325,12 @@
     <t>json</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>MaxInTerminals</t>
-  </si>
-  <si>
-    <t>MaxOutTerminals</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -385,10 +376,10 @@
     <t>object</t>
   </si>
   <si>
-    <t>InTerminals</t>
-  </si>
-  <si>
-    <t>OutTerminals</t>
+    <t>TerminalsIn</t>
+  </si>
+  <si>
+    <t>TerminalsOut</t>
   </si>
 </sst>
 </file>
@@ -892,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -924,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -1666,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B75BB5-727D-43CB-AB8E-FD2D3EDBD069}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1679,7 +1670,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>89</v>
@@ -1689,7 +1680,7 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">"const "&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"=["&amp;_xlfn.CONCAT(D:D)&amp;"];"</f>
-        <v>const blockTemplate=[{"name":"Category","type":"string","argument":""},{"name":"Name","type":"string","argument":""},{"name":"Description","type":"string","argument":""},{"name":"Parameters","type":"json","argument":""},{"name":"Label","type":"function","argument":""},{"name":"MaxInTerminals","type":"float","argument":""},{"name":"MaxOutTerminals","type":"float","argument":""},{"name":"Icon","type":"function","argument":""},{"name":"Init","type":"function","argument":""},{"name":"End","type":"function","argument":""},{"name":"Constructor","type":"function","argument":"Data"},{"name":"Destructor","type":"function","argument":"Data"},{"name":"RunTimeExec","type":"function","argument":""},{"name":"Evaluate","type":"function","argument":""},{"name":"Details","type":"function","argument":""},{"name":"ValidateParams","type":"function","argument":""},{"name":"bid","type":"string","argument":""},{"name":"Colors","type":"object","argument":""},{"name":"InTerminals","type":"float","argument":""},{"name":"OutTerminals","type":"float","argument":""}];</v>
+        <v>const blockTemplate=[{"name":"Category","type":"string","argument":""},{"name":"Name","type":"string","argument":""},{"name":"Description","type":"string","argument":""},{"name":"Parameters","type":"json","argument":""},{"name":"Label","type":"function","argument":""},{"name":"Icon","type":"function","argument":""},{"name":"Init","type":"function","argument":""},{"name":"End","type":"function","argument":""},{"name":"Constructor","type":"function","argument":"Data"},{"name":"Destructor","type":"function","argument":"Data"},{"name":"RunTimeExec","type":"function","argument":""},{"name":"Evaluate","type":"function","argument":""},{"name":"Details","type":"function","argument":""},{"name":"ValidateParams","type":"function","argument":""},{"name":"bid","type":"string","argument":""},{"name":"Colors","type":"object","argument":""},{"name":"TerminalsIn","type":"object","argument":""},{"name":"TerminalsOut","type":"object","argument":""}];</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1716,11 +1707,11 @@
         <v>93</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D21" si="0">"{"&amp;CHAR(34)&amp;$A$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
+        <f t="shared" ref="D3:D19" si="0">"{"&amp;CHAR(34)&amp;$A$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),"",",")</f>
         <v>{"name":"Name","type":"string","argument":""},</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="1">TRIM(A3)</f>
+        <f t="shared" ref="I3:I19" si="1">TRIM(A3)</f>
         <v>Name</v>
       </c>
     </row>
@@ -1758,13 +1749,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>"{"&amp;CHAR(34)&amp;$A$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;$C$1&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C6&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(#REF!),"",",")</f>
         <v>{"name":"Label","type":"function","argument":""},</v>
       </c>
       <c r="I6" t="str">
@@ -1777,15 +1768,15 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"MaxInTerminals","type":"float","argument":""},</v>
+        <v>{"name":"Icon","type":"function","argument":""},</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>MaxInTerminals</v>
+        <v>Icon</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1793,165 +1784,165 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"MaxOutTerminals","type":"float","argument":""},</v>
+        <v>{"name":"Init","type":"function","argument":""},</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>MaxOutTerminals</v>
+        <v>Init</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"Icon","type":"function","argument":""},</v>
+        <v>{"name":"End","type":"function","argument":""},</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>Icon</v>
+        <v>End</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"Init","type":"function","argument":""},</v>
+        <v>{"name":"Constructor","type":"function","argument":"Data"},</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>Init</v>
+        <v>Constructor</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"End","type":"function","argument":""},</v>
+        <v>{"name":"Destructor","type":"function","argument":"Data"},</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>End</v>
+        <v>Destructor</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"Constructor","type":"function","argument":"Data"},</v>
+        <v>{"name":"RunTimeExec","type":"function","argument":""},</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>Constructor</v>
+        <v>RunTimeExec</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"Destructor","type":"function","argument":"Data"},</v>
+        <v>{"name":"Evaluate","type":"function","argument":""},</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>Destructor</v>
+        <v>Evaluate</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"RunTimeExec","type":"function","argument":""},</v>
+        <v>{"name":"Details","type":"function","argument":""},</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>RunTimeExec</v>
+        <v>Details</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"Evaluate","type":"function","argument":""},</v>
+        <v>{"name":"ValidateParams","type":"function","argument":""},</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>Evaluate</v>
+        <v>ValidateParams</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"Details","type":"function","argument":""},</v>
+        <v>{"name":"bid","type":"string","argument":""},</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>Details</v>
+        <v>bid</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"ValidateParams","type":"function","argument":""},</v>
+        <v>{"name":"Colors","type":"object","argument":""},</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>ValidateParams</v>
+        <v>Colors</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1959,15 +1950,15 @@
         <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"bid","type":"string","argument":""},</v>
+        <v>{"name":"TerminalsIn","type":"object","argument":""},</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>bid</v>
+        <v>TerminalsIn</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1975,47 +1966,15 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"Colors","type":"object","argument":""},</v>
+        <v>{"name":"TerminalsOut","type":"object","argument":""}</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v>Colors</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name":"InTerminals","type":"float","argument":""},</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>InTerminals</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name":"OutTerminals","type":"float","argument":""}</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>OutTerminals</v>
+        <v>TerminalsOut</v>
       </c>
     </row>
   </sheetData>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AF96E-A8D2-40BF-80E5-184683E32770}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9E13D-1D3C-48C7-B471-D29355A77BE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
     <sheet name="functionsCategories" sheetId="3" r:id="rId2"/>
-    <sheet name="IconText" sheetId="4" r:id="rId3"/>
-    <sheet name="networkIcon" sheetId="5" r:id="rId4"/>
-    <sheet name="blockTemplate" sheetId="6" r:id="rId5"/>
+    <sheet name="toolBar" sheetId="7" r:id="rId3"/>
+    <sheet name="IconText" sheetId="4" r:id="rId4"/>
+    <sheet name="networkIcon" sheetId="5" r:id="rId5"/>
+    <sheet name="blockTemplate" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>newFile</t>
   </si>
@@ -380,6 +381,57 @@
   </si>
   <si>
     <t>TerminalsOut</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>hl</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>File explorer</t>
+  </si>
+  <si>
+    <t>Extend licence period</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit </t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1162,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="N2" sqref="N2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,6 +1590,124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C9AEB-C6BB-44D2-B1DC-A1A0A65CA6D9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1596,7 +1766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD001D-C99D-4E3C-BE5C-3929C71869C0}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1655,11 +1825,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B75BB5-727D-43CB-AB8E-FD2D3EDBD069}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9E13D-1D3C-48C7-B471-D29355A77BE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBDD351-51C7-4C43-817B-07CE4642B8D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
   <si>
     <t>newFile</t>
   </si>
@@ -432,6 +432,105 @@
   </si>
   <si>
     <t xml:space="preserve">Edit </t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Zoom out</t>
+  </si>
+  <si>
+    <t>Zoom in</t>
+  </si>
+  <si>
+    <t>Fit all</t>
+  </si>
+  <si>
+    <t>Original size</t>
+  </si>
+  <si>
+    <t>fas fa-arrow-left</t>
+  </si>
+  <si>
+    <t>showSimulationToolbar(false)</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 1</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 2</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 3</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 4</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 5</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 6</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 7</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 8</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 9</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 10</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 11</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 12</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 13</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 14</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 15</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 16</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 17</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 18</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 19</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 20</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 21</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 22</t>
+  </si>
+  <si>
+    <t>Good to go when eveything is fine and also I want to say something more 23</t>
+  </si>
+  <si>
+    <t>Key board Shortcut</t>
+  </si>
+  <si>
+    <t>Ctrl + C</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1261,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O8"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,15 +1690,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1615,95 +1714,503 @@
       <c r="E1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="str">
+        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":["&amp;_xlfn.CONCAT(G2:G24)&amp;"]"</f>
+        <v>"toolBar":[{"value":"File","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":"Ctrl + C","items":[{"value":"New","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 2","shortcut":"Ctrl + C"},{"value":"Save","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 3","shortcut":"Ctrl + C"},{"value":"Load","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 4","shortcut":"Ctrl + C"},{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 5","shortcut":"Ctrl + C"},{"value":"Print","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 6","shortcut":"Ctrl + C"},{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 7","shortcut":"Ctrl + C"},{"value":"Account","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 8","shortcut":"Ctrl + C"},{"value":"Extend licence period","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 9","shortcut":"Ctrl + C"},{"value":"File explorer","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 10","shortcut":"Ctrl + C"},{"value":"Sign out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 11","shortcut":"Ctrl + C"}]},{"value":"Edit","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 12","shortcut":"Ctrl + C","items":[{"value":"Cut","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 13","shortcut":"Ctrl + C"},{"value":"Copy","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 14","shortcut":"Ctrl + C"},{"value":"Paste","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 15","shortcut":"Ctrl + C"},{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 16","shortcut":"Ctrl + C"},{"value":"Edit block","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 17","shortcut":"Ctrl + C"},{"value":"Edit ","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 18","shortcut":"Ctrl + C"}]},{"value":"View","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 19","shortcut":"Ctrl + C","items":[{"value":"Zoom in","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 20","shortcut":"Ctrl + C"},{"value":"Zoom out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 21","shortcut":"Ctrl + C"},{"value":"Original size","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 22","shortcut":"Ctrl + C"},{"value":"Fit all","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 23","shortcut":"Ctrl + C"}]},]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(ISBLANK(A2),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"File","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":"Ctrl + C","items":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G24" si="0">IF(ISBLANK(A3),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"New","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 2","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Save","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 3","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Load","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 4","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 5","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Print","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 6","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 7","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Account","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 8","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Extend licence period","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 9","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"File explorer","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 10","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Sign out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 11","shortcut":"Ctrl + C"}]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>127</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Edit","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 12","shortcut":"Ctrl + C","items":[</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Cut","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 13","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Copy","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 14","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Paste","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 15","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 16","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Edit block","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 17","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>131</v>
       </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Edit ","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 18","shortcut":"Ctrl + C"}]},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"View","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 19","shortcut":"Ctrl + C","items":[</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Zoom in","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 20","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Zoom out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 21","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Original size","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 22","shortcut":"Ctrl + C"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Fit all","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 23","shortcut":"Ctrl + C"}]},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBDD351-51C7-4C43-817B-07CE4642B8D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50441B01-994B-4DB7-94B4-7BD07CFA0991}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="273">
   <si>
     <t>newFile</t>
   </si>
@@ -392,15 +392,6 @@
     <t>sub</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
     <t>hl</t>
   </si>
   <si>
@@ -410,9 +401,6 @@
     <t>Print</t>
   </si>
   <si>
-    <t>File explorer</t>
-  </si>
-  <si>
     <t>Extend licence period</t>
   </si>
   <si>
@@ -431,9 +419,6 @@
     <t>Paste</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit </t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
@@ -452,78 +437,9 @@
     <t>fas fa-arrow-left</t>
   </si>
   <si>
-    <t>showSimulationToolbar(false)</t>
-  </si>
-  <si>
     <t>Good to go when eveything is fine and also I want to say something more 1</t>
   </si>
   <si>
-    <t>Good to go when eveything is fine and also I want to say something more 2</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 3</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 4</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 5</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 6</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 7</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 8</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 9</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 10</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 11</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 12</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 13</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 14</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 15</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 16</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 17</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 18</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 19</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 20</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 21</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 22</t>
-  </si>
-  <si>
-    <t>Good to go when eveything is fine and also I want to say something more 23</t>
-  </si>
-  <si>
     <t>Key board Shortcut</t>
   </si>
   <si>
@@ -531,6 +447,414 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Save to local machine</t>
+  </si>
+  <si>
+    <t>Load from local machine</t>
+  </si>
+  <si>
+    <t>Make public</t>
+  </si>
+  <si>
+    <t>Share privately</t>
+  </si>
+  <si>
+    <t>Show/Hide Grid lines</t>
+  </si>
+  <si>
+    <t>Keyboard shortcuts</t>
+  </si>
+  <si>
+    <t>Undo</t>
+  </si>
+  <si>
+    <t>Redo</t>
+  </si>
+  <si>
+    <t>Minimize  subsystem(s)</t>
+  </si>
+  <si>
+    <t>Maximize  subsystem(s)</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>far fa-folder</t>
+  </si>
+  <si>
+    <t>fas fa-download</t>
+  </si>
+  <si>
+    <t>fas fa-upload</t>
+  </si>
+  <si>
+    <t>fas fa-share-alt-square</t>
+  </si>
+  <si>
+    <t>fas fa-share-alt</t>
+  </si>
+  <si>
+    <t>fas fa-print</t>
+  </si>
+  <si>
+    <t>fas fa-puzzle-piece</t>
+  </si>
+  <si>
+    <t>fas fa-edit</t>
+  </si>
+  <si>
+    <t>far fa-object-group</t>
+  </si>
+  <si>
+    <t>far fa-object-ungroup</t>
+  </si>
+  <si>
+    <t>fas fa-cut</t>
+  </si>
+  <si>
+    <t>fas fa-copy</t>
+  </si>
+  <si>
+    <t>fas fa-paste</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>fas fa-clone</t>
+  </si>
+  <si>
+    <t>fas fa-trash-alt</t>
+  </si>
+  <si>
+    <t>fas fa-undo</t>
+  </si>
+  <si>
+    <t>fas fa-redo</t>
+  </si>
+  <si>
+    <t>fas fa-search-plus</t>
+  </si>
+  <si>
+    <t>fas fa-search-minus</t>
+  </si>
+  <si>
+    <t>fas fa-expand</t>
+  </si>
+  <si>
+    <t>fas fa-compress</t>
+  </si>
+  <si>
+    <t>fas fa-window-minimize</t>
+  </si>
+  <si>
+    <t>fas fa-window-maximize</t>
+  </si>
+  <si>
+    <t>Toggle snap to grid</t>
+  </si>
+  <si>
+    <t>fas fa-border-all</t>
+  </si>
+  <si>
+    <t>fas fa-image</t>
+  </si>
+  <si>
+    <t>fas fa-magnet</t>
+  </si>
+  <si>
+    <t>far fa-keyboard</t>
+  </si>
+  <si>
+    <t>fas fa-user-alt</t>
+  </si>
+  <si>
+    <t>fas fa-ticket-alt</t>
+  </si>
+  <si>
+    <t>fas fa-door-open</t>
+  </si>
+  <si>
+    <t>fas fa-book</t>
+  </si>
+  <si>
+    <t>Context help</t>
+  </si>
+  <si>
+    <t>fas fa-info</t>
+  </si>
+  <si>
+    <t>far fa-question-circle</t>
+  </si>
+  <si>
+    <t>fas fa-file-alt</t>
+  </si>
+  <si>
+    <t>fas fa-pen</t>
+  </si>
+  <si>
+    <t>fas fa-desktop</t>
+  </si>
+  <si>
+    <t>fas fa-user-cog</t>
+  </si>
+  <si>
+    <t>far fa-life-ring</t>
+  </si>
+  <si>
+    <t>Menu gives options to manage your files</t>
+  </si>
+  <si>
+    <t>Share Uyamak system with your friends and teachers</t>
+  </si>
+  <si>
+    <t>Publish your Uyamak system to the public</t>
+  </si>
+  <si>
+    <t>Print the Uyamak system</t>
+  </si>
+  <si>
+    <t>Menu gives options to manage your Uyamak system</t>
+  </si>
+  <si>
+    <t>Download the Uyamak system to your local device as a file</t>
+  </si>
+  <si>
+    <t>Load a Uyamak system from your local device</t>
+  </si>
+  <si>
+    <t>Organize your Uyamak systems on your cloud storage</t>
+  </si>
+  <si>
+    <t>Cloud organizer</t>
+  </si>
+  <si>
+    <t>Show Model Editor</t>
+  </si>
+  <si>
+    <t>Show Simulation drawer</t>
+  </si>
+  <si>
+    <t>Displays the Uyamak model editor where you can tweak the model settings</t>
+  </si>
+  <si>
+    <t>Displays the simulation drawer where you can execute the Uyamak system</t>
+  </si>
+  <si>
+    <t>Creates Uyamak sub-system out of the selected Uyamak models</t>
+  </si>
+  <si>
+    <t>Dismantles all the selected Uyamak sub-systems.</t>
+  </si>
+  <si>
+    <t>Copies the selected Uyamak models into the clipboard</t>
+  </si>
+  <si>
+    <t>Copies the selected Uyamak models into the clipboard and deletes the original ones</t>
+  </si>
+  <si>
+    <t>Pastes the clipboard Uyamak models to the present Uyamak system</t>
+  </si>
+  <si>
+    <t>Clones the selected Uyamak models</t>
+  </si>
+  <si>
+    <t>Delete the selected Uyamak models and Sub-systems</t>
+  </si>
+  <si>
+    <t>Undo the recent changes</t>
+  </si>
+  <si>
+    <t>Redo the recent changes</t>
+  </si>
+  <si>
+    <t>Menu gives options to manipulate the Uyamak system</t>
+  </si>
+  <si>
+    <t>Menu gives different options to visualize the Uyamak system</t>
+  </si>
+  <si>
+    <t>Zooms in</t>
+  </si>
+  <si>
+    <t>Zooms out</t>
+  </si>
+  <si>
+    <t>Shows the original size. Some items may be out of view. You can see them by scrolling</t>
+  </si>
+  <si>
+    <t>Shows the complete Uyamak system</t>
+  </si>
+  <si>
+    <t>Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized</t>
+  </si>
+  <si>
+    <t>Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized</t>
+  </si>
+  <si>
+    <t>System outline</t>
+  </si>
+  <si>
+    <t>Shows outline of the Uyamak system in a small window on the top right corner</t>
+  </si>
+  <si>
+    <t>Shows or hide the grid lines</t>
+  </si>
+  <si>
+    <t>When snap to grid is activated, the blocks are moved at a steps instead of smoothly</t>
+  </si>
+  <si>
+    <t>Displays all the keyboard shortcuts</t>
+  </si>
+  <si>
+    <t>Menu gives options to manage the user account</t>
+  </si>
+  <si>
+    <t>Opens another page where you can manage your Uyamak profile</t>
+  </si>
+  <si>
+    <t>Lets you extend the license period</t>
+  </si>
+  <si>
+    <t>Signing out</t>
+  </si>
+  <si>
+    <t>Menu gives access to documentation and help</t>
+  </si>
+  <si>
+    <t>Shows credits and version information</t>
+  </si>
+  <si>
+    <t>Takes you to the documentation page</t>
+  </si>
+  <si>
+    <t>Shows the documentation for the selected Uyamak model</t>
+  </si>
+  <si>
+    <t>Ctrl + O</t>
+  </si>
+  <si>
+    <t>Ctrl + S</t>
+  </si>
+  <si>
+    <t>Ctrl + L</t>
+  </si>
+  <si>
+    <t>Ctrl + P</t>
+  </si>
+  <si>
+    <t>Ctrl + E</t>
+  </si>
+  <si>
+    <t>Ctrl +U</t>
+  </si>
+  <si>
+    <t>Show Uyamak library</t>
+  </si>
+  <si>
+    <t>Displays the Uyamak library drawer where you can find all the Uyamak models</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + S</t>
+  </si>
+  <si>
+    <t>Ctrl + G</t>
+  </si>
+  <si>
+    <t>Ctrl + X</t>
+  </si>
+  <si>
+    <t>Ctrl + V</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + C</t>
+  </si>
+  <si>
+    <t>Ctrl + Z</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Z</t>
+  </si>
+  <si>
+    <t>Ctrl + +</t>
+  </si>
+  <si>
+    <t>Ctrl + -</t>
+  </si>
+  <si>
+    <t>Ctrl + 0</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + 0</t>
+  </si>
+  <si>
+    <t>Ctrl + M</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + M</t>
+  </si>
+  <si>
+    <t>Ctrl + A</t>
+  </si>
+  <si>
+    <t>Ctrl  + H</t>
+  </si>
+  <si>
+    <t>Create sub-system</t>
+  </si>
+  <si>
+    <t>Dismantle sub-system</t>
+  </si>
+  <si>
+    <t>Ctrl + K</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + K</t>
+  </si>
+  <si>
+    <t>Ctrl + J</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + J</t>
+  </si>
+  <si>
+    <t>Ctrl + F</t>
+  </si>
+  <si>
+    <t>Ctrl + T</t>
+  </si>
+  <si>
+    <t>Ctrl + W</t>
+  </si>
+  <si>
+    <t>Ctrl + B</t>
+  </si>
+  <si>
+    <t>Ctrl + D</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + A</t>
+  </si>
+  <si>
+    <t>Ctrl + Y</t>
+  </si>
+  <si>
+    <t>function/width</t>
   </si>
 </sst>
 </file>
@@ -584,7 +908,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1690,15 +2022,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1709,506 +2045,854 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" t="str">
-        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":["&amp;_xlfn.CONCAT(G2:G24)&amp;"]"</f>
-        <v>"toolBar":[{"value":"File","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":"Ctrl + C","items":[{"value":"New","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 2","shortcut":"Ctrl + C"},{"value":"Save","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 3","shortcut":"Ctrl + C"},{"value":"Load","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 4","shortcut":"Ctrl + C"},{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 5","shortcut":"Ctrl + C"},{"value":"Print","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 6","shortcut":"Ctrl + C"},{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 7","shortcut":"Ctrl + C"},{"value":"Account","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 8","shortcut":"Ctrl + C"},{"value":"Extend licence period","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 9","shortcut":"Ctrl + C"},{"value":"File explorer","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 10","shortcut":"Ctrl + C"},{"value":"Sign out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 11","shortcut":"Ctrl + C"}]},{"value":"Edit","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 12","shortcut":"Ctrl + C","items":[{"value":"Cut","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 13","shortcut":"Ctrl + C"},{"value":"Copy","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 14","shortcut":"Ctrl + C"},{"value":"Paste","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 15","shortcut":"Ctrl + C"},{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 16","shortcut":"Ctrl + C"},{"value":"Edit block","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 17","shortcut":"Ctrl + C"},{"value":"Edit ","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 18","shortcut":"Ctrl + C"}]},{"value":"View","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 19","shortcut":"Ctrl + C","items":[{"value":"Zoom in","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 20","shortcut":"Ctrl + C"},{"value":"Zoom out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 21","shortcut":"Ctrl + C"},{"value":"Original size","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 22","shortcut":"Ctrl + C"},{"value":"Fit all","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 23","shortcut":"Ctrl + C"}]},]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="H1" t="str">
+        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":["&amp;_xlfn.CONCAT(G:G)&amp;"]"</f>
+        <v>"toolBar":[{"value":"File","icon":"fas fa-file-alt","width":"350","text":"Menu gives options to manage your files","shortcut":"","items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"","text":"Organize your Uyamak systems on your cloud storage","shortcut":"Ctrl + O"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Save to local machine","icon":"fas fa-download","function":"","text":"Download the Uyamak system to your local device as a file","shortcut":"Ctrl + S"},{"value":"Load from local machine","icon":"fas fa-upload","function":"","text":"Load a Uyamak system from your local device","shortcut":"Ctrl + L"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"","text":"Share Uyamak system with your friends and teachers","shortcut":"Ctrl + J"},{"value":"Make public","icon":"fas fa-share-alt","function":"","text":"Publish your Uyamak system to the public","shortcut":"Ctrl + Shift + J"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Print","icon":"fas fa-print","function":"","text":"Print the Uyamak system","shortcut":"Ctrl + P"}]},{"value":"System","icon":"fas fa-project-diagram","function":"375","text":"Menu gives options to manage your Uyamak system","shortcut":"","items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":"Ctrl +U"},{"value":"Show Model Editor","icon":"fas fa-edit","function":"","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":"Ctrl + E"},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":"Ctrl + Alt + S"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Create sub-system","icon":"far fa-object-group","function":"","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":"Ctrl + K"},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":"Ctrl + Shift + K"}]},{"value":"Edit","icon":"fas fa-pen","function":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":"","items":[{"value":"Cut","icon":"fas fa-cut","function":"","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":"Ctrl + X"},{"value":"Copy","icon":"fas fa-copy","function":"","text":"Copies the selected Uyamak models into the clipboard","shortcut":"Ctrl + C"},{"value":"Paste","icon":"fas fa-paste","function":"","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":"Ctrl + V"},{"value":"Clone","icon":"fas fa-clone","function":"","text":"Clones the selected Uyamak models","shortcut":"Ctrl + Shift + C"},{"value":"Delete","icon":"fas fa-trash-alt","function":"","text":"Delete the selected Uyamak models and Sub-systems","shortcut":"Delete"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Undo","icon":"fas fa-undo","function":"","text":"Undo the recent changes","shortcut":"Ctrl + Z"},{"value":"Redo","icon":"fas fa-redo","function":"","text":"Redo the recent changes","shortcut":"Ctrl + Shift + Z"}]},{"value":"View","icon":"fas fa-desktop","function":"375","text":"Menu gives different options to visualize the Uyamak system","shortcut":"","items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"","text":"Zooms in","shortcut":"Ctrl + +"},{"value":"Zoom out","icon":"fas fa-search-minus","function":"","text":"Zooms out","shortcut":"Ctrl + -"},{"value":"Original size","icon":"fas fa-compress","function":"","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":"Ctrl + 0"},{"value":"Fit all","icon":"fas fa-expand","function":"","text":"Shows the complete Uyamak system","shortcut":"Ctrl + Shift + 0"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":"Ctrl + M"},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":"Ctrl + Shift + M"},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"System outline","icon":"fas fa-image","function":"","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":"Ctrl + F"},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"","text":"Shows or hide the grid lines","shortcut":"Ctrl + G"},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":"Ctrl + T"},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"","text":"Displays all the keyboard shortcuts","shortcut":"Ctrl + Y"}]},{"value":"Account","icon":"fas fa-user-alt","function":"275","text":"Menu gives options to manage the user account","shortcut":"","items":[{"value":"Profile","icon":"fas fa-user-cog","function":"","text":"Opens another page where you can manage your Uyamak profile","shortcut":"Ctrl + A"},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"","text":"Lets you extend the license period","shortcut":"Ctrl + B"},{"value":"Sign out","icon":"fas fa-door-open","function":"","text":"Signing out","shortcut":"Ctrl + W"}]},{"value":"Help","icon":"far fa-life-ring","function":"300","text":"Menu gives access to documentation and help","shortcut":"","items":[{"value":"Documentation","icon":"fas fa-book","function":"","text":"Takes you to the documentation page","shortcut":"Ctrl + D"},{"value":"Context help","icon":"far fa-question-circle","function":"","text":"Shows the documentation for the selected Uyamak model","shortcut":"Ctrl  + H"},{"value":"About","icon":"fas fa-info","function":"","text":"Shows credits and version information","shortcut":"Ctrl + Shift + A"}]},]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(ISBLANK(A2),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"File","icon":"fas fa-file-alt","width":"350","text":"Menu gives options to manage your files","shortcut":"","items":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(ISBLANK(A3),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Cloud organizer","icon":"far fa-folder","function":"","text":"Organize your Uyamak systems on your cloud storage","shortcut":"Ctrl + O"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(ISBLANK(A4),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A5),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G48" si="0">IF(ISBLANK(A5),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F5&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A6),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Save to local machine","icon":"fas fa-download","function":"","text":"Download the Uyamak system to your local device as a file","shortcut":"Ctrl + S"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Load from local machine","icon":"fas fa-upload","function":"","text":"Load a Uyamak system from your local device","shortcut":"Ctrl + L"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Share privately","icon":"fas fa-share-alt-square","function":"","text":"Share Uyamak system with your friends and teachers","shortcut":"Ctrl + J"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Make public","icon":"fas fa-share-alt","function":"","text":"Publish your Uyamak system to the public","shortcut":"Ctrl + Shift + J"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Print","icon":"fas fa-print","function":"","text":"Print the Uyamak system","shortcut":"Ctrl + P"}]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" t="str">
-        <f>IF(ISBLANK(A2),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"File","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":"Ctrl + C","items":[</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>375</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(ISBLANK(A12),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F12&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A13),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"System","icon":"fas fa-project-diagram","function":"375","text":"Menu gives options to manage your Uyamak system","shortcut":"","items":[</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(ISBLANK(A13),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F13&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A14),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":"Ctrl +U"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Show Model Editor","icon":"fas fa-edit","function":"","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":"Ctrl + E"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Show Simulation drawer","icon":"fas fa-play","function":"","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":"Ctrl + Alt + S"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G24" si="0">IF(ISBLANK(A3),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"New","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 2","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Save","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 3","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Load","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 4","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 5","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Print","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 6","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 7","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Account","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 8","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Extend licence period","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 9","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"File explorer","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 10","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Sign out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 11","shortcut":"Ctrl + C"}]},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Edit","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 12","shortcut":"Ctrl + C","items":[</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Cut","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 13","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Copy","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 14","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
       <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"Paste","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 15","shortcut":"Ctrl + C"},</v>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 16","shortcut":"Ctrl + C"},</v>
+        <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":"Ctrl + K"},</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"Edit block","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 17","shortcut":"Ctrl + C"},</v>
+        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":"Ctrl + Shift + K"}]},</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>131</v>
+      <c r="A19" t="s">
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
-        <v>138</v>
+        <v>189</v>
+      </c>
+      <c r="D19">
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"Edit ","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 18","shortcut":"Ctrl + C"}]},</v>
+        <v>{"value":"Edit","icon":"fas fa-pen","function":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":"","items":[</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>132</v>
+      <c r="B20" t="s">
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"View","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 19","shortcut":"Ctrl + C","items":[</v>
+        <v>{"value":"Cut","icon":"fas fa-cut","function":"","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":"Ctrl + X"},</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"Zoom in","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 20","shortcut":"Ctrl + C"},</v>
+        <v>{"value":"Copy","icon":"fas fa-copy","function":"","text":"Copies the selected Uyamak models into the clipboard","shortcut":"Ctrl + C"},</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"Zoom out","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 21","shortcut":"Ctrl + C"},</v>
+        <v>{"value":"Paste","icon":"fas fa-paste","function":"","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":"Ctrl + V"},</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"Original size","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 22","shortcut":"Ctrl + C"},</v>
+        <v>{"value":"Clone","icon":"fas fa-clone","function":"","text":"Clones the selected Uyamak models","shortcut":"Ctrl + Shift + C"},</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>{"value":"Fit all","icon":"fas fa-arrow-left","function":"showSimulationToolbar(false)","text":"Good to go when eveything is fine and also I want to say something more 23","shortcut":"Ctrl + C"}]},</v>
+        <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"","text":"Delete the selected Uyamak models and Sub-systems","shortcut":"Delete"},</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>164</v>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Undo","icon":"fas fa-undo","function":"","text":"Undo the recent changes","shortcut":"Ctrl + Z"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Redo","icon":"fas fa-redo","function":"","text":"Redo the recent changes","shortcut":"Ctrl + Shift + Z"}]},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28">
+        <v>375</v>
+      </c>
+      <c r="E28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"View","icon":"fas fa-desktop","function":"375","text":"Menu gives different options to visualize the Uyamak system","shortcut":"","items":[</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"","text":"Zooms in","shortcut":"Ctrl + +"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"","text":"Zooms out","shortcut":"Ctrl + -"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Original size","icon":"fas fa-compress","function":"","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":"Ctrl + 0"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Fit all","icon":"fas fa-expand","function":"","text":"Shows the complete Uyamak system","shortcut":"Ctrl + Shift + 0"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":"Ctrl + M"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":"Ctrl + Shift + M"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"System outline","icon":"fas fa-image","function":"","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":"Ctrl + F"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"","text":"Shows or hide the grid lines","shortcut":"Ctrl + G"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":"Ctrl + T"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"","text":"Displays all the keyboard shortcuts","shortcut":"Ctrl + Y"}]},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41">
+        <v>275</v>
+      </c>
+      <c r="E41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Account","icon":"fas fa-user-alt","function":"275","text":"Menu gives options to manage the user account","shortcut":"","items":[</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Profile","icon":"fas fa-user-cog","function":"","text":"Opens another page where you can manage your Uyamak profile","shortcut":"Ctrl + A"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"","text":"Lets you extend the license period","shortcut":"Ctrl + B"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Sign out","icon":"fas fa-door-open","function":"","text":"Signing out","shortcut":"Ctrl + W"}]},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45">
+        <v>300</v>
+      </c>
+      <c r="E45" t="s">
+        <v>232</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Help","icon":"far fa-life-ring","function":"300","text":"Menu gives access to documentation and help","shortcut":"","items":[</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Documentation","icon":"fas fa-book","function":"","text":"Takes you to the documentation page","shortcut":"Ctrl + D"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"Context help","icon":"far fa-question-circle","function":"","text":"Shows the documentation for the selected Uyamak model","shortcut":"Ctrl  + H"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>{"value":"About","icon":"fas fa-info","function":"","text":"Shows credits and version information","shortcut":"Ctrl + Shift + A"}]},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50441B01-994B-4DB7-94B4-7BD07CFA0991}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22E513-5DB8-4DF9-83F5-6F2CC91EE411}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="297">
   <si>
     <t>newFile</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Key board Shortcut</t>
   </si>
   <si>
-    <t>Ctrl + C</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
@@ -737,124 +734,199 @@
     <t>Menu gives access to documentation and help</t>
   </si>
   <si>
-    <t>Shows credits and version information</t>
-  </si>
-  <si>
     <t>Takes you to the documentation page</t>
   </si>
   <si>
     <t>Shows the documentation for the selected Uyamak model</t>
   </si>
   <si>
-    <t>Ctrl + O</t>
-  </si>
-  <si>
-    <t>Ctrl + S</t>
-  </si>
-  <si>
-    <t>Ctrl + L</t>
-  </si>
-  <si>
-    <t>Ctrl + P</t>
-  </si>
-  <si>
-    <t>Ctrl + E</t>
-  </si>
-  <si>
-    <t>Ctrl +U</t>
-  </si>
-  <si>
     <t>Show Uyamak library</t>
   </si>
   <si>
     <t>Displays the Uyamak library drawer where you can find all the Uyamak models</t>
   </si>
   <si>
-    <t>Ctrl + Alt + S</t>
-  </si>
-  <si>
-    <t>Ctrl + G</t>
-  </si>
-  <si>
-    <t>Ctrl + X</t>
-  </si>
-  <si>
-    <t>Ctrl + V</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + C</t>
-  </si>
-  <si>
-    <t>Ctrl + Z</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + Z</t>
-  </si>
-  <si>
-    <t>Ctrl + +</t>
-  </si>
-  <si>
-    <t>Ctrl + -</t>
-  </si>
-  <si>
-    <t>Ctrl + 0</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + 0</t>
-  </si>
-  <si>
-    <t>Ctrl + M</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + M</t>
-  </si>
-  <si>
-    <t>Ctrl + A</t>
-  </si>
-  <si>
-    <t>Ctrl  + H</t>
-  </si>
-  <si>
     <t>Create sub-system</t>
   </si>
   <si>
     <t>Dismantle sub-system</t>
   </si>
   <si>
-    <t>Ctrl + K</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + K</t>
-  </si>
-  <si>
-    <t>Ctrl + J</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + J</t>
-  </si>
-  <si>
-    <t>Ctrl + F</t>
-  </si>
-  <si>
-    <t>Ctrl + T</t>
-  </si>
-  <si>
-    <t>Ctrl + W</t>
-  </si>
-  <si>
-    <t>Ctrl + B</t>
-  </si>
-  <si>
-    <t>Ctrl + D</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + A</t>
-  </si>
-  <si>
-    <t>Ctrl + Y</t>
-  </si>
-  <si>
     <t>function/width</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Select all</t>
+  </si>
+  <si>
+    <t>Select none</t>
+  </si>
+  <si>
+    <t>far fa-square</t>
+  </si>
+  <si>
+    <t>far fa-check-square</t>
+  </si>
+  <si>
+    <t>alert()</t>
+  </si>
+  <si>
+    <t>undoManager.undo();</t>
+  </si>
+  <si>
+    <t>undoManager.redo();</t>
+  </si>
+  <si>
+    <t>graph.zoomIn();</t>
+  </si>
+  <si>
+    <t>graph.zoomOut();</t>
+  </si>
+  <si>
+    <t>graph.zoomActual();</t>
+  </si>
+  <si>
+    <t>graph.fit();</t>
+  </si>
+  <si>
+    <t>if (graph.isEnabled()) graph.removeCells();</t>
+  </si>
+  <si>
+    <t>if (graph.isEnabled()) ungroupSubModel();</t>
+  </si>
+  <si>
+    <t>if (graph.isEnabled()) createSubModel();</t>
+  </si>
+  <si>
+    <t>foldItems();</t>
+  </si>
+  <si>
+    <t>foldItems(false);</t>
+  </si>
+  <si>
+    <t>moveGraph("up");</t>
+  </si>
+  <si>
+    <t>moveGraph("down");</t>
+  </si>
+  <si>
+    <t>moveGraph("right");</t>
+  </si>
+  <si>
+    <t>moveGraph("left");</t>
+  </si>
+  <si>
+    <t>ArrowUp</t>
+  </si>
+  <si>
+    <t>ArrowDown</t>
+  </si>
+  <si>
+    <t>ArrowRight</t>
+  </si>
+  <si>
+    <t>ArrowLeft</t>
+  </si>
+  <si>
+    <t>Execution order</t>
+  </si>
+  <si>
+    <t>fas fa-sort-numeric-up-alt</t>
+  </si>
+  <si>
+    <t>Shows simulation order and errors</t>
+  </si>
+  <si>
+    <t>displayExecutionOrder()</t>
   </si>
 </sst>
 </file>
@@ -2022,19 +2094,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -2045,7 +2118,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -2055,837 +2128,1829 @@
       </c>
       <c r="H1" t="str">
         <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":["&amp;_xlfn.CONCAT(G:G)&amp;"]"</f>
-        <v>"toolBar":[{"value":"File","icon":"fas fa-file-alt","width":"350","text":"Menu gives options to manage your files","shortcut":"","items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"","text":"Organize your Uyamak systems on your cloud storage","shortcut":"Ctrl + O"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Save to local machine","icon":"fas fa-download","function":"","text":"Download the Uyamak system to your local device as a file","shortcut":"Ctrl + S"},{"value":"Load from local machine","icon":"fas fa-upload","function":"","text":"Load a Uyamak system from your local device","shortcut":"Ctrl + L"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"","text":"Share Uyamak system with your friends and teachers","shortcut":"Ctrl + J"},{"value":"Make public","icon":"fas fa-share-alt","function":"","text":"Publish your Uyamak system to the public","shortcut":"Ctrl + Shift + J"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Print","icon":"fas fa-print","function":"","text":"Print the Uyamak system","shortcut":"Ctrl + P"}]},{"value":"System","icon":"fas fa-project-diagram","function":"375","text":"Menu gives options to manage your Uyamak system","shortcut":"","items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":"Ctrl +U"},{"value":"Show Model Editor","icon":"fas fa-edit","function":"","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":"Ctrl + E"},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":"Ctrl + Alt + S"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Create sub-system","icon":"far fa-object-group","function":"","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":"Ctrl + K"},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":"Ctrl + Shift + K"}]},{"value":"Edit","icon":"fas fa-pen","function":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":"","items":[{"value":"Cut","icon":"fas fa-cut","function":"","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":"Ctrl + X"},{"value":"Copy","icon":"fas fa-copy","function":"","text":"Copies the selected Uyamak models into the clipboard","shortcut":"Ctrl + C"},{"value":"Paste","icon":"fas fa-paste","function":"","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":"Ctrl + V"},{"value":"Clone","icon":"fas fa-clone","function":"","text":"Clones the selected Uyamak models","shortcut":"Ctrl + Shift + C"},{"value":"Delete","icon":"fas fa-trash-alt","function":"","text":"Delete the selected Uyamak models and Sub-systems","shortcut":"Delete"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Undo","icon":"fas fa-undo","function":"","text":"Undo the recent changes","shortcut":"Ctrl + Z"},{"value":"Redo","icon":"fas fa-redo","function":"","text":"Redo the recent changes","shortcut":"Ctrl + Shift + Z"}]},{"value":"View","icon":"fas fa-desktop","function":"375","text":"Menu gives different options to visualize the Uyamak system","shortcut":"","items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"","text":"Zooms in","shortcut":"Ctrl + +"},{"value":"Zoom out","icon":"fas fa-search-minus","function":"","text":"Zooms out","shortcut":"Ctrl + -"},{"value":"Original size","icon":"fas fa-compress","function":"","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":"Ctrl + 0"},{"value":"Fit all","icon":"fas fa-expand","function":"","text":"Shows the complete Uyamak system","shortcut":"Ctrl + Shift + 0"},{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":"Ctrl + M"},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":"Ctrl + Shift + M"},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},{"value":"System outline","icon":"fas fa-image","function":"","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":"Ctrl + F"},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"","text":"Shows or hide the grid lines","shortcut":"Ctrl + G"},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":"Ctrl + T"},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"","text":"Displays all the keyboard shortcuts","shortcut":"Ctrl + Y"}]},{"value":"Account","icon":"fas fa-user-alt","function":"275","text":"Menu gives options to manage the user account","shortcut":"","items":[{"value":"Profile","icon":"fas fa-user-cog","function":"","text":"Opens another page where you can manage your Uyamak profile","shortcut":"Ctrl + A"},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"","text":"Lets you extend the license period","shortcut":"Ctrl + B"},{"value":"Sign out","icon":"fas fa-door-open","function":"","text":"Signing out","shortcut":"Ctrl + W"}]},{"value":"Help","icon":"far fa-life-ring","function":"300","text":"Menu gives access to documentation and help","shortcut":"","items":[{"value":"Documentation","icon":"fas fa-book","function":"","text":"Takes you to the documentation page","shortcut":"Ctrl + D"},{"value":"Context help","icon":"far fa-question-circle","function":"","text":"Shows the documentation for the selected Uyamak model","shortcut":"Ctrl  + H"},{"value":"About","icon":"fas fa-info","function":"","text":"Shows credits and version information","shortcut":"Ctrl + Shift + A"}]},]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>"toolBar":[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},]</v>
+      </c>
+      <c r="I1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" t="str">
+        <f>"document.addEventListener('keydown', (event) =&gt; {"&amp;_xlfn.CONCAT(N:N)&amp;"});"</f>
+        <v>document.addEventListener('keydown', (event) =&gt; {if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}if ((event.key.toUpperCase()==="ARROWUP") ){moveGraph("up");;}if ((event.key.toUpperCase()==="ARROWDOWN") ){moveGraph("down");;}if ((event.key.toUpperCase()==="ARROWRIGHT") ){moveGraph("right");;}if ((event.key.toUpperCase()==="ARROWLEFT") ){moveGraph("left");;}});</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"["&amp;IF(ISBLANK(J2),"","['"&amp;$J$1&amp;"'],")&amp;IF(ISBLANK(K2),"","['"&amp;$K$1&amp;"'],")&amp;IF(ISBLANK(L2),"","['"&amp;$L$1&amp;"'],")&amp;IF(ISBLANK(M2),"","['"&amp;M2&amp;"'],")&amp;"]"</f>
+        <v>[]</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(ISBLANK(A2),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A3),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"File","icon":"fas fa-file-alt","width":"350","text":"Menu gives options to manage your files","shortcut":"","items":[</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(ISBLANK(A2),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F2&amp;"}"&amp;IF(ISBLANK(A3),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F2&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(ISBLANK(M2),"","if (")&amp;IF(ISBLANK(J2),"","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K2),"","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L2),"","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M2),"","(event.key.toUpperCase()==="""&amp;UPPER(M2)&amp;""") ){"&amp;D2&amp;";}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>236</v>
+        <v>199</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F52" si="0">"["&amp;IF(ISBLANK(J3),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K3),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L3),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M3),"","'"&amp;M3&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','O',]</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(ISBLANK(A3),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A4),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"Cloud organizer","icon":"far fa-folder","function":"","text":"Organize your Uyamak systems on your cloud storage","shortcut":"Ctrl + O"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G3:G54" si="1">IF(ISBLANK(A3),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F3&amp;"}"&amp;IF(ISBLANK(A4),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F3&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},</v>
+      </c>
+      <c r="I3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N59" si="2">IF(ISBLANK(M3),"","if (")&amp;IF(ISBLANK(J3),"","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K3),"","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L3),"","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M3),"","(event.key.toUpperCase()==="""&amp;UPPER(M3)&amp;""") ){"&amp;D3&amp;";}")</f>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
       </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
       <c r="E4" t="s">
         <v>133</v>
       </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
       <c r="G4" t="str">
-        <f>IF(ISBLANK(A4),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F4&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A5),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','S',]</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},</v>
+      </c>
+      <c r="I5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>138</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>153</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
         <v>198</v>
       </c>
-      <c r="F5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G48" si="0">IF(ISBLANK(A5),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F5&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A6),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"Save to local machine","icon":"fas fa-download","function":"","text":"Download the Uyamak system to your local device as a file","shortcut":"Ctrl + S"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" t="s">
-        <v>238</v>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','L',]</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Load from local machine","icon":"fas fa-upload","function":"","text":"Load a Uyamak system from your local device","shortcut":"Ctrl + L"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},</v>
+      </c>
+      <c r="I6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
       </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
       <c r="E7" t="s">
         <v>133</v>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','J',]</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},</v>
+      </c>
+      <c r="I8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
         <v>155</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" t="s">
         <v>194</v>
       </c>
-      <c r="F8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Share privately","icon":"fas fa-share-alt-square","function":"","text":"Share Uyamak system with your friends and teachers","shortcut":"Ctrl + J"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" t="s">
-        <v>264</v>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','J',]</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Make public","icon":"fas fa-share-alt","function":"","text":"Publish your Uyamak system to the public","shortcut":"Ctrl + Shift + J"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},</v>
+      </c>
+      <c r="I9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>252</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
       </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
       <c r="E10" t="s">
         <v>133</v>
       </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I10" t="s">
+        <v>254</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11" t="s">
-        <v>239</v>
+        <v>195</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','P',]</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Print","icon":"fas fa-print","function":"","text":"Print the Uyamak system","shortcut":"Ctrl + P"}]},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},</v>
+      </c>
+      <c r="I11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>249</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(ISBLANK(A12),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F12&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A13),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"System","icon":"fas fa-project-diagram","function":"375","text":"Menu gives options to manage your Uyamak system","shortcut":"","items":[</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[</v>
+      </c>
+      <c r="I12" t="s">
+        <v>254</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','U',]</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},</v>
+      </c>
+      <c r="I13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" t="str">
-        <f>IF(ISBLANK(A13),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F13&amp;CHAR(34)&amp;"}"&amp;IF(ISBLANK(A14),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":"Ctrl +U"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','E',]</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},</v>
+      </c>
+      <c r="I14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>202</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Show Model Editor","icon":"fas fa-edit","function":"","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":"Ctrl + E"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
       <c r="E15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','S',]</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},</v>
+      </c>
+      <c r="I15" t="s">
+        <v>254</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>244</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Show Simulation drawer","icon":"fas fa-play","function":"","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":"Ctrl + Alt + S"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>132</v>
       </c>
+      <c r="D16" t="s">
+        <v>273</v>
+      </c>
       <c r="E16" t="s">
         <v>133</v>
       </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I16" t="s">
+        <v>254</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','K',]</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},</v>
+      </c>
+      <c r="I17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>256</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s">
         <v>160</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" t="s">
         <v>206</v>
       </c>
-      <c r="F17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":"Ctrl + K"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" t="s">
-        <v>262</v>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','K',]</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":"Ctrl + Shift + K"}]},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},</v>
+      </c>
+      <c r="I18" t="s">
+        <v>254</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>256</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19">
         <v>300</v>
       </c>
       <c r="E19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(ISBLANK(A19),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F19&amp;"}"&amp;IF(ISBLANK(A23),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F19&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[</v>
+      </c>
+      <c r="I19" t="s">
+        <v>254</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','A',]</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G23" si="3">IF(ISBLANK(A20),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F20&amp;"}"&amp;IF(ISBLANK(A24),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F20&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>265</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','A',]</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>265</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','X',]</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},</v>
+      </c>
+      <c r="I23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>257</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','C',]</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},</v>
+      </c>
+      <c r="I24" t="s">
+        <v>254</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>245</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','V',]</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},</v>
+      </c>
+      <c r="I25" t="s">
+        <v>254</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>258</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','C',]</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>245</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>['Delete',]</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Z',]</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},</v>
+      </c>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>259</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','Z',]</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>259</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31">
+        <v>390</v>
+      </c>
+      <c r="E31" t="s">
         <v>215</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Edit","icon":"fas fa-pen","function":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":"","items":[</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Cut","icon":"fas fa-cut","function":"","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":"Ctrl + X"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Copy","icon":"fas fa-copy","function":"","text":"Copies the selected Uyamak models into the clipboard","shortcut":"Ctrl + C"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Paste","icon":"fas fa-paste","function":"","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":"Ctrl + V"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F23" t="s">
-        <v>248</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Clone","icon":"fas fa-clone","function":"","text":"Clones the selected Uyamak models","shortcut":"Ctrl + Shift + C"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"","text":"Delete the selected Uyamak models and Sub-systems","shortcut":"Delete"},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F26" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Undo","icon":"fas fa-undo","function":"","text":"Undo the recent changes","shortcut":"Ctrl + Z"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
         <v>169</v>
       </c>
-      <c r="E27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Redo","icon":"fas fa-redo","function":"","text":"Redo the recent changes","shortcut":"Ctrl + Shift + Z"}]},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28">
-        <v>375</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" t="s">
         <v>216</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"View","icon":"fas fa-desktop","function":"375","text":"Menu gives different options to visualize the Uyamak system","shortcut":"","items":[</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','+',]</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>260</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
         <v>170</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" t="s">
         <v>217</v>
       </c>
-      <c r="F29" t="s">
-        <v>251</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"","text":"Zooms in","shortcut":"Ctrl + +"},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','-',]</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>261</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','0',]</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},</v>
+      </c>
+      <c r="I34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
         <v>171</v>
       </c>
-      <c r="E30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"","text":"Zooms out","shortcut":"Ctrl + -"},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" t="s">
         <v>219</v>
       </c>
-      <c r="F31" t="s">
-        <v>253</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Original size","icon":"fas fa-compress","function":"","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":"Ctrl + 0"},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Fit all","icon":"fas fa-expand","function":"","text":"Shows the complete Uyamak system","shortcut":"Ctrl + Shift + 0"},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":"Ctrl + M"},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" t="s">
-        <v>256</v>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','0',]</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":"Ctrl + Shift + M"},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>273</v>
       </c>
       <c r="E36" t="s">
         <v>133</v>
       </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":""},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','M',]</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},</v>
+      </c>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>248</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','M',]</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(ISBLANK(A38),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F38&amp;"}"&amp;IF(ISBLANK(A41),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F38&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},</v>
+      </c>
+      <c r="I38" t="s">
+        <v>254</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>248</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F41" si="4">"["&amp;IF(ISBLANK(J39),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K39),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L39),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M39),"","'"&amp;M39&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:G41" si="5">IF(ISBLANK(A39),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F39&amp;"}"&amp;IF(ISBLANK(A42),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F39&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="4"/>
+        <v>['Ctrl','R',]</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="5"/>
+        <v>{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},</v>
+      </c>
+      <c r="I40" t="s">
+        <v>254</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>251</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="4"/>
+        <v>[]</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="5"/>
+        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
+      </c>
+      <c r="I41" t="s">
+        <v>254</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" t="s">
         <v>223</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','F',]</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},</v>
+      </c>
+      <c r="I42" t="s">
+        <v>254</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>262</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','G',]</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},</v>
+      </c>
+      <c r="I43" t="s">
+        <v>254</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>253</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
         <v>178</v>
       </c>
-      <c r="E37" t="s">
-        <v>224</v>
-      </c>
-      <c r="F37" t="s">
-        <v>265</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"System outline","icon":"fas fa-image","function":"","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":"Ctrl + F"},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="D44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','T',]</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},</v>
+      </c>
+      <c r="I44" t="s">
+        <v>254</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>263</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>142</v>
       </c>
-      <c r="C38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"","text":"Shows or hide the grid lines","shortcut":"Ctrl + G"},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C45" t="s">
         <v>179</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" t="s">
         <v>226</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Y',]</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},</v>
+      </c>
+      <c r="I45" t="s">
+        <v>254</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>264</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46">
+        <v>315</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[</v>
+      </c>
+      <c r="I46" t="s">
+        <v>254</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},</v>
+      </c>
+      <c r="I47" t="s">
+        <v>254</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','B',]</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},</v>
+      </c>
+      <c r="I48" t="s">
+        <v>254</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
         <v>266</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":"Ctrl + T"},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" t="s">
-        <v>227</v>
-      </c>
-      <c r="F40" t="s">
-        <v>271</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"","text":"Displays all the keyboard shortcuts","shortcut":"Ctrl + Y"}]},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41">
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','W',]</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},</v>
+      </c>
+      <c r="I49" t="s">
+        <v>254</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>267</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50">
         <v>275</v>
       </c>
-      <c r="E41" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Account","icon":"fas fa-user-alt","function":"275","text":"Menu gives options to manage the user account","shortcut":"","items":[</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" t="s">
-        <v>257</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Profile","icon":"fas fa-user-cog","function":"","text":"Opens another page where you can manage your Uyamak profile","shortcut":"Ctrl + A"},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>[]</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[</v>
+      </c>
+      <c r="I50" t="s">
+        <v>254</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','D',]</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},</v>
+      </c>
+      <c r="I51" t="s">
+        <v>254</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>246</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','H',]</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},</v>
+      </c>
+      <c r="I52" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
         <v>268</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"","text":"Lets you extend the license period","shortcut":"Ctrl + B"},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Sign out","icon":"fas fa-door-open","function":"","text":"Signing out","shortcut":"Ctrl + W"}]},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45">
-        <v>300</v>
-      </c>
-      <c r="E45" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Help","icon":"far fa-life-ring","function":"300","text":"Menu gives access to documentation and help","shortcut":"","items":[</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="N52" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ref="F53:F54" si="6">"["&amp;IF(ISBLANK(J53),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K53),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L53),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M53),"","'"&amp;M53&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},</v>
+      </c>
+      <c r="I53" t="s">
+        <v>254</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>149</v>
       </c>
-      <c r="C46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" t="s">
-        <v>269</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Documentation","icon":"fas fa-book","function":"","text":"Takes you to the documentation page","shortcut":"Ctrl + D"},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="C54" t="s">
         <v>185</v>
       </c>
-      <c r="C47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" t="s">
-        <v>258</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"Context help","icon":"far fa-question-circle","function":"","text":"Shows the documentation for the selected Uyamak model","shortcut":"Ctrl  + H"},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" t="s">
         <v>233</v>
       </c>
-      <c r="F48" t="s">
-        <v>270</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>{"value":"About","icon":"fas fa-info","function":"","text":"Shows credits and version information","shortcut":"Ctrl + Shift + A"}]},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>136</v>
+      <c r="F54" t="str">
+        <f t="shared" si="6"/>
+        <v>[]</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},</v>
+      </c>
+      <c r="I54" t="s">
+        <v>254</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>285</v>
+      </c>
+      <c r="M56" t="s">
+        <v>289</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.key.toUpperCase()==="ARROWUP") ){moveGraph("up");;}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>286</v>
+      </c>
+      <c r="M57" t="s">
+        <v>290</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.key.toUpperCase()==="ARROWDOWN") ){moveGraph("down");;}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>287</v>
+      </c>
+      <c r="M58" t="s">
+        <v>291</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.key.toUpperCase()==="ARROWRIGHT") ){moveGraph("right");;}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>288</v>
+      </c>
+      <c r="M59" t="s">
+        <v>292</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.key.toUpperCase()==="ARROWLEFT") ){moveGraph("left");;}</v>
       </c>
     </row>
   </sheetData>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22E513-5DB8-4DF9-83F5-6F2CC91EE411}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D16B8-E21D-485B-9F36-DBEA3CFFA3FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
   <si>
     <t>newFile</t>
   </si>
@@ -927,6 +927,18 @@
   </si>
   <si>
     <t>displayExecutionOrder()</t>
+  </si>
+  <si>
+    <t>Show Variable manager</t>
+  </si>
+  <si>
+    <t>Displays the Variable manager where you can add, edit or delete the Uyamak variables.</t>
+  </si>
+  <si>
+    <t>fas fa-equals</t>
+  </si>
+  <si>
+    <t>ShowModelItem('variablesManager')</t>
   </si>
 </sst>
 </file>
@@ -2094,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2107,7 +2119,7 @@
     <col min="8" max="8" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -2128,7 +2140,7 @@
       </c>
       <c r="H1" t="str">
         <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":["&amp;_xlfn.CONCAT(G:G)&amp;"]"</f>
-        <v>"toolBar":[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},]</v>
+        <v>"toolBar":[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},]</v>
       </c>
       <c r="I1" t="s">
         <v>254</v>
@@ -2145,12 +2157,12 @@
       <c r="M1" t="s">
         <v>242</v>
       </c>
-      <c r="O1" t="str">
-        <f>"document.addEventListener('keydown', (event) =&gt; {"&amp;_xlfn.CONCAT(N:N)&amp;"});"</f>
-        <v>document.addEventListener('keydown', (event) =&gt; {if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}if ((event.key.toUpperCase()==="ARROWUP") ){moveGraph("up");;}if ((event.key.toUpperCase()==="ARROWDOWN") ){moveGraph("down");;}if ((event.key.toUpperCase()==="ARROWRIGHT") ){moveGraph("right");;}if ((event.key.toUpperCase()==="ARROWLEFT") ){moveGraph("left");;}});</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="str">
+        <f>"document.addEventListener('keydown', (event) =&gt; {"&amp;_xlfn.CONCAT(O:O)&amp;"});"</f>
+        <v>document.addEventListener('keydown', (event) =&gt; {if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){ShowModelItem('variablesManager');}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}});</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2175,11 +2187,15 @@
         <v>254</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(ISBLANK(M2),"","if (")&amp;IF(ISBLANK(J2),"","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K2),"","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L2),"","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M2),"","(event.key.toUpperCase()==="""&amp;UPPER(M2)&amp;""") ){"&amp;D2&amp;";}")</f>
+        <f>IF(ISBLANK(M2),"","if (")&amp;IF(ISBLANK(J2),"(!event.ctrlKey) &amp;&amp; ","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K2),"(!event.altKey) &amp;&amp; ","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L2),"(!event.shiftKey) &amp;&amp; ","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M2),"","(event.key.toUpperCase()==="""&amp;UPPER(M2)&amp;""") ){"&amp;D2&amp;";}")</f>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISBLANK(M2),"",N2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -2193,11 +2209,11 @@
         <v>199</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F52" si="0">"["&amp;IF(ISBLANK(J3),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K3),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L3),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M3),"","'"&amp;M3&amp;"',")&amp;"]"</f>
+        <f t="shared" ref="F3:F53" si="0">"["&amp;IF(ISBLANK(J3),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K3),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L3),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M3),"","'"&amp;M3&amp;"',")&amp;"]"</f>
         <v>['Ctrl','O',]</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G54" si="1">IF(ISBLANK(A3),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F3&amp;"}"&amp;IF(ISBLANK(A4),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F3&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <f t="shared" ref="G3:G55" si="1">IF(ISBLANK(A3),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F3&amp;"}"&amp;IF(ISBLANK(A4),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F3&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
         <v>{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},</v>
       </c>
       <c r="I3" t="s">
@@ -2210,11 +2226,15 @@
         <v>243</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N59" si="2">IF(ISBLANK(M3),"","if (")&amp;IF(ISBLANK(J3),"","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K3),"","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L3),"","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M3),"","(event.key.toUpperCase()==="""&amp;UPPER(M3)&amp;""") ){"&amp;D3&amp;";}")</f>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N3:N55" si="2">IF(ISBLANK(M3),"","if (")&amp;IF(ISBLANK(J3),"(!event.ctrlKey) &amp;&amp; ","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K3),"(!event.altKey) &amp;&amp; ","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L3),"(!event.shiftKey) &amp;&amp; ","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M3),"","(event.key.toUpperCase()==="""&amp;UPPER(M3)&amp;""") ){"&amp;D3&amp;";}")</f>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O55" si="3">IF(ISBLANK(M3),"",N3)</f>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>118</v>
       </c>
@@ -2240,10 +2260,14 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>137</v>
       </c>
@@ -2275,10 +2299,14 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>138</v>
       </c>
@@ -2310,10 +2338,14 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>118</v>
       </c>
@@ -2339,10 +2371,14 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>140</v>
       </c>
@@ -2374,10 +2410,14 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>139</v>
       </c>
@@ -2412,10 +2452,14 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>118</v>
       </c>
@@ -2441,10 +2485,14 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -2476,10 +2524,14 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -2505,10 +2557,14 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>234</v>
       </c>
@@ -2540,10 +2596,14 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>201</v>
       </c>
@@ -2575,10 +2635,14 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>202</v>
       </c>
@@ -2596,7 +2660,7 @@
         <v>['Ctrl','Shift','S',]</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(A15),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F15&amp;"}"&amp;IF(ISBLANK(A17),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F15&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
         <v>{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},</v>
       </c>
       <c r="I15" t="s">
@@ -2613,93 +2677,108 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ref="F16" si="4">"["&amp;IF(ISBLANK(J16),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K16),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L16),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M16),"","'"&amp;M16&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','V',]</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(ISBLANK(A16),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F16&amp;"}"&amp;IF(ISBLANK(A18),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F16&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},</v>
+      </c>
+      <c r="I16" t="s">
+        <v>254</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>258</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){ShowModelItem('variablesManager');}</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){ShowModelItem('variablesManager');}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>118</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>132</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>273</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>133</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
-      <c r="I16" t="s">
-        <v>254</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="2"/>
+      <c r="I17" t="s">
+        <v>254</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>236</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>159</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>282</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>205</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>['Ctrl','K',]</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},</v>
-      </c>
-      <c r="I17" t="s">
-        <v>254</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>256</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','Shift','K',]</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},</v>
       </c>
       <c r="I18" t="s">
         <v>254</v>
@@ -2707,185 +2786,209 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18" t="s">
         <v>256</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','K',]</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},</v>
+      </c>
+      <c r="I19" t="s">
+        <v>254</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>256</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>188</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>300</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>214</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="G19" t="str">
-        <f>IF(ISBLANK(A19),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F19&amp;"}"&amp;IF(ISBLANK(A23),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F19&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+      <c r="G20" t="str">
+        <f>IF(ISBLANK(A20),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F20&amp;"}"&amp;IF(ISBLANK(A24),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F20&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
         <v>{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[</v>
       </c>
-      <c r="I19" t="s">
-        <v>254</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="2"/>
+      <c r="I20" t="s">
+        <v>254</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>269</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>272</v>
-      </c>
-      <c r="D20" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','A',]</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" ref="G20:G23" si="3">IF(ISBLANK(A20),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F20&amp;"}"&amp;IF(ISBLANK(A24),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F20&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>265</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" t="s">
-        <v>271</v>
       </c>
       <c r="D21" t="s">
         <v>273</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','Shift','A',]</v>
+        <v>['Ctrl','A',]</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="3"/>
-        <v>{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},</v>
+        <f t="shared" ref="G21:G24" si="5">IF(ISBLANK(A21),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F21&amp;"}"&amp;IF(ISBLANK(A25),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F21&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21" t="s">
         <v>265</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="D22" t="s">
         <v>273</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>[]</v>
+        <v>['Ctrl','Shift','A',]</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="3"/>
-        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},</v>
+        <f t="shared" si="5"/>
+        <v>{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>265</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
         <v>273</v>
       </c>
-      <c r="E23" t="s">
-        <v>208</v>
-      </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','X',]</v>
+        <v>[]</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="3"/>
-        <v>{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},</v>
-      </c>
-      <c r="I23" t="s">
-        <v>254</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>257</v>
+        <f t="shared" si="5"/>
+        <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
         <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','C',]</v>
+        <v>['Ctrl','X',]</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},</v>
+        <f t="shared" si="5"/>
+        <v>{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},</v>
       </c>
       <c r="I24" t="s">
         <v>254</v>
@@ -2894,33 +2997,37 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
         <v>273</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','V',]</v>
+        <v>['Ctrl','C',]</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},</v>
+        <v>{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},</v>
       </c>
       <c r="I25" t="s">
         <v>254</v>
@@ -2929,33 +3036,37 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
         <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','Shift','C',]</v>
+        <v>['Ctrl','V',]</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},</v>
+        <v>{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},</v>
       </c>
       <c r="I26" t="s">
         <v>254</v>
@@ -2963,133 +3074,149 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="M26" t="s">
+        <v>258</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','C',]</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>245</v>
       </c>
-      <c r="N26" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>166</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>280</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>211</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>['Delete',]</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},</v>
       </c>
-      <c r="I27" t="s">
-        <v>254</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="s">
         <v>33</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>132</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>273</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>133</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
-      <c r="I28" t="s">
-        <v>254</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="2"/>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>274</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>212</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>['Ctrl','Z',]</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},</v>
-      </c>
-      <c r="I29" t="s">
-        <v>254</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>259</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30" t="s">
-        <v>213</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','Shift','Z',]</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},</v>
       </c>
       <c r="I30" t="s">
         <v>254</v>
@@ -3097,101 +3224,113 @@
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30" t="s">
         <v>259</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','Z',]</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>189</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>390</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>215</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[</v>
       </c>
-      <c r="I31" t="s">
-        <v>254</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="2"/>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>129</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>169</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>276</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>216</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v>['Ctrl','+',]</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},</v>
-      </c>
-      <c r="I32" t="s">
-        <v>254</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="M32" t="s">
-        <v>260</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" t="s">
-        <v>217</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','-',]</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},</v>
       </c>
       <c r="I33" t="s">
         <v>254</v>
@@ -3200,33 +3339,37 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','0',]</v>
+        <v>['Ctrl','-',]</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},</v>
+        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},</v>
       </c>
       <c r="I34" t="s">
         <v>254</v>
@@ -3234,34 +3377,38 @@
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="M34">
-        <v>0</v>
+      <c r="M34" t="s">
+        <v>261</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','Shift','0',]</v>
+        <v>['Ctrl','0',]</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},</v>
+        <v>{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},</v>
       </c>
       <c r="I35" t="s">
         <v>254</v>
@@ -3269,101 +3416,113 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','0',]</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>118</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>132</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>273</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>133</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
-      <c r="I36" t="s">
-        <v>254</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="2"/>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>173</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>283</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>220</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v>['Ctrl','M',]</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},</v>
-      </c>
-      <c r="I37" t="s">
-        <v>254</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="M37" t="s">
-        <v>248</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','Shift','M',]</v>
-      </c>
-      <c r="G38" t="str">
-        <f>IF(ISBLANK(A38),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F38&amp;"}"&amp;IF(ISBLANK(A41),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F38&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},</v>
       </c>
       <c r="I38" t="s">
         <v>254</v>
@@ -3371,162 +3530,182 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
       <c r="M38" t="s">
         <v>248</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
         <v>174</v>
       </c>
+      <c r="D39" t="s">
+        <v>284</v>
+      </c>
       <c r="E39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','M',]</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(ISBLANK(A39),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F39&amp;"}"&amp;IF(ISBLANK(A42),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F39&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>248</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" t="s">
         <v>133</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" ref="F39:F41" si="4">"["&amp;IF(ISBLANK(J39),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K39),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L39),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M39),"","'"&amp;M39&amp;"',")&amp;"]"</f>
+      <c r="F40" t="str">
+        <f t="shared" ref="F40:F42" si="6">"["&amp;IF(ISBLANK(J40),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K40),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L40),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M40),"","'"&amp;M40&amp;"',")&amp;"]"</f>
         <v>[]</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" ref="G39:G41" si="5">IF(ISBLANK(A39),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F39&amp;"}"&amp;IF(ISBLANK(A42),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F39&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+      <c r="G40" t="str">
+        <f t="shared" ref="G40:G42" si="7">IF(ISBLANK(A40),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F40&amp;"}"&amp;IF(ISBLANK(A43),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F40&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
         <v>{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
-      <c r="I39" t="s">
-        <v>254</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="2"/>
+      <c r="I40" t="s">
+        <v>254</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>293</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>294</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>296</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>295</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="4"/>
+      <c r="F41" t="str">
+        <f t="shared" si="6"/>
         <v>['Ctrl','R',]</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="5"/>
+      <c r="G41" t="str">
+        <f t="shared" si="7"/>
         <v>{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},</v>
       </c>
-      <c r="I40" t="s">
-        <v>254</v>
-      </c>
-      <c r="J40">
+      <c r="I41" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M41" t="s">
         <v>251</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>174</v>
-      </c>
-      <c r="D41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="4"/>
-        <v>[]</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="5"/>
-        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
-      </c>
-      <c r="I41" t="s">
-        <v>254</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>177</v>
       </c>
       <c r="D42" t="s">
         <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','F',]</v>
+        <f t="shared" si="6"/>
+        <v>[]</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},</v>
+        <f t="shared" si="7"/>
+        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I42" t="s">
         <v>254</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>262</v>
-      </c>
       <c r="N42" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
         <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','G',]</v>
+        <v>['Ctrl','F',]</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},</v>
+        <v>{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},</v>
       </c>
       <c r="I43" t="s">
         <v>254</v>
@@ -3535,33 +3714,37 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
         <v>273</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','T',]</v>
+        <v>['Ctrl','G',]</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},</v>
+        <v>{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},</v>
       </c>
       <c r="I44" t="s">
         <v>254</v>
@@ -3570,33 +3753,37 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
         <v>273</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','Y',]</v>
+        <v>['Ctrl','T',]</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},</v>
+        <v>{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},</v>
       </c>
       <c r="I45" t="s">
         <v>254</v>
@@ -3605,126 +3792,142 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
+        <v>263</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Y',]</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},</v>
+      </c>
+      <c r="I46" t="s">
+        <v>254</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
         <v>264</v>
       </c>
-      <c r="N45" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>180</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>315</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>227</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G47" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[</v>
       </c>
-      <c r="I46" t="s">
-        <v>254</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="2"/>
+      <c r="I47" t="s">
+        <v>254</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>150</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>190</v>
-      </c>
-      <c r="D47" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>[]</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},</v>
-      </c>
-      <c r="I47" t="s">
-        <v>254</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>181</v>
       </c>
       <c r="D48" t="s">
         <v>273</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','B',]</v>
+        <v>[]</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},</v>
+        <v>{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},</v>
       </c>
       <c r="I48" t="s">
         <v>254</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="M48" t="s">
-        <v>266</v>
-      </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
         <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','W',]</v>
+        <v>['Ctrl','B',]</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},</v>
+        <v>{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},</v>
       </c>
       <c r="I49" t="s">
         <v>254</v>
@@ -3733,97 +3936,109 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
+        <v>266</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','W',]</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},</v>
+      </c>
+      <c r="I50" t="s">
+        <v>254</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
         <v>267</v>
       </c>
-      <c r="N49" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>191</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>275</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>231</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="1"/>
         <v>{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[</v>
       </c>
-      <c r="I50" t="s">
-        <v>254</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="2"/>
+      <c r="I51" t="s">
+        <v>254</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>183</v>
-      </c>
-      <c r="D51" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" t="s">
-        <v>232</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','D',]</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},</v>
-      </c>
-      <c r="I51" t="s">
-        <v>254</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>246</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" t="s">
-        <v>186</v>
       </c>
       <c r="D52" t="s">
         <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>['Ctrl','H',]</v>
+        <v>['Ctrl','D',]</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},</v>
+        <v>{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},</v>
       </c>
       <c r="I52" t="s">
         <v>254</v>
@@ -3832,19 +4047,23 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
         <v>273</v>
@@ -3853,27 +4072,37 @@
         <v>233</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" ref="F53:F54" si="6">"["&amp;IF(ISBLANK(J53),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K53),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L53),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M53),"","'"&amp;M53&amp;"',")&amp;"]"</f>
-        <v>[]</v>
+        <f t="shared" si="0"/>
+        <v>['Ctrl','H',]</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},</v>
+        <v>{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},</v>
       </c>
       <c r="I53" t="s">
         <v>254</v>
       </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>268</v>
+      </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="3"/>
+        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
         <v>273</v>
@@ -3882,74 +4111,111 @@
         <v>233</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F54:F55" si="8">"["&amp;IF(ISBLANK(J54),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K54),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L54),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M54),"","'"&amp;M54&amp;"',")&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
+        <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},</v>
+      </c>
+      <c r="I54" t="s">
+        <v>254</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="8"/>
+        <v>[]</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
         <v>{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},</v>
       </c>
-      <c r="I54" t="s">
-        <v>254</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="2"/>
+      <c r="I55" t="s">
+        <v>254</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>135</v>
       </c>
-      <c r="I55" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
+      <c r="I56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
         <v>285</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M57" t="s">
         <v>289</v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="2"/>
+      <c r="N57" t="str">
+        <f t="shared" ref="N3:N60" si="9">IF(ISBLANK(M57),"","if (")&amp;IF(ISBLANK(J57),"","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K57),"","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L57),"","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M57),"","(event.key.toUpperCase()==="""&amp;UPPER(M57)&amp;""") ){"&amp;D57&amp;";}")</f>
         <v>if ((event.key.toUpperCase()==="ARROWUP") ){moveGraph("up");;}</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
         <v>286</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M58" t="s">
         <v>290</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="2"/>
+      <c r="N58" t="str">
+        <f t="shared" si="9"/>
         <v>if ((event.key.toUpperCase()==="ARROWDOWN") ){moveGraph("down");;}</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
         <v>287</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M59" t="s">
         <v>291</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="2"/>
+      <c r="N59" t="str">
+        <f t="shared" si="9"/>
         <v>if ((event.key.toUpperCase()==="ARROWRIGHT") ){moveGraph("right");;}</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
         <v>288</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M60" t="s">
         <v>292</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="2"/>
+      <c r="N60" t="str">
+        <f t="shared" si="9"/>
         <v>if ((event.key.toUpperCase()==="ARROWLEFT") ){moveGraph("left");;}</v>
       </c>
     </row>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D16B8-E21D-485B-9F36-DBEA3CFFA3FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154EBE0C-A49F-4FA5-AA56-574089F7EADE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="301">
   <si>
     <t>newFile</t>
   </si>
@@ -761,9 +761,6 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>Alt</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -939,6 +936,9 @@
   </si>
   <si>
     <t>ShowModelItem('variablesManager')</t>
+  </si>
+  <si>
+    <t>Key code</t>
   </si>
 </sst>
 </file>
@@ -2106,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2117,9 +2117,10 @@
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -2143,26 +2144,26 @@
         <v>"toolBar":[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},]</v>
       </c>
       <c r="I1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
         <v>239</v>
       </c>
       <c r="K1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" t="s">
         <v>241</v>
       </c>
-      <c r="L1" t="s">
-        <v>240</v>
-      </c>
       <c r="M1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" t="str">
-        <f>"document.addEventListener('keydown', (event) =&gt; {"&amp;_xlfn.CONCAT(O:O)&amp;"});"</f>
-        <v>document.addEventListener('keydown', (event) =&gt; {if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){ShowModelItem('variablesManager');}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}if ((!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}});</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="O1" t="str">
+        <f>_xlfn.CONCAT(N:N)</f>
+        <v>keyHandler.bindCtrlKey(79, function (evt){alert()});keyHandler.bindCtrlKey(83, function (evt){alert()});keyHandler.bindCtrlKey(76, function (evt){alert()});keyHandler.bindCtrlKey(74, function (evt){alert()});keyHandler.bindCtrlShiftKey(74, function (evt){alert()});keyHandler.bindCtrlKey(80, function (evt){alert()});keyHandler.bindCtrlKey(85, function (evt){alert()});keyHandler.bindCtrlKey(69, function (evt){alert()});keyHandler.bindCtrlShiftKey(83, function (evt){alert()});keyHandler.bindCtrlShiftKey(86, function (evt){ShowModelItem('variablesManager')});keyHandler.bindCtrlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});keyHandler.bindCtrlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});keyHandler.bindCtrlKey(65, function (evt){alert()});keyHandler.bindCtrlShiftKey(65, function (evt){alert()});keyHandler.bindCtrlKey(88, function (evt){alert()});keyHandler.bindCtrlKey(67, function (evt){alert()});keyHandler.bindCtrlKey(86, function (evt){alert()});keyHandler.bindCtrlShiftKey(67, function (evt){alert()});keyHandler.bindKey(46, function (evt){if (graph.isEnabled()) graph.removeCells();});keyHandler.bindCtrlKey(90, function (evt){undoManager.undo();});keyHandler.bindCtrlShiftKey(90, function (evt){undoManager.redo();});keyHandler.bindCtrlKey(107, function (evt){graph.zoomIn();});keyHandler.bindCtrlKey(109, function (evt){graph.zoomOut();});keyHandler.bindCtrlKey(96, function (evt){graph.zoomActual();});keyHandler.bindCtrlShiftKey(96, function (evt){graph.fit();});keyHandler.bindCtrlKey(77, function (evt){foldItems();});keyHandler.bindCtrlShiftKey(77, function (evt){foldItems(false);});keyHandler.bindCtrlKey(82, function (evt){displayExecutionOrder()});keyHandler.bindCtrlKey(70, function (evt){alert()});keyHandler.bindCtrlKey(71, function (evt){alert()});keyHandler.bindCtrlKey(84, function (evt){alert()});keyHandler.bindCtrlKey(89, function (evt){alert()});keyHandler.bindCtrlKey(66, function (evt){alert()});keyHandler.bindCtrlKey(87, function (evt){alert()});keyHandler.bindCtrlKey(68, function (evt){alert()});keyHandler.bindCtrlKey(72, function (evt){alert()});keyHandler.bindKey(38, function (evt){moveGraph("up");});keyHandler.bindKey(40, function (evt){moveGraph("down");});keyHandler.bindKey(39, function (evt){moveGraph("right");});keyHandler.bindKey(37, function (evt){moveGraph("left");});keyHandler.bindCtrlKey(48, function (evt){graph.zoomActual();});keyHandler.bindCtrlShiftKey(48, function (evt){graph.fit();});</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>192</v>
       </c>
       <c r="F2" t="str">
-        <f>"["&amp;IF(ISBLANK(J2),"","['"&amp;$J$1&amp;"'],")&amp;IF(ISBLANK(K2),"","['"&amp;$K$1&amp;"'],")&amp;IF(ISBLANK(L2),"","['"&amp;$L$1&amp;"'],")&amp;IF(ISBLANK(M2),"","['"&amp;M2&amp;"'],")&amp;"]"</f>
+        <f>"["&amp;IF(ISBLANK(J2),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K2),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L2),"","'"&amp;L2&amp;"',")&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="G2" t="str">
@@ -2184,18 +2185,14 @@
         <v>{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(ISBLANK(M2),"","if (")&amp;IF(ISBLANK(J2),"(!event.ctrlKey) &amp;&amp; ","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K2),"(!event.altKey) &amp;&amp; ","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L2),"(!event.shiftKey) &amp;&amp; ","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M2),"","(event.key.toUpperCase()==="""&amp;UPPER(M2)&amp;""") ){"&amp;D2&amp;";}")</f>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O2" t="str">
-        <f>IF(ISBLANK(M2),"",N2)</f>
+        <f>IF(ISBLANK(M2),"","keyHandler.bind"&amp;IF(ISBLANK(J2),"","Ctrl")&amp;IF(ISBLANK(K2),"","Shift")&amp;"Key("&amp;M2&amp;", function (evt){"&amp;D2&amp;"});")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -2203,13 +2200,13 @@
         <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
         <v>199</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F53" si="0">"["&amp;IF(ISBLANK(J3),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K3),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L3),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M3),"","'"&amp;M3&amp;"',")&amp;"]"</f>
+        <f t="shared" ref="F3:F55" si="0">"["&amp;IF(ISBLANK(J3),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K3),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L3),"","'"&amp;L3&amp;"',")&amp;"]"</f>
         <v>['Ctrl','O',]</v>
       </c>
       <c r="G3" t="str">
@@ -2217,24 +2214,23 @@
         <v>{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},</v>
       </c>
       <c r="I3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>243</v>
+      <c r="L3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3">
+        <v>79</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N55" si="2">IF(ISBLANK(M3),"","if (")&amp;IF(ISBLANK(J3),"(!event.ctrlKey) &amp;&amp; ","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K3),"(!event.altKey) &amp;&amp; ","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L3),"(!event.shiftKey) &amp;&amp; ","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M3),"","(event.key.toUpperCase()==="""&amp;UPPER(M3)&amp;""") ){"&amp;D3&amp;";}")</f>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O55" si="3">IF(ISBLANK(M3),"",N3)</f>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="O") ){alert();}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N3:N64" si="2">IF(ISBLANK(M3),"","keyHandler.bind"&amp;IF(ISBLANK(J3),"","Ctrl")&amp;IF(ISBLANK(K3),"","Shift")&amp;"Key("&amp;M3&amp;", function (evt){"&amp;D3&amp;"});")</f>
+        <v>keyHandler.bindCtrlKey(79, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>118</v>
       </c>
@@ -2242,7 +2238,7 @@
         <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
         <v>133</v>
@@ -2256,18 +2252,14 @@
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>137</v>
       </c>
@@ -2275,7 +2267,7 @@
         <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s">
         <v>197</v>
@@ -2289,24 +2281,23 @@
         <v>{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>244</v>
+      <c r="L5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5">
+        <v>83</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(83, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>138</v>
       </c>
@@ -2314,7 +2305,7 @@
         <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
         <v>198</v>
@@ -2328,24 +2319,23 @@
         <v>{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},</v>
       </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>247</v>
+      <c r="L6" t="s">
+        <v>246</v>
+      </c>
+      <c r="M6">
+        <v>76</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="L") ){alert();}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(76, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>118</v>
       </c>
@@ -2353,7 +2343,7 @@
         <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
         <v>133</v>
@@ -2367,18 +2357,14 @@
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>140</v>
       </c>
@@ -2386,7 +2372,7 @@
         <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
         <v>193</v>
@@ -2400,24 +2386,23 @@
         <v>{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},</v>
       </c>
       <c r="I8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>252</v>
+      <c r="L8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M8">
+        <v>74</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(74, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>139</v>
       </c>
@@ -2425,7 +2410,7 @@
         <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
         <v>194</v>
@@ -2439,27 +2424,26 @@
         <v>{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},</v>
       </c>
       <c r="I9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>252</v>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9">
+        <v>74</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="J") ){alert();}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(74, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>118</v>
       </c>
@@ -2467,7 +2451,7 @@
         <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
         <v>133</v>
@@ -2481,18 +2465,14 @@
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -2500,7 +2480,7 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
         <v>195</v>
@@ -2514,24 +2494,23 @@
         <v>{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>249</v>
+      <c r="L11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11">
+        <v>80</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="P") ){alert();}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(80, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -2553,18 +2532,14 @@
         <v>{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[</v>
       </c>
       <c r="I12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>234</v>
       </c>
@@ -2572,7 +2547,7 @@
         <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" t="s">
         <v>235</v>
@@ -2586,24 +2561,23 @@
         <v>{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},</v>
       </c>
       <c r="I13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
-        <v>250</v>
+      <c r="L13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13">
+        <v>85</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="U") ){alert();}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(85, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>201</v>
       </c>
@@ -2611,7 +2585,7 @@
         <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E14" t="s">
         <v>203</v>
@@ -2625,24 +2599,23 @@
         <v>{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},</v>
       </c>
       <c r="I14" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>254</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>255</v>
+      <c r="M14">
+        <v>69</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="E") ){alert();}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(69, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>202</v>
       </c>
@@ -2650,7 +2623,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" t="s">
         <v>204</v>
@@ -2664,41 +2637,40 @@
         <v>{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},</v>
       </c>
       <c r="I15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>244</v>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15">
+        <v>83</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="S") ){alert();}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(83, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" t="s">
         <v>297</v>
       </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" t="s">
-        <v>298</v>
-      </c>
       <c r="F16" t="str">
-        <f t="shared" ref="F16" si="4">"["&amp;IF(ISBLANK(J16),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K16),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L16),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M16),"","'"&amp;M16&amp;"',")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>['Ctrl','Shift','V',]</v>
       </c>
       <c r="G16" t="str">
@@ -2706,27 +2678,26 @@
         <v>{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},</v>
       </c>
       <c r="I16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>258</v>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>257</v>
+      </c>
+      <c r="M16">
+        <v>86</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){ShowModelItem('variablesManager');}</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){ShowModelItem('variablesManager');}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(86, function (evt){ShowModelItem('variablesManager')});</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>118</v>
       </c>
@@ -2734,7 +2705,7 @@
         <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
         <v>133</v>
@@ -2748,18 +2719,14 @@
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>236</v>
       </c>
@@ -2767,7 +2734,7 @@
         <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" t="s">
         <v>205</v>
@@ -2781,24 +2748,23 @@
         <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>256</v>
+      <c r="L18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M18">
+        <v>75</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) createSubModel();;}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>237</v>
       </c>
@@ -2806,7 +2772,7 @@
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
         <v>206</v>
@@ -2820,27 +2786,26 @@
         <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},</v>
       </c>
       <c r="I19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>256</v>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>255</v>
+      </c>
+      <c r="M19">
+        <v>75</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="K") ){if (graph.isEnabled()) ungroupSubModel();;}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -2862,87 +2827,87 @@
         <v>{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','A',]</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ref="G21:G24" si="3">IF(ISBLANK(A21),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F21&amp;"}"&amp;IF(ISBLANK(A25),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F21&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},</v>
+      </c>
+      <c r="I21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>264</v>
+      </c>
+      <c r="M21">
+        <v>65</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>keyHandler.bindCtrlKey(65, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ctrl','Shift','A',]</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','A',]</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" ref="G21:G24" si="5">IF(ISBLANK(A21),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F21&amp;"}"&amp;IF(ISBLANK(A25),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F21&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
-        <v>{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>265</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ctrl','Shift','A',]</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="5"/>
         <v>{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},</v>
       </c>
+      <c r="I22" t="s">
+        <v>253</v>
+      </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>265</v>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>264</v>
+      </c>
+      <c r="M22">
+        <v>65</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="A") ){alert();}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(65, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>118</v>
       </c>
@@ -2950,26 +2915,25 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},</v>
       </c>
+      <c r="I23" t="s">
+        <v>253</v>
+      </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>124</v>
       </c>
@@ -2977,7 +2941,7 @@
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E24" t="s">
         <v>208</v>
@@ -2987,28 +2951,27 @@
         <v>['Ctrl','X',]</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>257</v>
+      <c r="L24" t="s">
+        <v>256</v>
+      </c>
+      <c r="M24">
+        <v>88</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="X") ){alert();}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(88, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>125</v>
       </c>
@@ -3016,7 +2979,7 @@
         <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
         <v>207</v>
@@ -3030,24 +2993,23 @@
         <v>{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="M25" t="s">
-        <v>245</v>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25">
+        <v>67</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(67, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>126</v>
       </c>
@@ -3055,7 +3017,7 @@
         <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E26" t="s">
         <v>209</v>
@@ -3069,24 +3031,23 @@
         <v>{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
-        <v>258</v>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26">
+        <v>86</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="V") ){alert();}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(86, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>164</v>
       </c>
@@ -3094,7 +3055,7 @@
         <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" t="s">
         <v>210</v>
@@ -3108,27 +3069,26 @@
         <v>{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>245</v>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27">
+        <v>67</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="C") ){alert();}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(67, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -3136,7 +3096,7 @@
         <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
         <v>211</v>
@@ -3150,21 +3110,20 @@
         <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
-      </c>
-      <c r="M28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
         <v>33</v>
       </c>
+      <c r="M28">
+        <v>46</v>
+      </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
-        <v>if ((!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="DELETE") ){if (graph.isEnabled()) graph.removeCells();;}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindKey(46, function (evt){if (graph.isEnabled()) graph.removeCells();});</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>118</v>
       </c>
@@ -3172,7 +3131,7 @@
         <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
         <v>133</v>
@@ -3186,18 +3145,14 @@
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>143</v>
       </c>
@@ -3205,7 +3160,7 @@
         <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
         <v>212</v>
@@ -3219,24 +3174,23 @@
         <v>{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="M30" t="s">
-        <v>259</v>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30">
+        <v>90</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.undo();;}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(90, function (evt){undoManager.undo();});</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -3244,7 +3198,7 @@
         <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
         <v>213</v>
@@ -3258,27 +3212,26 @@
         <v>{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
-        <v>259</v>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31">
+        <v>90</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Z") ){undoManager.redo();;}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(90, function (evt){undoManager.redo();});</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -3300,18 +3253,14 @@
         <v>{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>129</v>
       </c>
@@ -3319,7 +3268,7 @@
         <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
         <v>216</v>
@@ -3333,24 +3282,23 @@
         <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="M33" t="s">
-        <v>260</v>
+      <c r="L33" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33">
+        <v>107</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="+") ){graph.zoomIn();;}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(107, function (evt){graph.zoomIn();});</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>128</v>
       </c>
@@ -3358,7 +3306,7 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
         <v>217</v>
@@ -3372,24 +3320,23 @@
         <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="M34" t="s">
-        <v>261</v>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34">
+        <v>109</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="-") ){graph.zoomOut();;}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(109, function (evt){graph.zoomOut();});</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>131</v>
       </c>
@@ -3397,7 +3344,7 @@
         <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
         <v>218</v>
@@ -3411,24 +3358,23 @@
         <v>{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
       <c r="M35">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.zoomActual();;}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(96, function (evt){graph.zoomActual();});</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>130</v>
       </c>
@@ -3436,7 +3382,7 @@
         <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
         <v>219</v>
@@ -3450,27 +3396,26 @@
         <v>{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},</v>
       </c>
       <c r="I36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="0") ){graph.fit();;}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(96, function (evt){graph.fit();});</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>118</v>
       </c>
@@ -3478,7 +3423,7 @@
         <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
         <v>133</v>
@@ -3492,18 +3437,14 @@
         <v>{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>145</v>
       </c>
@@ -3511,7 +3452,7 @@
         <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" t="s">
         <v>220</v>
@@ -3525,24 +3466,23 @@
         <v>{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},</v>
       </c>
       <c r="I38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="M38" t="s">
-        <v>248</v>
+      <c r="L38" t="s">
+        <v>247</v>
+      </c>
+      <c r="M38">
+        <v>77</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems();;}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(77, function (evt){foldItems();});</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>146</v>
       </c>
@@ -3550,7 +3490,7 @@
         <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" t="s">
         <v>221</v>
@@ -3564,27 +3504,26 @@
         <v>{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>248</v>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39">
+        <v>77</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="M") ){foldItems(false);;}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlShiftKey(77, function (evt){foldItems(false);});</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>118</v>
       </c>
@@ -3595,65 +3534,60 @@
         <v>133</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" ref="F40:F42" si="6">"["&amp;IF(ISBLANK(J40),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K40),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L40),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M40),"","'"&amp;M40&amp;"',")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[]</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" ref="G40:G42" si="7">IF(ISBLANK(A40),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F40&amp;"}"&amp;IF(ISBLANK(A43),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F40&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <f t="shared" ref="G40:G42" si="4">IF(ISBLANK(A40),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F40&amp;"}"&amp;IF(ISBLANK(A43),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;F40&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
         <v>{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" t="s">
         <v>293</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="D41" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" t="s">
-        <v>295</v>
-      </c>
       <c r="F41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>['Ctrl','R',]</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},</v>
       </c>
       <c r="I41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="M41" t="s">
-        <v>251</v>
+      <c r="L41" t="s">
+        <v>250</v>
+      </c>
+      <c r="M41">
+        <v>82</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="R") ){displayExecutionOrder();}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(82, function (evt){displayExecutionOrder()});</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>118</v>
       </c>
@@ -3661,32 +3595,28 @@
         <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
         <v>133</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>[]</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},</v>
       </c>
       <c r="I42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>222</v>
       </c>
@@ -3694,7 +3624,7 @@
         <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" t="s">
         <v>223</v>
@@ -3708,24 +3638,23 @@
         <v>{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},</v>
       </c>
       <c r="I43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="M43" t="s">
-        <v>262</v>
+      <c r="L43" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43">
+        <v>70</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="F") ){alert();}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(70, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>141</v>
       </c>
@@ -3733,7 +3662,7 @@
         <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
         <v>224</v>
@@ -3747,24 +3676,23 @@
         <v>{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},</v>
       </c>
       <c r="I44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="M44" t="s">
-        <v>253</v>
+      <c r="L44" t="s">
+        <v>252</v>
+      </c>
+      <c r="M44">
+        <v>71</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="G") ){alert();}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(71, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>175</v>
       </c>
@@ -3772,7 +3700,7 @@
         <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
         <v>225</v>
@@ -3786,24 +3714,23 @@
         <v>{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},</v>
       </c>
       <c r="I45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="M45" t="s">
-        <v>263</v>
+      <c r="L45" t="s">
+        <v>262</v>
+      </c>
+      <c r="M45">
+        <v>84</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="T") ){alert();}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(84, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>142</v>
       </c>
@@ -3811,7 +3738,7 @@
         <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
         <v>226</v>
@@ -3825,24 +3752,23 @@
         <v>{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},</v>
       </c>
       <c r="I46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="M46" t="s">
-        <v>264</v>
+      <c r="L46" t="s">
+        <v>263</v>
+      </c>
+      <c r="M46">
+        <v>89</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="Y") ){alert();}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(89, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -3864,18 +3790,14 @@
         <v>{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[</v>
       </c>
       <c r="I47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>150</v>
       </c>
@@ -3883,7 +3805,7 @@
         <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E48" t="s">
         <v>228</v>
@@ -3897,18 +3819,14 @@
         <v>{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},</v>
       </c>
       <c r="I48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>121</v>
       </c>
@@ -3916,7 +3834,7 @@
         <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
         <v>229</v>
@@ -3930,24 +3848,23 @@
         <v>{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},</v>
       </c>
       <c r="I49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="M49" t="s">
-        <v>266</v>
+      <c r="L49" t="s">
+        <v>265</v>
+      </c>
+      <c r="M49">
+        <v>66</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="B") ){alert();}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(66, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>119</v>
       </c>
@@ -3955,7 +3872,7 @@
         <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E50" t="s">
         <v>230</v>
@@ -3969,24 +3886,23 @@
         <v>{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},</v>
       </c>
       <c r="I50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="M50" t="s">
-        <v>267</v>
+      <c r="L50" t="s">
+        <v>266</v>
+      </c>
+      <c r="M50">
+        <v>87</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="W") ){alert();}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(87, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -4008,18 +3924,14 @@
         <v>{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[</v>
       </c>
       <c r="I51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>148</v>
       </c>
@@ -4027,7 +3939,7 @@
         <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E52" t="s">
         <v>232</v>
@@ -4041,24 +3953,23 @@
         <v>{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},</v>
       </c>
       <c r="I52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="M52" t="s">
-        <v>246</v>
+      <c r="L52" t="s">
+        <v>245</v>
+      </c>
+      <c r="M52">
+        <v>68</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="D") ){alert();}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(68, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>184</v>
       </c>
@@ -4066,7 +3977,7 @@
         <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
         <v>233</v>
@@ -4080,24 +3991,23 @@
         <v>{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},</v>
       </c>
       <c r="I53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="M53" t="s">
-        <v>268</v>
+      <c r="L53" t="s">
+        <v>267</v>
+      </c>
+      <c r="M53">
+        <v>72</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="3"/>
-        <v>if ((event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; (event.key.toUpperCase()==="H") ){alert();}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>keyHandler.bindCtrlKey(72, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>118</v>
       </c>
@@ -4105,13 +4015,13 @@
         <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E54" t="s">
         <v>233</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" ref="F54:F55" si="8">"["&amp;IF(ISBLANK(J54),"","'"&amp;$J$1&amp;"',")&amp;IF(ISBLANK(K54),"","'"&amp;$K$1&amp;"',")&amp;IF(ISBLANK(L54),"","'"&amp;$L$1&amp;"',")&amp;IF(ISBLANK(M54),"","'"&amp;M54&amp;"',")&amp;"]"</f>
+        <f t="shared" si="0"/>
         <v>[]</v>
       </c>
       <c r="G54" t="str">
@@ -4119,18 +4029,14 @@
         <v>{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},</v>
       </c>
       <c r="I54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>149</v>
       </c>
@@ -4138,13 +4044,13 @@
         <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
         <v>233</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>[]</v>
       </c>
       <c r="G55" t="str">
@@ -4152,71 +4058,146 @@
         <v>{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},</v>
       </c>
       <c r="I55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">(!event.ctrlKey) &amp;&amp; (!event.altKey) &amp;&amp; (!event.shiftKey) &amp;&amp; </v>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>135</v>
       </c>
       <c r="I56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
+        <v>284</v>
+      </c>
+      <c r="I57" t="s">
+        <v>253</v>
+      </c>
+      <c r="L57" t="s">
+        <v>288</v>
+      </c>
+      <c r="M57">
+        <v>38</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v>keyHandler.bindKey(38, function (evt){moveGraph("up");});</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
         <v>285</v>
       </c>
-      <c r="M57" t="s">
+      <c r="I58" t="s">
+        <v>253</v>
+      </c>
+      <c r="L58" t="s">
         <v>289</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" ref="N3:N60" si="9">IF(ISBLANK(M57),"","if (")&amp;IF(ISBLANK(J57),"","(event.ctrlKey) &amp;&amp; ")&amp;IF(ISBLANK(K57),"","(event.altKey) &amp;&amp; ")&amp;IF(ISBLANK(L57),"","(event.shiftKey) &amp;&amp; ")&amp;IF(ISBLANK(M57),"","(event.key.toUpperCase()==="""&amp;UPPER(M57)&amp;""") ){"&amp;D57&amp;";}")</f>
-        <v>if ((event.key.toUpperCase()==="ARROWUP") ){moveGraph("up");;}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
+      <c r="M58">
+        <v>40</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v>keyHandler.bindKey(40, function (evt){moveGraph("down");});</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
         <v>286</v>
       </c>
-      <c r="M58" t="s">
+      <c r="I59" t="s">
+        <v>253</v>
+      </c>
+      <c r="L59" t="s">
         <v>290</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="9"/>
-        <v>if ((event.key.toUpperCase()==="ARROWDOWN") ){moveGraph("down");;}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+      <c r="M59">
+        <v>39</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v>keyHandler.bindKey(39, function (evt){moveGraph("right");});</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
         <v>287</v>
       </c>
-      <c r="M59" t="s">
+      <c r="I60" t="s">
+        <v>253</v>
+      </c>
+      <c r="L60" t="s">
         <v>291</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="9"/>
-        <v>if ((event.key.toUpperCase()==="ARROWRIGHT") ){moveGraph("right");;}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>288</v>
-      </c>
-      <c r="M60" t="s">
-        <v>292</v>
+      <c r="M60">
+        <v>37</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="9"/>
-        <v>if ((event.key.toUpperCase()==="ARROWLEFT") ){moveGraph("left");;}</v>
+        <f t="shared" si="2"/>
+        <v>keyHandler.bindKey(37, function (evt){moveGraph("left");});</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>277</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>48</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="2"/>
+        <v>keyHandler.bindCtrlKey(48, function (evt){graph.zoomActual();});</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>278</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>48</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="2"/>
+        <v>keyHandler.bindCtrlShiftKey(48, function (evt){graph.fit();});</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154EBE0C-A49F-4FA5-AA56-574089F7EADE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1972E6-1137-4B1B-9A1A-41D59EEDA51A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="O1" t="str">
         <f>_xlfn.CONCAT(N:N)</f>
-        <v>keyHandler.bindCtrlKey(79, function (evt){alert()});keyHandler.bindCtrlKey(83, function (evt){alert()});keyHandler.bindCtrlKey(76, function (evt){alert()});keyHandler.bindCtrlKey(74, function (evt){alert()});keyHandler.bindCtrlShiftKey(74, function (evt){alert()});keyHandler.bindCtrlKey(80, function (evt){alert()});keyHandler.bindCtrlKey(85, function (evt){alert()});keyHandler.bindCtrlKey(69, function (evt){alert()});keyHandler.bindCtrlShiftKey(83, function (evt){alert()});keyHandler.bindCtrlShiftKey(86, function (evt){ShowModelItem('variablesManager')});keyHandler.bindCtrlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});keyHandler.bindCtrlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});keyHandler.bindCtrlKey(65, function (evt){alert()});keyHandler.bindCtrlShiftKey(65, function (evt){alert()});keyHandler.bindCtrlKey(88, function (evt){alert()});keyHandler.bindCtrlKey(67, function (evt){alert()});keyHandler.bindCtrlKey(86, function (evt){alert()});keyHandler.bindCtrlShiftKey(67, function (evt){alert()});keyHandler.bindKey(46, function (evt){if (graph.isEnabled()) graph.removeCells();});keyHandler.bindCtrlKey(90, function (evt){undoManager.undo();});keyHandler.bindCtrlShiftKey(90, function (evt){undoManager.redo();});keyHandler.bindCtrlKey(107, function (evt){graph.zoomIn();});keyHandler.bindCtrlKey(109, function (evt){graph.zoomOut();});keyHandler.bindCtrlKey(96, function (evt){graph.zoomActual();});keyHandler.bindCtrlShiftKey(96, function (evt){graph.fit();});keyHandler.bindCtrlKey(77, function (evt){foldItems();});keyHandler.bindCtrlShiftKey(77, function (evt){foldItems(false);});keyHandler.bindCtrlKey(82, function (evt){displayExecutionOrder()});keyHandler.bindCtrlKey(70, function (evt){alert()});keyHandler.bindCtrlKey(71, function (evt){alert()});keyHandler.bindCtrlKey(84, function (evt){alert()});keyHandler.bindCtrlKey(89, function (evt){alert()});keyHandler.bindCtrlKey(66, function (evt){alert()});keyHandler.bindCtrlKey(87, function (evt){alert()});keyHandler.bindCtrlKey(68, function (evt){alert()});keyHandler.bindCtrlKey(72, function (evt){alert()});keyHandler.bindKey(38, function (evt){moveGraph("up");});keyHandler.bindKey(40, function (evt){moveGraph("down");});keyHandler.bindKey(39, function (evt){moveGraph("right");});keyHandler.bindKey(37, function (evt){moveGraph("left");});keyHandler.bindCtrlKey(48, function (evt){graph.zoomActual();});keyHandler.bindCtrlShiftKey(48, function (evt){graph.fit();});</v>
+        <v>keyHandler.bindControlKey(79, function (evt){alert()});keyHandler.bindControlKey(83, function (evt){alert()});keyHandler.bindControlKey(76, function (evt){alert()});keyHandler.bindControlKey(74, function (evt){alert()});keyHandler.bindControlShiftKey(74, function (evt){alert()});keyHandler.bindControlKey(80, function (evt){alert()});keyHandler.bindControlKey(85, function (evt){alert()});keyHandler.bindControlKey(69, function (evt){alert()});keyHandler.bindControlShiftKey(83, function (evt){alert()});keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});keyHandler.bindControlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});keyHandler.bindControlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});keyHandler.bindControlKey(65, function (evt){alert()});keyHandler.bindControlShiftKey(65, function (evt){alert()});keyHandler.bindControlKey(88, function (evt){alert()});keyHandler.bindControlKey(67, function (evt){alert()});keyHandler.bindControlKey(86, function (evt){alert()});keyHandler.bindControlShiftKey(67, function (evt){alert()});keyHandler.bindKey(46, function (evt){if (graph.isEnabled()) graph.removeCells();});keyHandler.bindControlKey(90, function (evt){undoManager.undo();});keyHandler.bindControlShiftKey(90, function (evt){undoManager.redo();});keyHandler.bindControlKey(107, function (evt){graph.zoomIn();});keyHandler.bindControlKey(109, function (evt){graph.zoomOut();});keyHandler.bindControlKey(96, function (evt){graph.zoomActual();});keyHandler.bindControlShiftKey(96, function (evt){graph.fit();});keyHandler.bindControlKey(77, function (evt){foldItems();});keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});keyHandler.bindControlKey(70, function (evt){alert()});keyHandler.bindControlKey(71, function (evt){alert()});keyHandler.bindControlKey(84, function (evt){alert()});keyHandler.bindControlKey(89, function (evt){alert()});keyHandler.bindControlKey(66, function (evt){alert()});keyHandler.bindControlKey(87, function (evt){alert()});keyHandler.bindControlKey(68, function (evt){alert()});keyHandler.bindControlKey(72, function (evt){alert()});keyHandler.bindKey(38, function (evt){moveGraph("up");});keyHandler.bindKey(40, function (evt){moveGraph("down");});keyHandler.bindKey(39, function (evt){moveGraph("right");});keyHandler.bindKey(37, function (evt){moveGraph("left");});keyHandler.bindControlKey(48, function (evt){graph.zoomActual();});keyHandler.bindControlShiftKey(48, function (evt){graph.fit();});</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2188,7 +2188,7 @@
         <v>253</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(ISBLANK(M2),"","keyHandler.bind"&amp;IF(ISBLANK(J2),"","Ctrl")&amp;IF(ISBLANK(K2),"","Shift")&amp;"Key("&amp;M2&amp;", function (evt){"&amp;D2&amp;"});")</f>
+        <f>IF(ISBLANK(M2),"","keyHandler.bind"&amp;IF(ISBLANK(J2),"","Control")&amp;IF(ISBLANK(K2),"","Shift")&amp;"Key("&amp;M2&amp;", function (evt){"&amp;D2&amp;"});")</f>
         <v/>
       </c>
     </row>
@@ -2226,8 +2226,8 @@
         <v>79</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N64" si="2">IF(ISBLANK(M3),"","keyHandler.bind"&amp;IF(ISBLANK(J3),"","Ctrl")&amp;IF(ISBLANK(K3),"","Shift")&amp;"Key("&amp;M3&amp;", function (evt){"&amp;D3&amp;"});")</f>
-        <v>keyHandler.bindCtrlKey(79, function (evt){alert()});</v>
+        <f t="shared" ref="N3:N64" si="2">IF(ISBLANK(M3),"","keyHandler.bind"&amp;IF(ISBLANK(J3),"","Control")&amp;IF(ISBLANK(K3),"","Shift")&amp;"Key("&amp;M3&amp;", function (evt){"&amp;D3&amp;"});")</f>
+        <v>keyHandler.bindControlKey(79, function (evt){alert()});</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(83, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(83, function (evt){alert()});</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(76, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(76, function (evt){alert()});</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(74, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(74, function (evt){alert()});</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(74, function (evt){alert()});</v>
+        <v>keyHandler.bindControlShiftKey(74, function (evt){alert()});</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(80, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(80, function (evt){alert()});</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(85, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(85, function (evt){alert()});</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(69, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(69, function (evt){alert()});</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(83, function (evt){alert()});</v>
+        <v>keyHandler.bindControlShiftKey(83, function (evt){alert()});</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(86, function (evt){ShowModelItem('variablesManager')});</v>
+        <v>keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});</v>
+        <v>keyHandler.bindControlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});</v>
+        <v>keyHandler.bindControlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(65, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(65, function (evt){alert()});</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(65, function (evt){alert()});</v>
+        <v>keyHandler.bindControlShiftKey(65, function (evt){alert()});</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(88, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(88, function (evt){alert()});</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(67, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(67, function (evt){alert()});</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(86, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(86, function (evt){alert()});</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(67, function (evt){alert()});</v>
+        <v>keyHandler.bindControlShiftKey(67, function (evt){alert()});</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(90, function (evt){undoManager.undo();});</v>
+        <v>keyHandler.bindControlKey(90, function (evt){undoManager.undo();});</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(90, function (evt){undoManager.redo();});</v>
+        <v>keyHandler.bindControlShiftKey(90, function (evt){undoManager.redo();});</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(107, function (evt){graph.zoomIn();});</v>
+        <v>keyHandler.bindControlKey(107, function (evt){graph.zoomIn();});</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(109, function (evt){graph.zoomOut();});</v>
+        <v>keyHandler.bindControlKey(109, function (evt){graph.zoomOut();});</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(96, function (evt){graph.zoomActual();});</v>
+        <v>keyHandler.bindControlKey(96, function (evt){graph.zoomActual();});</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(96, function (evt){graph.fit();});</v>
+        <v>keyHandler.bindControlShiftKey(96, function (evt){graph.fit();});</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(77, function (evt){foldItems();});</v>
+        <v>keyHandler.bindControlKey(77, function (evt){foldItems();});</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(77, function (evt){foldItems(false);});</v>
+        <v>keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(82, function (evt){displayExecutionOrder()});</v>
+        <v>keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(70, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(70, function (evt){alert()});</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(71, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(71, function (evt){alert()});</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(84, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(84, function (evt){alert()});</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(89, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(89, function (evt){alert()});</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(66, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(66, function (evt){alert()});</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(87, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(87, function (evt){alert()});</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(68, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(68, function (evt){alert()});</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(72, function (evt){alert()});</v>
+        <v>keyHandler.bindControlKey(72, function (evt){alert()});</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="N61" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlKey(48, function (evt){graph.zoomActual();});</v>
+        <v>keyHandler.bindControlKey(48, function (evt){graph.zoomActual();});</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindCtrlShiftKey(48, function (evt){graph.fit();});</v>
+        <v>keyHandler.bindControlShiftKey(48, function (evt){graph.fit();});</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Uyamak\Generators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1972E6-1137-4B1B-9A1A-41D59EEDA51A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7836C-9BD1-46F2-826C-62BDA54595C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
     <sheet name="functionsCategories" sheetId="3" r:id="rId2"/>
     <sheet name="toolBar" sheetId="7" r:id="rId3"/>
-    <sheet name="IconText" sheetId="4" r:id="rId4"/>
-    <sheet name="networkIcon" sheetId="5" r:id="rId5"/>
-    <sheet name="blockTemplate" sheetId="6" r:id="rId6"/>
+    <sheet name="umkBlockCategories" sheetId="8" r:id="rId4"/>
+    <sheet name="umkBlockSummary" sheetId="9" r:id="rId5"/>
+    <sheet name="IconText" sheetId="4" r:id="rId6"/>
+    <sheet name="networkIcon" sheetId="5" r:id="rId7"/>
+    <sheet name="blockTemplate" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="329">
   <si>
     <t>newFile</t>
   </si>
@@ -939,6 +941,90 @@
   </si>
   <si>
     <t>Key code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>1563761824208</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Adds two or more numbers, vector, or matrices. All the inputs should of same size.</t>
+  </si>
+  <si>
+    <t>&lt;line x1='20' y1='50' x2= '80' y2='50' /&gt;&lt;line x1='50' y1='20' x2= '50' y2='80'/&gt;</t>
+  </si>
+  <si>
+    <t>#1595C8</t>
+  </si>
+  <si>
+    <t>#0D7CA7</t>
+  </si>
+  <si>
+    <t>1563773379791</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Generates scalar, vector or a matrix constant.</t>
+  </si>
+  <si>
+    <t>&lt;text x='50' y='57' dominant-baseline='middle' text-anchor='middle' font-size='5em'&gt;C&lt;/text&gt;</t>
+  </si>
+  <si>
+    <t>#5646BF</t>
+  </si>
+  <si>
+    <t>#3A2B95</t>
+  </si>
+  <si>
+    <t>1563789409994</t>
+  </si>
+  <si>
+    <t>Displays result on screen</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>&lt;text x='50' y='57' dominant-baseline='middle' text-anchor='middle' font-size='5em'&gt;#&lt;/text&gt;</t>
+  </si>
+  <si>
+    <t>#0E4C89</t>
+  </si>
+  <si>
+    <t>#112F4E</t>
+  </si>
+  <si>
+    <t>Displays simple value vs time plot</t>
+  </si>
+  <si>
+    <t>Time series</t>
+  </si>
+  <si>
+    <t>1566440473596</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -988,6 +1074,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2108,7 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -4211,6 +4298,359 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9250CB0-786D-4D3C-93C0-166783B5CCA7}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("var umkBlockCategories=[",F:F,"]")</f>
+        <v>var umkBlockCategories=[{"id":"sources","name":"Sources","desc":"Sources generate the signals to feed to the model.","icon":"","order":"0"},{"id":"sinks","name":"Sinks","desc":"Sinks output the information. They can be graphs or file download","icon":"","order":"1"},{"id":"basics","name":"Basic operations","desc":"Basic mathematical operations are given","icon":"","order":"2"},{"id":"logics","name":"Logical operations","desc":"Logical operations are available in this section","icon":"","order":"3"},{"id":"continuous","name":"Continuous time","desc":"Dynamic operations are available here for continuous time operations","icon":"","order":"4"},{"id":"discrete","name":"Discrete time","desc":"Dynamic operations are available here for discrete time operations","icon":"","order":"5"},{"id":"Hardware tools","name":"Hardware i/o blocks are available here","desc":"","icon":"","order":"6"},]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("{"""&amp;$A$1&amp;""":"""&amp;A2&amp;""","&amp;""""&amp;$B$1&amp;""":"""&amp;B2&amp;""","&amp;""""&amp;$C$1&amp;""":"""&amp;C2&amp;""","&amp;""""&amp;$D$1&amp;""":"""&amp;D2&amp;""","&amp;""""&amp;$E$1&amp;""":"""&amp;E2&amp;"""},")</f>
+        <v>{"id":"sources","name":"Sources","desc":"Sources generate the signals to feed to the model.","icon":"","order":"0"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F8" si="0">_xlfn.CONCAT("{"""&amp;$A$1&amp;""":"""&amp;A3&amp;""","&amp;""""&amp;$B$1&amp;""":"""&amp;B3&amp;""","&amp;""""&amp;$C$1&amp;""":"""&amp;C3&amp;""","&amp;""""&amp;$D$1&amp;""":"""&amp;D3&amp;""","&amp;""""&amp;$E$1&amp;""":"""&amp;E3&amp;"""},")</f>
+        <v>{"id":"sinks","name":"Sinks","desc":"Sinks output the information. They can be graphs or file download","icon":"","order":"1"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":"basics","name":"Basic operations","desc":"Basic mathematical operations are given","icon":"","order":"2"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":"logics","name":"Logical operations","desc":"Logical operations are available in this section","icon":"","order":"3"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":"continuous","name":"Continuous time","desc":"Dynamic operations are available here for continuous time operations","icon":"","order":"4"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":"discrete","name":"Discrete time","desc":"Dynamic operations are available here for discrete time operations","icon":"","order":"5"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":"Hardware tools","name":"Hardware i/o blocks are available here","desc":"","icon":"","order":"6"},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ABC199-4C78-43F5-9B30-3F244827938A}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D076C0DC-DCCC-4436-A907-16EC86A321B2}">
+          <x14:formula1>
+            <xm:f>umkBlockCategories!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C9AEB-C6BB-44D2-B1DC-A1A0A65CA6D9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4269,7 +4709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD001D-C99D-4E3C-BE5C-3929C71869C0}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4328,7 +4768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B75BB5-727D-43CB-AB8E-FD2D3EDBD069}">
   <dimension ref="A1:I19"/>
   <sheetViews>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7836C-9BD1-46F2-826C-62BDA54595C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9576F68E-505B-4920-A123-1D1F197F44B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
@@ -859,51 +859,12 @@
     <t>alert()</t>
   </si>
   <si>
-    <t>undoManager.undo();</t>
-  </si>
-  <si>
-    <t>undoManager.redo();</t>
-  </si>
-  <si>
-    <t>graph.zoomIn();</t>
-  </si>
-  <si>
-    <t>graph.zoomOut();</t>
-  </si>
-  <si>
-    <t>graph.zoomActual();</t>
-  </si>
-  <si>
-    <t>graph.fit();</t>
-  </si>
-  <si>
-    <t>if (graph.isEnabled()) graph.removeCells();</t>
-  </si>
-  <si>
-    <t>if (graph.isEnabled()) ungroupSubModel();</t>
-  </si>
-  <si>
-    <t>if (graph.isEnabled()) createSubModel();</t>
-  </si>
-  <si>
     <t>foldItems();</t>
   </si>
   <si>
     <t>foldItems(false);</t>
   </si>
   <si>
-    <t>moveGraph("up");</t>
-  </si>
-  <si>
-    <t>moveGraph("down");</t>
-  </si>
-  <si>
-    <t>moveGraph("right");</t>
-  </si>
-  <si>
-    <t>moveGraph("left");</t>
-  </si>
-  <si>
     <t>ArrowUp</t>
   </si>
   <si>
@@ -1025,6 +986,45 @@
   </si>
   <si>
     <t>1566440473596</t>
+  </si>
+  <si>
+    <t>if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();</t>
+  </si>
+  <si>
+    <t>if (mainSystem.graph.isEnabled()) createSubModel();</t>
+  </si>
+  <si>
+    <t>if (mainSystem.graph.isEnabled()) ungroupSubModel();</t>
+  </si>
+  <si>
+    <t>mainSystem.graph.zoomIn();</t>
+  </si>
+  <si>
+    <t>mainSystem.graph.zoomOut();</t>
+  </si>
+  <si>
+    <t>mainSystem.graph.zoomActual();</t>
+  </si>
+  <si>
+    <t>mainSystem.graph.fit();</t>
+  </si>
+  <si>
+    <t>movemainSystem.graph("up");</t>
+  </si>
+  <si>
+    <t>movemainSystem.graph("down");</t>
+  </si>
+  <si>
+    <t>movemainSystem.graph("right");</t>
+  </si>
+  <si>
+    <t>movemainSystem.graph("left");</t>
+  </si>
+  <si>
+    <t>mainSystem.undoManager.undo();</t>
+  </si>
+  <si>
+    <t>mainSystem.undoManager.redo();</t>
   </si>
 </sst>
 </file>
@@ -2195,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2227,8 +2227,8 @@
         <v>134</v>
       </c>
       <c r="H1" t="str">
-        <f ca="1">CHAR(34)&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;CHAR(34)&amp;":["&amp;_xlfn.CONCAT(G:G)&amp;"]"</f>
-        <v>"toolBar":[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},]</v>
+        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"=["&amp;_xlfn.CONCAT(G:G)&amp;"];"</f>
+        <v>toolBar=[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (mainSystem.graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (mainSystem.graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"mainSystem.undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"mainSystem.undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"mainSystem.graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"mainSystem.graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"mainSystem.graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"mainSystem.graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},];</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
@@ -2243,11 +2243,11 @@
         <v>241</v>
       </c>
       <c r="M1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="O1" t="str">
         <f>_xlfn.CONCAT(N:N)</f>
-        <v>keyHandler.bindControlKey(79, function (evt){alert()});keyHandler.bindControlKey(83, function (evt){alert()});keyHandler.bindControlKey(76, function (evt){alert()});keyHandler.bindControlKey(74, function (evt){alert()});keyHandler.bindControlShiftKey(74, function (evt){alert()});keyHandler.bindControlKey(80, function (evt){alert()});keyHandler.bindControlKey(85, function (evt){alert()});keyHandler.bindControlKey(69, function (evt){alert()});keyHandler.bindControlShiftKey(83, function (evt){alert()});keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});keyHandler.bindControlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});keyHandler.bindControlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});keyHandler.bindControlKey(65, function (evt){alert()});keyHandler.bindControlShiftKey(65, function (evt){alert()});keyHandler.bindControlKey(88, function (evt){alert()});keyHandler.bindControlKey(67, function (evt){alert()});keyHandler.bindControlKey(86, function (evt){alert()});keyHandler.bindControlShiftKey(67, function (evt){alert()});keyHandler.bindKey(46, function (evt){if (graph.isEnabled()) graph.removeCells();});keyHandler.bindControlKey(90, function (evt){undoManager.undo();});keyHandler.bindControlShiftKey(90, function (evt){undoManager.redo();});keyHandler.bindControlKey(107, function (evt){graph.zoomIn();});keyHandler.bindControlKey(109, function (evt){graph.zoomOut();});keyHandler.bindControlKey(96, function (evt){graph.zoomActual();});keyHandler.bindControlShiftKey(96, function (evt){graph.fit();});keyHandler.bindControlKey(77, function (evt){foldItems();});keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});keyHandler.bindControlKey(70, function (evt){alert()});keyHandler.bindControlKey(71, function (evt){alert()});keyHandler.bindControlKey(84, function (evt){alert()});keyHandler.bindControlKey(89, function (evt){alert()});keyHandler.bindControlKey(66, function (evt){alert()});keyHandler.bindControlKey(87, function (evt){alert()});keyHandler.bindControlKey(68, function (evt){alert()});keyHandler.bindControlKey(72, function (evt){alert()});keyHandler.bindKey(38, function (evt){moveGraph("up");});keyHandler.bindKey(40, function (evt){moveGraph("down");});keyHandler.bindKey(39, function (evt){moveGraph("right");});keyHandler.bindKey(37, function (evt){moveGraph("left");});keyHandler.bindControlKey(48, function (evt){graph.zoomActual();});keyHandler.bindControlShiftKey(48, function (evt){graph.fit();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(79, function (evt){alert()});mainSystem.keyHandler.bindControlKey(83, function (evt){alert()});mainSystem.keyHandler.bindControlKey(76, function (evt){alert()});mainSystem.keyHandler.bindControlKey(74, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(74, function (evt){alert()});mainSystem.keyHandler.bindControlKey(80, function (evt){alert()});mainSystem.keyHandler.bindControlKey(85, function (evt){alert()});mainSystem.keyHandler.bindControlKey(69, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(83, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});mainSystem.keyHandler.bindControlKey(75, function (evt){if (mainSystem.graph.isEnabled()) createSubModel();});mainSystem.keyHandler.bindControlShiftKey(75, function (evt){if (mainSystem.graph.isEnabled()) ungroupSubModel();});mainSystem.keyHandler.bindControlKey(65, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(65, function (evt){alert()});mainSystem.keyHandler.bindControlKey(88, function (evt){alert()});mainSystem.keyHandler.bindControlKey(67, function (evt){alert()});mainSystem.keyHandler.bindControlKey(86, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(67, function (evt){alert()});mainSystem.keyHandler.bindKey(46, function (evt){if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();});mainSystem.keyHandler.bindControlKey(90, function (evt){mainSystem.undoManager.undo();});mainSystem.keyHandler.bindControlShiftKey(90, function (evt){mainSystem.undoManager.redo();});mainSystem.keyHandler.bindControlKey(107, function (evt){mainSystem.graph.zoomIn();});mainSystem.keyHandler.bindControlKey(109, function (evt){mainSystem.graph.zoomOut();});mainSystem.keyHandler.bindControlKey(96, function (evt){mainSystem.graph.zoomActual();});mainSystem.keyHandler.bindControlShiftKey(96, function (evt){mainSystem.graph.fit();});mainSystem.keyHandler.bindControlKey(77, function (evt){foldItems();});mainSystem.keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});mainSystem.keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});mainSystem.keyHandler.bindControlKey(70, function (evt){alert()});mainSystem.keyHandler.bindControlKey(71, function (evt){alert()});mainSystem.keyHandler.bindControlKey(84, function (evt){alert()});mainSystem.keyHandler.bindControlKey(89, function (evt){alert()});mainSystem.keyHandler.bindControlKey(66, function (evt){alert()});mainSystem.keyHandler.bindControlKey(87, function (evt){alert()});mainSystem.keyHandler.bindControlKey(68, function (evt){alert()});mainSystem.keyHandler.bindControlKey(72, function (evt){alert()});mainSystem.keyHandler.bindKey(38, function (evt){movemainSystem.graph("up");});mainSystem.keyHandler.bindKey(40, function (evt){movemainSystem.graph("down");});mainSystem.keyHandler.bindKey(39, function (evt){movemainSystem.graph("right");});mainSystem.keyHandler.bindKey(37, function (evt){movemainSystem.graph("left");});mainSystem.keyHandler.bindControlKey(48, function (evt){mainSystem.graph.zoomActual();});mainSystem.keyHandler.bindControlShiftKey(48, function (evt){mainSystem.graph.fit();});</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2275,7 +2275,7 @@
         <v>253</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(ISBLANK(M2),"","keyHandler.bind"&amp;IF(ISBLANK(J2),"","Control")&amp;IF(ISBLANK(K2),"","Shift")&amp;"Key("&amp;M2&amp;", function (evt){"&amp;D2&amp;"});")</f>
+        <f>IF(ISBLANK(M2),"","mainSystem.keyHandler.bind"&amp;IF(ISBLANK(J2),"","Control")&amp;IF(ISBLANK(K2),"","Shift")&amp;"Key("&amp;M2&amp;", function (evt){"&amp;D2&amp;"});")</f>
         <v/>
       </c>
     </row>
@@ -2313,8 +2313,8 @@
         <v>79</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N64" si="2">IF(ISBLANK(M3),"","keyHandler.bind"&amp;IF(ISBLANK(J3),"","Control")&amp;IF(ISBLANK(K3),"","Shift")&amp;"Key("&amp;M3&amp;", function (evt){"&amp;D3&amp;"});")</f>
-        <v>keyHandler.bindControlKey(79, function (evt){alert()});</v>
+        <f t="shared" ref="N3:N64" si="2">IF(ISBLANK(M3),"","mainSystem.keyHandler.bind"&amp;IF(ISBLANK(J3),"","Control")&amp;IF(ISBLANK(K3),"","Shift")&amp;"Key("&amp;M3&amp;", function (evt){"&amp;D3&amp;"});")</f>
+        <v>mainSystem.keyHandler.bindControlKey(79, function (evt){alert()});</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(83, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(83, function (evt){alert()});</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(76, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(76, function (evt){alert()});</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(74, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(74, function (evt){alert()});</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(74, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(74, function (evt){alert()});</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(80, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(80, function (evt){alert()});</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(85, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(85, function (evt){alert()});</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(69, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(69, function (evt){alert()});</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2740,21 +2740,21 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(83, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(83, function (evt){alert()});</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
         <v>205</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"if (graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},</v>
+        <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"if (mainSystem.graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},</v>
       </c>
       <c r="I18" t="s">
         <v>253</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(75, function (evt){if (graph.isEnabled()) createSubModel();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(75, function (evt){if (mainSystem.graph.isEnabled()) createSubModel();});</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="E19" t="s">
         <v>206</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},</v>
+        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (mainSystem.graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},</v>
       </c>
       <c r="I19" t="s">
         <v>253</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(75, function (evt){if (graph.isEnabled()) ungroupSubModel();});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(75, function (evt){if (mainSystem.graph.isEnabled()) ungroupSubModel();});</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(65, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(65, function (evt){alert()});</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(65, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(65, function (evt){alert()});</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(88, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(88, function (evt){alert()});</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(67, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(67, function (evt){alert()});</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(86, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(86, function (evt){alert()});</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(67, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(67, function (evt){alert()});</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -3183,7 +3183,7 @@
         <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="E28" t="s">
         <v>211</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"if (graph.isEnabled()) graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},</v>
+        <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},</v>
       </c>
       <c r="I28" t="s">
         <v>253</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindKey(46, function (evt){if (graph.isEnabled()) graph.removeCells();});</v>
+        <v>mainSystem.keyHandler.bindKey(46, function (evt){if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();});</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
         <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E30" t="s">
         <v>212</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Undo","icon":"fas fa-undo","function":"undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},</v>
+        <v>{"value":"Undo","icon":"fas fa-undo","function":"mainSystem.undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},</v>
       </c>
       <c r="I30" t="s">
         <v>253</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(90, function (evt){undoManager.undo();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(90, function (evt){mainSystem.undoManager.undo();});</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -3285,7 +3285,7 @@
         <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
         <v>213</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Redo","icon":"fas fa-redo","function":"undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},</v>
+        <v>{"value":"Redo","icon":"fas fa-redo","function":"mainSystem.undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},</v>
       </c>
       <c r="I31" t="s">
         <v>253</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(90, function (evt){undoManager.redo();});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(90, function (evt){mainSystem.undoManager.redo();});</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -3355,7 +3355,7 @@
         <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="E33" t="s">
         <v>216</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},</v>
+        <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"mainSystem.graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},</v>
       </c>
       <c r="I33" t="s">
         <v>253</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(107, function (evt){graph.zoomIn();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(107, function (evt){mainSystem.graph.zoomIn();});</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -3393,7 +3393,7 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="E34" t="s">
         <v>217</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},</v>
+        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"mainSystem.graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},</v>
       </c>
       <c r="I34" t="s">
         <v>253</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(109, function (evt){graph.zoomOut();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(109, function (evt){mainSystem.graph.zoomOut();});</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3431,7 +3431,7 @@
         <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="E35" t="s">
         <v>218</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Original size","icon":"fas fa-compress","function":"graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},</v>
+        <v>{"value":"Original size","icon":"fas fa-compress","function":"mainSystem.graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},</v>
       </c>
       <c r="I35" t="s">
         <v>253</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(96, function (evt){graph.zoomActual();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(96, function (evt){mainSystem.graph.zoomActual();});</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3469,7 +3469,7 @@
         <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E36" t="s">
         <v>219</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>{"value":"Fit all","icon":"fas fa-expand","function":"graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},</v>
+        <v>{"value":"Fit all","icon":"fas fa-expand","function":"mainSystem.graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},</v>
       </c>
       <c r="I36" t="s">
         <v>253</v>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(96, function (evt){graph.fit();});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(96, function (evt){mainSystem.graph.fit();});</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -3539,7 +3539,7 @@
         <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
         <v>220</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(77, function (evt){foldItems();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(77, function (evt){foldItems();});</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3577,7 +3577,7 @@
         <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
         <v>221</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3638,16 +3638,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(70, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(70, function (evt){alert()});</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(71, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(71, function (evt){alert()});</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(84, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(84, function (evt){alert()});</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(89, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(89, function (evt){alert()});</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(66, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(66, function (evt){alert()});</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(87, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(87, function (evt){alert()});</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(68, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(68, function (evt){alert()});</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(72, function (evt){alert()});</v>
+        <v>mainSystem.keyHandler.bindControlKey(72, function (evt){alert()});</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -4166,79 +4166,79 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="I57" t="s">
         <v>253</v>
       </c>
       <c r="L57" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M57">
         <v>38</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindKey(38, function (evt){moveGraph("up");});</v>
+        <v>mainSystem.keyHandler.bindKey(38, function (evt){movemainSystem.graph("up");});</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="I58" t="s">
         <v>253</v>
       </c>
       <c r="L58" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M58">
         <v>40</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindKey(40, function (evt){moveGraph("down");});</v>
+        <v>mainSystem.keyHandler.bindKey(40, function (evt){movemainSystem.graph("down");});</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="I59" t="s">
         <v>253</v>
       </c>
       <c r="L59" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M59">
         <v>39</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindKey(39, function (evt){moveGraph("right");});</v>
+        <v>mainSystem.keyHandler.bindKey(39, function (evt){movemainSystem.graph("right");});</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="I60" t="s">
         <v>253</v>
       </c>
       <c r="L60" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="M60">
         <v>37</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindKey(37, function (evt){moveGraph("left");});</v>
+        <v>mainSystem.keyHandler.bindKey(37, function (evt){movemainSystem.graph("left");});</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4251,12 +4251,12 @@
       </c>
       <c r="N61" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlKey(48, function (evt){graph.zoomActual();});</v>
+        <v>mainSystem.keyHandler.bindControlKey(48, function (evt){mainSystem.graph.zoomActual();});</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="2"/>
-        <v>keyHandler.bindControlShiftKey(48, function (evt){graph.fit();});</v>
+        <v>mainSystem.keyHandler.bindControlShiftKey(48, function (evt){mainSystem.graph.fit();});</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -4312,13 +4312,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
         <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -4464,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ABC199-4C78-43F5-9B30-3F244827938A}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4475,7 +4475,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
         <v>97</v>
@@ -4487,19 +4487,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="I1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
         <v>36</v>
@@ -4507,22 +4507,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -4539,22 +4539,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -4571,22 +4571,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -4603,22 +4603,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G5">
         <v>100</v>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suresh\git\Uyamak\Generators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9576F68E-505B-4920-A123-1D1F197F44B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206487B0-5897-4A6C-8903-D42108B9EFB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
@@ -2195,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2227,8 +2227,8 @@
         <v>134</v>
       </c>
       <c r="H1" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"=["&amp;_xlfn.CONCAT(G:G)&amp;"];"</f>
-        <v>toolBar=[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (mainSystem.graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (mainSystem.graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"mainSystem.undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"mainSystem.undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"mainSystem.graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"mainSystem.graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"mainSystem.graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"mainSystem.graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},];</v>
+        <f ca="1">"const "&amp;MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"=["&amp;_xlfn.CONCAT(G:G)&amp;"];"</f>
+        <v>const toolBar=[{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]},{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (mainSystem.graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (mainSystem.graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"","shortcut":[]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Undo","icon":"fas fa-undo","function":"mainSystem.undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"mainSystem.undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"mainSystem.graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"mainSystem.graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"mainSystem.graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"mainSystem.graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]},{"value":"hl","icon":"fas fa-arrow-left","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]},{"value":"hl","icon":"fas fa-window-maximize","function":"","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Good to go when eveything is fine and also I want to say something more 1","shortcut":[]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]},{"value":"hl","icon":"fas fa-window-maximize","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},];</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>

--- a/Generators/json.xlsx
+++ b/Generators/json.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Uyamak\Generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206487B0-5897-4A6C-8903-D42108B9EFB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089896A-375D-4C06-93F3-7A62883F59B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{CB8984A2-0721-4967-8668-669096886DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="tools" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,13 @@
     <sheet name="IconText" sheetId="4" r:id="rId6"/>
     <sheet name="networkIcon" sheetId="5" r:id="rId7"/>
     <sheet name="blockTemplate" sheetId="6" r:id="rId8"/>
+    <sheet name="GUIText" sheetId="10" r:id="rId9"/>
+    <sheet name="menu" sheetId="11" r:id="rId10"/>
+    <sheet name="javascriptKeycodes" sheetId="12" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">menu!$A$49:$P$105</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="563">
   <si>
     <t>newFile</t>
   </si>
@@ -1025,6 +1031,708 @@
   </si>
   <si>
     <t>mainSystem.undoManager.redo();</t>
+  </si>
+  <si>
+    <t>en-us</t>
+  </si>
+  <si>
+    <t>es-mx</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Esconder</t>
+  </si>
+  <si>
+    <t>errorShortWidth</t>
+  </si>
+  <si>
+    <t>errorShortHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your screen's width is too small to run this app. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your screen's height is too small to run this app. </t>
+  </si>
+  <si>
+    <t>El ancho de su pantalla es demasiado pequeño para ejecutar esta aplicación.</t>
+  </si>
+  <si>
+    <t>La altura de su pantalla es demasiado pequeña para ejecutar esta aplicación.</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Keyboard schortcut</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Keycode</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>moreInfo</t>
+  </si>
+  <si>
+    <t>backspace</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>pause/break</t>
+  </si>
+  <si>
+    <t>caps lock</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>page up</t>
+  </si>
+  <si>
+    <t>page down</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>left arrow</t>
+  </si>
+  <si>
+    <t>up arrow</t>
+  </si>
+  <si>
+    <t>right arrow</t>
+  </si>
+  <si>
+    <t>down arrow</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>left window key</t>
+  </si>
+  <si>
+    <t>right window key</t>
+  </si>
+  <si>
+    <t>select key</t>
+  </si>
+  <si>
+    <t>numpad 0</t>
+  </si>
+  <si>
+    <t>numpad 1</t>
+  </si>
+  <si>
+    <t>numpad 2</t>
+  </si>
+  <si>
+    <t>numpad 3</t>
+  </si>
+  <si>
+    <t>numpad 4</t>
+  </si>
+  <si>
+    <t>numpad 5</t>
+  </si>
+  <si>
+    <t>numpad 6</t>
+  </si>
+  <si>
+    <t>numpad 7</t>
+  </si>
+  <si>
+    <t>numpad 8</t>
+  </si>
+  <si>
+    <t>numpad 9</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>decimal point</t>
+  </si>
+  <si>
+    <t>divide</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>f10</t>
+  </si>
+  <si>
+    <t>f11</t>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
+    <t>num lock</t>
+  </si>
+  <si>
+    <t>scroll lock</t>
+  </si>
+  <si>
+    <t>semi-colon</t>
+  </si>
+  <si>
+    <t>equal sign</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>forward slash</t>
+  </si>
+  <si>
+    <t>grave accent</t>
+  </si>
+  <si>
+    <t>open bracket</t>
+  </si>
+  <si>
+    <t>back slash</t>
+  </si>
+  <si>
+    <t>close braket</t>
+  </si>
+  <si>
+    <t>single quote</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>partBelow</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>isTop</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>vw</t>
+  </si>
+  <si>
+    <t>zi</t>
+  </si>
+  <si>
+    <t>zo</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Select all the blocks</t>
+  </si>
+  <si>
+    <t>Deselect all the blocks</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>Organizador de la nube</t>
+  </si>
+  <si>
+    <t>Guardar en máquina local</t>
+  </si>
+  <si>
+    <t>Cargar desde máquina local</t>
+  </si>
+  <si>
+    <t>Comparte en privado</t>
+  </si>
+  <si>
+    <t>Hacer público</t>
+  </si>
+  <si>
+    <t>Impresión</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Mostrar biblioteca Uyamak</t>
+  </si>
+  <si>
+    <t>Mostrar editor de modelos</t>
+  </si>
+  <si>
+    <t>Mostrar cajón de simulación</t>
+  </si>
+  <si>
+    <t>Mostrar administrador de variables</t>
+  </si>
+  <si>
+    <t>Crear subsistema</t>
+  </si>
+  <si>
+    <t>Desmontar subsistema</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>Seleccionar todo</t>
+  </si>
+  <si>
+    <t>No seleccionar ninguno</t>
+  </si>
+  <si>
+    <t>Cortar</t>
+  </si>
+  <si>
+    <t>Copiar</t>
+  </si>
+  <si>
+    <t>Pegar</t>
+  </si>
+  <si>
+    <t>Clon</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Deshacer</t>
+  </si>
+  <si>
+    <t>Rehacer</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Acercarse</t>
+  </si>
+  <si>
+    <t>Disminuir el zoom</t>
+  </si>
+  <si>
+    <t>Tamaño original</t>
+  </si>
+  <si>
+    <t>Ajustar todo</t>
+  </si>
+  <si>
+    <t>Minimizar subsistema (s)</t>
+  </si>
+  <si>
+    <t>Maximizar subsistema (s)</t>
+  </si>
+  <si>
+    <t>Orden de ejecución</t>
+  </si>
+  <si>
+    <t>Esquema del sistema</t>
+  </si>
+  <si>
+    <t>Mostrar / Ocultar líneas de cuadrícula</t>
+  </si>
+  <si>
+    <t>Alternar ajuste a la cuadrícula</t>
+  </si>
+  <si>
+    <t>Atajos de teclado</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Extender el período de licencia</t>
+  </si>
+  <si>
+    <t>desconectar</t>
+  </si>
+  <si>
+    <t>Ayuda</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>Ayuda contextual</t>
+  </si>
+  <si>
+    <t>Acerca de</t>
+  </si>
+  <si>
+    <t>El menú ofrece opciones para administrar sus archivos</t>
+  </si>
+  <si>
+    <t>Organice sus sistemas Uyamak en su almacenamiento en la nube</t>
+  </si>
+  <si>
+    <t>Descargue el sistema Uyamak en su dispositivo local como un archivo</t>
+  </si>
+  <si>
+    <t>Cargue un sistema Uyamak desde su dispositivo local</t>
+  </si>
+  <si>
+    <t>Comparte el sistema Uyamak con tus amigos y maestros</t>
+  </si>
+  <si>
+    <t>Publica tu sistema Uyamak al público</t>
+  </si>
+  <si>
+    <t>Imprime el sistema Uyamak</t>
+  </si>
+  <si>
+    <t>El menú ofrece opciones para administrar su sistema Uyamak</t>
+  </si>
+  <si>
+    <t>Muestra el cajón de la biblioteca Uyamak donde puedes encontrar todos los modelos Uyamak</t>
+  </si>
+  <si>
+    <t>Muestra el editor de modelos de Uyamak donde puede ajustar la configuración del modelo</t>
+  </si>
+  <si>
+    <t>Muestra el cajón de simulación donde puede ejecutar el sistema Uyamak</t>
+  </si>
+  <si>
+    <t>Muestra el administrador de variables donde puede agregar, editar o eliminar las variables de Uyamak.</t>
+  </si>
+  <si>
+    <t>Crea el subsistema Uyamak a partir de los modelos Uyamak seleccionados.</t>
+  </si>
+  <si>
+    <t>Desmantela todos los subsistemas Uyamak seleccionados.</t>
+  </si>
+  <si>
+    <t>Menú da opciones para manipular el sistema Uyamak</t>
+  </si>
+  <si>
+    <t>Selecciona todos los bloques</t>
+  </si>
+  <si>
+    <t>Anule la selección de todos los bloques.</t>
+  </si>
+  <si>
+    <t>Copia los modelos Uyamak seleccionados en el portapapeles y elimina los originales.</t>
+  </si>
+  <si>
+    <t>Copia los modelos Uyamak seleccionados en el portapapeles</t>
+  </si>
+  <si>
+    <t>Pega los modelos de portapapeles Uyamak en el sistema Uyamak actual</t>
+  </si>
+  <si>
+    <t>Clona los modelos Uyamak seleccionados</t>
+  </si>
+  <si>
+    <t>Eliminar los modelos y subsistemas Uyamak seleccionados</t>
+  </si>
+  <si>
+    <t>Deshacer los cambios recientes</t>
+  </si>
+  <si>
+    <t>Rehacer los cambios recientes</t>
+  </si>
+  <si>
+    <t>El menú ofrece diferentes opciones para visualizar el sistema Uyamak</t>
+  </si>
+  <si>
+    <t>Se acerca</t>
+  </si>
+  <si>
+    <t>Se aleja</t>
+  </si>
+  <si>
+    <t>Muestra el tamaño original. Algunos artículos pueden estar fuera de la vista. Puedes verlos desplazándote</t>
+  </si>
+  <si>
+    <t>Muestra el sistema Uyamak completo.</t>
+  </si>
+  <si>
+    <t>Minimiza el subsistema seleccionado. Si no se selecciona nada, todos los subsistemas se minimizarán.</t>
+  </si>
+  <si>
+    <t>Maximiza el subsistema seleccionado. Si no se selecciona nada, todos los subsistemas se maximizarán</t>
+  </si>
+  <si>
+    <t>Muestra el orden de simulación y los errores.</t>
+  </si>
+  <si>
+    <t>Muestra el esquema del sistema Uyamak en una pequeña ventana en la esquina superior derecha</t>
+  </si>
+  <si>
+    <t>Muestra u oculta las líneas de la cuadrícula.</t>
+  </si>
+  <si>
+    <t>Cuando se activa el ajuste a la cuadrícula, los bloques se mueven por pasos en lugar de suavemente</t>
+  </si>
+  <si>
+    <t>Muestra todos los atajos de teclado.</t>
+  </si>
+  <si>
+    <t>El menú ofrece opciones para administrar la cuenta de usuario</t>
+  </si>
+  <si>
+    <t>Abre otra página donde puedes administrar tu perfil de Uyamak</t>
+  </si>
+  <si>
+    <t>Le permite extender el período de licencia.</t>
+  </si>
+  <si>
+    <t>Cerrando sesión</t>
+  </si>
+  <si>
+    <t>El menú da acceso a la documentación y ayuda</t>
+  </si>
+  <si>
+    <t>Te lleva a la página de documentación</t>
+  </si>
+  <si>
+    <t>Muestra la documentación para el modelo Uyamak seleccionado.</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1075,11 +1783,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1098,6 +1819,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10242" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10242"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241595A9-207A-4948-815B-2F6C78B29460}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Generate JSON</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1397,6 +2196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AF13B-AD09-4EC1-B187-55BF9EDB6D77}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1759,8 +2559,4227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FB325-86A5-444E-A912-38EBC30A0FA3}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:S105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
+      <c r="K3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s">
+        <v>476</v>
+      </c>
+      <c r="N3" t="s">
+        <v>520</v>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(B3,"[{""text"":"""&amp;K3&amp;"""","")</f>
+        <v>[{"text":"File"</v>
+      </c>
+      <c r="S3" t="str">
+        <f>"[{""text"":"""&amp;K3&amp;""",""moreInfo"":"""&amp;L3&amp;""""</f>
+        <v>[{"text":"File","moreInfo":"Menu gives options to manage your files"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" t="s">
+        <v>477</v>
+      </c>
+      <c r="N4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" t="s">
+        <v>478</v>
+      </c>
+      <c r="N5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" t="s">
+        <v>479</v>
+      </c>
+      <c r="N6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" t="s">
+        <v>481</v>
+      </c>
+      <c r="N8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9" t="s">
+        <v>482</v>
+      </c>
+      <c r="N9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" t="s">
+        <v>473</v>
+      </c>
+      <c r="K10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" t="s">
+        <v>483</v>
+      </c>
+      <c r="N10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" t="s">
+        <v>484</v>
+      </c>
+      <c r="N11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" t="s">
+        <v>485</v>
+      </c>
+      <c r="N12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M13" t="s">
+        <v>486</v>
+      </c>
+      <c r="N13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" t="s">
+        <v>284</v>
+      </c>
+      <c r="M14" t="s">
+        <v>487</v>
+      </c>
+      <c r="N14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" t="s">
+        <v>272</v>
+      </c>
+      <c r="K15" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15" t="s">
+        <v>488</v>
+      </c>
+      <c r="N15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" t="s">
+        <v>206</v>
+      </c>
+      <c r="M16" t="s">
+        <v>489</v>
+      </c>
+      <c r="N16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" t="s">
+        <v>490</v>
+      </c>
+      <c r="N17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" t="s">
+        <v>272</v>
+      </c>
+      <c r="K18" t="s">
+        <v>268</v>
+      </c>
+      <c r="L18" t="s">
+        <v>474</v>
+      </c>
+      <c r="M18" t="s">
+        <v>491</v>
+      </c>
+      <c r="N18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" t="s">
+        <v>272</v>
+      </c>
+      <c r="K19" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" t="s">
+        <v>475</v>
+      </c>
+      <c r="M19" t="s">
+        <v>492</v>
+      </c>
+      <c r="N19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" t="s">
+        <v>272</v>
+      </c>
+      <c r="K20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s">
+        <v>493</v>
+      </c>
+      <c r="N20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="s">
+        <v>494</v>
+      </c>
+      <c r="N21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>453</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="s">
+        <v>495</v>
+      </c>
+      <c r="N22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="s">
+        <v>496</v>
+      </c>
+      <c r="N23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" t="s">
+        <v>272</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="s">
+        <v>497</v>
+      </c>
+      <c r="N24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" t="s">
+        <v>272</v>
+      </c>
+      <c r="K25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="s">
+        <v>498</v>
+      </c>
+      <c r="N25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" t="s">
+        <v>272</v>
+      </c>
+      <c r="K26" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="s">
+        <v>499</v>
+      </c>
+      <c r="N26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>458</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" t="s">
+        <v>473</v>
+      </c>
+      <c r="K27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="s">
+        <v>500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="s">
+        <v>501</v>
+      </c>
+      <c r="N28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="s">
+        <v>502</v>
+      </c>
+      <c r="N29" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="s">
+        <v>503</v>
+      </c>
+      <c r="N30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M31" t="s">
+        <v>504</v>
+      </c>
+      <c r="N31" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" t="s">
+        <v>220</v>
+      </c>
+      <c r="M32" t="s">
+        <v>505</v>
+      </c>
+      <c r="N32" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" t="s">
+        <v>506</v>
+      </c>
+      <c r="N33" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="s">
+        <v>507</v>
+      </c>
+      <c r="N34" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" t="s">
+        <v>508</v>
+      </c>
+      <c r="N35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>466</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" t="s">
+        <v>509</v>
+      </c>
+      <c r="N36" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>175</v>
+      </c>
+      <c r="L37" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" t="s">
+        <v>510</v>
+      </c>
+      <c r="N37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>142</v>
+      </c>
+      <c r="L38" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" t="s">
+        <v>511</v>
+      </c>
+      <c r="N38" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>469</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" t="s">
+        <v>473</v>
+      </c>
+      <c r="K39" t="s">
+        <v>122</v>
+      </c>
+      <c r="L39" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" t="s">
+        <v>512</v>
+      </c>
+      <c r="N39" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" t="s">
+        <v>513</v>
+      </c>
+      <c r="N40" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>464</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" t="s">
+        <v>272</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" t="s">
+        <v>229</v>
+      </c>
+      <c r="M41" t="s">
+        <v>514</v>
+      </c>
+      <c r="N41" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>465</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" t="s">
+        <v>119</v>
+      </c>
+      <c r="L42" t="s">
+        <v>230</v>
+      </c>
+      <c r="M42" t="s">
+        <v>515</v>
+      </c>
+      <c r="N42" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" t="s">
+        <v>473</v>
+      </c>
+      <c r="K43" t="s">
+        <v>147</v>
+      </c>
+      <c r="L43" t="s">
+        <v>231</v>
+      </c>
+      <c r="M43" t="s">
+        <v>516</v>
+      </c>
+      <c r="N43" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>470</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" t="s">
+        <v>272</v>
+      </c>
+      <c r="K44" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" t="s">
+        <v>232</v>
+      </c>
+      <c r="M44" t="s">
+        <v>517</v>
+      </c>
+      <c r="N44" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>471</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" t="s">
+        <v>233</v>
+      </c>
+      <c r="M45" t="s">
+        <v>518</v>
+      </c>
+      <c r="N45" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>472</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" t="s">
+        <v>272</v>
+      </c>
+      <c r="K46" t="s">
+        <v>149</v>
+      </c>
+      <c r="L46" t="s">
+        <v>233</v>
+      </c>
+      <c r="M46" t="s">
+        <v>519</v>
+      </c>
+      <c r="N46" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" t="str">
+        <f ca="1">"const "&amp;MID(CELL("filename",A52),FIND("]",CELL("filename",A52))+1,255)&amp;"=["&amp;_xlfn.CONCAT(H:H)&amp;"];"</f>
+        <v>const menu=[Key{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]}]},{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]}]},{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]}]},{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]}]},{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},{"value":"Create sub-system","icon":"far fa-object-group","function":"if (mainSystem.graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (mainSystem.graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},{"value":"Delete","icon":"fas fa-trash-alt","function":"if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]}]},{"value":"Undo","icon":"fas fa-undo","function":"mainSystem.undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},{"value":"Redo","icon":"fas fa-redo","function":"mainSystem.undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[{"value":"Zoom in","icon":"fas fa-search-plus","function":"mainSystem.graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},{"value":"Zoom out","icon":"fas fa-search-minus","function":"mainSystem.graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},{"value":"Original size","icon":"fas fa-compress","function":"mainSystem.graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},{"value":"Fit all","icon":"fas fa-expand","function":"mainSystem.graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]}]},{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]}]},{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]}]},{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},];</v>
+      </c>
+      <c r="J52" t="s">
+        <v>253</v>
+      </c>
+      <c r="K52" t="s">
+        <v>239</v>
+      </c>
+      <c r="L52" t="s">
+        <v>240</v>
+      </c>
+      <c r="M52" t="s">
+        <v>241</v>
+      </c>
+      <c r="N52" t="s">
+        <v>287</v>
+      </c>
+      <c r="P52" t="str">
+        <f>_xlfn.CONCAT(O:O)</f>
+        <v>mainSystem.keyHandler.bindControlKey(79, function (evt){alert()});mainSystem.keyHandler.bindControlKey(83, function (evt){alert()});mainSystem.keyHandler.bindControlKey(76, function (evt){alert()});mainSystem.keyHandler.bindControlKey(74, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(74, function (evt){alert()});mainSystem.keyHandler.bindControlKey(80, function (evt){alert()});mainSystem.keyHandler.bindControlKey(85, function (evt){alert()});mainSystem.keyHandler.bindControlKey(69, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(83, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});mainSystem.keyHandler.bindControlKey(75, function (evt){if (mainSystem.graph.isEnabled()) createSubModel();});mainSystem.keyHandler.bindControlShiftKey(75, function (evt){if (mainSystem.graph.isEnabled()) ungroupSubModel();});mainSystem.keyHandler.bindControlKey(65, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(65, function (evt){alert()});mainSystem.keyHandler.bindControlKey(88, function (evt){alert()});mainSystem.keyHandler.bindControlKey(67, function (evt){alert()});mainSystem.keyHandler.bindControlKey(86, function (evt){alert()});mainSystem.keyHandler.bindControlShiftKey(67, function (evt){alert()});mainSystem.keyHandler.bindKey(46, function (evt){if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();});mainSystem.keyHandler.bindControlKey(90, function (evt){mainSystem.undoManager.undo();});mainSystem.keyHandler.bindControlShiftKey(90, function (evt){mainSystem.undoManager.redo();});mainSystem.keyHandler.bindControlKey(107, function (evt){mainSystem.graph.zoomIn();});mainSystem.keyHandler.bindControlKey(109, function (evt){mainSystem.graph.zoomOut();});mainSystem.keyHandler.bindControlKey(96, function (evt){mainSystem.graph.zoomActual();});mainSystem.keyHandler.bindControlShiftKey(96, function (evt){mainSystem.graph.fit();});mainSystem.keyHandler.bindControlKey(77, function (evt){foldItems();});mainSystem.keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});mainSystem.keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});mainSystem.keyHandler.bindControlKey(70, function (evt){alert()});mainSystem.keyHandler.bindControlKey(71, function (evt){alert()});mainSystem.keyHandler.bindControlKey(84, function (evt){alert()});mainSystem.keyHandler.bindControlKey(89, function (evt){alert()});mainSystem.keyHandler.bindControlKey(66, function (evt){alert()});mainSystem.keyHandler.bindControlKey(87, function (evt){alert()});mainSystem.keyHandler.bindControlKey(68, function (evt){alert()});mainSystem.keyHandler.bindControlKey(72, function (evt){alert()});mainSystem.keyHandler.bindKey(38, function (evt){movemainSystem.graph("up");});mainSystem.keyHandler.bindKey(40, function (evt){movemainSystem.graph("down");});mainSystem.keyHandler.bindKey(39, function (evt){movemainSystem.graph("right");});mainSystem.keyHandler.bindKey(37, function (evt){movemainSystem.graph("left");});mainSystem.keyHandler.bindControlKey(48, function (evt){mainSystem.graph.zoomActual();});mainSystem.keyHandler.bindControlShiftKey(48, function (evt){mainSystem.graph.fit();});</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53">
+        <v>335</v>
+      </c>
+      <c r="F53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" t="str">
+        <f>"["&amp;IF(ISBLANK(K53),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L53),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M53),"","'"&amp;M53&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(ISBLANK(A53),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G53&amp;"}"&amp;IF(ISBLANK(A54),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G53&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"File","icon":"fas fa-file-alt","width":"335","text":"Menu gives options to manage your files","shortcut":[],"items":[</v>
+      </c>
+      <c r="J53" t="s">
+        <v>253</v>
+      </c>
+      <c r="O53" t="str">
+        <f>IF(ISBLANK(N53),"","mainSystem.keyHandler.bind"&amp;IF(ISBLANK(K53),"","Control")&amp;IF(ISBLANK(L53),"","Shift")&amp;"Key("&amp;N53&amp;", function (evt){"&amp;E53&amp;"});")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" t="str">
+        <f>"["&amp;IF(ISBLANK(K54),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L54),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M54),"","'"&amp;M54&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','O',]</v>
+      </c>
+      <c r="H54" t="str">
+        <f>IF(ISBLANK(A54),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G54&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G54&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Cloud organizer","icon":"far fa-folder","function":"alert()","text":"Organize your Uyamak systems on your cloud storage","shortcut":['Ctrl','O',]}]},</v>
+      </c>
+      <c r="J54" t="s">
+        <v>253</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>242</v>
+      </c>
+      <c r="N54">
+        <v>79</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" ref="O54:O105" si="0">IF(ISBLANK(N54),"","mainSystem.keyHandler.bind"&amp;IF(ISBLANK(K54),"","Control")&amp;IF(ISBLANK(L54),"","Shift")&amp;"Key("&amp;N54&amp;", function (evt){"&amp;E54&amp;"});")</f>
+        <v>mainSystem.keyHandler.bindControlKey(79, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" t="str">
+        <f>"["&amp;IF(ISBLANK(K55),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L55),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M55),"","'"&amp;M55&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','S',]</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55:H96" si="1">IF(ISBLANK(A55),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G55&amp;"}"&amp;IF(ISBLANK(A56),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G55&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Save to local machine","icon":"fas fa-download","function":"alert()","text":"Download the Uyamak system to your local device as a file","shortcut":['Ctrl','S',]},</v>
+      </c>
+      <c r="J55" t="s">
+        <v>253</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>243</v>
+      </c>
+      <c r="N55">
+        <v>83</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(83, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" t="str">
+        <f>"["&amp;IF(ISBLANK(K56),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L56),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M56),"","'"&amp;M56&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','L',]</v>
+      </c>
+      <c r="H56" t="str">
+        <f>IF(ISBLANK(A56),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G56&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G56&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Load from local machine","icon":"fas fa-upload","function":"alert()","text":"Load a Uyamak system from your local device","shortcut":['Ctrl','L',]}]},</v>
+      </c>
+      <c r="J56" t="s">
+        <v>253</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>246</v>
+      </c>
+      <c r="N56">
+        <v>76</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(76, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" t="str">
+        <f>"["&amp;IF(ISBLANK(K57),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L57),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M57),"","'"&amp;M57&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','J',]</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Share privately","icon":"fas fa-share-alt-square","function":"alert()","text":"Share Uyamak system with your friends and teachers","shortcut":['Ctrl','J',]},</v>
+      </c>
+      <c r="J57" t="s">
+        <v>253</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>251</v>
+      </c>
+      <c r="N57">
+        <v>74</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(74, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" t="str">
+        <f>"["&amp;IF(ISBLANK(K58),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L58),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M58),"","'"&amp;M58&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','J',]</v>
+      </c>
+      <c r="H58" t="str">
+        <f>IF(ISBLANK(A58),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G58&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G58&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Make public","icon":"fas fa-share-alt","function":"alert()","text":"Publish your Uyamak system to the public","shortcut":['Ctrl','Shift','J',]}]},</v>
+      </c>
+      <c r="J58" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>251</v>
+      </c>
+      <c r="N58">
+        <v>74</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(74, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" t="str">
+        <f>"["&amp;IF(ISBLANK(K59),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L59),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M59),"","'"&amp;M59&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','P',]</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Print","icon":"fas fa-print","function":"alert()","text":"Print the Uyamak system","shortcut":['Ctrl','P',]}]},</v>
+      </c>
+      <c r="J59" t="s">
+        <v>253</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>248</v>
+      </c>
+      <c r="N59">
+        <v>80</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(80, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>400</v>
+      </c>
+      <c r="F60" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" t="str">
+        <f>"["&amp;IF(ISBLANK(K60),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L60),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M60),"","'"&amp;M60&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"System","icon":"fas fa-project-diagram","width":"400","text":"Menu gives options to manage your Uyamak system","shortcut":[],"items":[</v>
+      </c>
+      <c r="J60" t="s">
+        <v>253</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" t="s">
+        <v>272</v>
+      </c>
+      <c r="F61" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" t="str">
+        <f>"["&amp;IF(ISBLANK(K61),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L61),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M61),"","'"&amp;M61&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','U',]</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Show Uyamak library","icon":"fas fa-puzzle-piece","function":"alert()","text":"Displays the Uyamak library drawer where you can find all the Uyamak models","shortcut":['Ctrl','U',]},</v>
+      </c>
+      <c r="J61" t="s">
+        <v>253</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>249</v>
+      </c>
+      <c r="N61">
+        <v>85</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(85, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" t="str">
+        <f>"["&amp;IF(ISBLANK(K62),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L62),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M62),"","'"&amp;M62&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','E',]</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Show Model Editor","icon":"fas fa-edit","function":"alert()","text":"Displays the Uyamak model editor where you can tweak the model settings","shortcut":['Ctrl','E',]},</v>
+      </c>
+      <c r="J62" t="s">
+        <v>253</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>254</v>
+      </c>
+      <c r="N62">
+        <v>69</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(69, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F63" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" t="str">
+        <f>"["&amp;IF(ISBLANK(K63),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L63),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M63),"","'"&amp;M63&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','S',]</v>
+      </c>
+      <c r="H63" t="str">
+        <f>IF(ISBLANK(A63),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G63&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G63&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Show Simulation drawer","icon":"fas fa-play","function":"alert()","text":"Displays the simulation drawer where you can execute the Uyamak system","shortcut":['Ctrl','Shift','S',]}]},</v>
+      </c>
+      <c r="J63" t="s">
+        <v>253</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>243</v>
+      </c>
+      <c r="N63">
+        <v>83</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(83, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" t="s">
+        <v>285</v>
+      </c>
+      <c r="E64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F64" t="s">
+        <v>284</v>
+      </c>
+      <c r="G64" t="str">
+        <f>"["&amp;IF(ISBLANK(K64),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L64),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M64),"","'"&amp;M64&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','V',]</v>
+      </c>
+      <c r="H64" t="str">
+        <f>IF(ISBLANK(A64),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G64&amp;"}"&amp;IF(ISBLANK(A65),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G64&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Show Variable manager","icon":"fas fa-equals","function":"ShowModelItem('variablesManager')","text":"Displays the Variable manager where you can add, edit or delete the Uyamak variables.","shortcut":['Ctrl','Shift','V',]},</v>
+      </c>
+      <c r="J64" t="s">
+        <v>253</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>257</v>
+      </c>
+      <c r="N64">
+        <v>86</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(86, function (evt){ShowModelItem('variablesManager')});</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" t="s">
+        <v>317</v>
+      </c>
+      <c r="F65" t="s">
+        <v>205</v>
+      </c>
+      <c r="G65" t="str">
+        <f>"["&amp;IF(ISBLANK(K65),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L65),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M65),"","'"&amp;M65&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','K',]</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Create sub-system","icon":"far fa-object-group","function":"if (mainSystem.graph.isEnabled()) createSubModel();","text":"Creates Uyamak sub-system out of the selected Uyamak models","shortcut":['Ctrl','K',]},</v>
+      </c>
+      <c r="J65" t="s">
+        <v>253</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>255</v>
+      </c>
+      <c r="N65">
+        <v>75</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(75, function (evt){if (mainSystem.graph.isEnabled()) createSubModel();});</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" t="s">
+        <v>318</v>
+      </c>
+      <c r="F66" t="s">
+        <v>206</v>
+      </c>
+      <c r="G66" t="str">
+        <f>"["&amp;IF(ISBLANK(K66),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L66),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M66),"","'"&amp;M66&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','K',]</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Dismantle sub-system","icon":"far fa-object-ungroup","function":"if (mainSystem.graph.isEnabled()) ungroupSubModel();","text":"Dismantles all the selected Uyamak sub-systems.","shortcut":['Ctrl','Shift','K',]}]},</v>
+      </c>
+      <c r="J66" t="s">
+        <v>253</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>255</v>
+      </c>
+      <c r="N66">
+        <v>75</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(75, function (evt){if (mainSystem.graph.isEnabled()) ungroupSubModel();});</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67">
+        <v>300</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" t="str">
+        <f>"["&amp;IF(ISBLANK(K67),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L67),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M67),"","'"&amp;M67&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H67" t="str">
+        <f>IF(ISBLANK(A67),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G67&amp;"}"&amp;IF(ISBLANK(A70),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G67&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Edit","icon":"fas fa-pen","width":"300","text":"Menu gives options to manipulate the Uyamak system","shortcut":[],"items":[</v>
+      </c>
+      <c r="J67" t="s">
+        <v>253</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G68" t="str">
+        <f>"["&amp;IF(ISBLANK(K68),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L68),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M68),"","'"&amp;M68&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','A',]</v>
+      </c>
+      <c r="H68" t="str">
+        <f>IF(ISBLANK(A68),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G68&amp;"}"&amp;IF(ISBLANK(A71),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G68&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Select all","icon":"far fa-check-square","function":"alert()","text":"","shortcut":['Ctrl','A',]},</v>
+      </c>
+      <c r="J68" t="s">
+        <v>253</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
+        <v>264</v>
+      </c>
+      <c r="N68">
+        <v>65</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(65, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" t="str">
+        <f>"["&amp;IF(ISBLANK(K69),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L69),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M69),"","'"&amp;M69&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','A',]</v>
+      </c>
+      <c r="H69" t="str">
+        <f>IF(ISBLANK(A69),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G69&amp;"}"&amp;IF(ISBLANK(A72),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G69&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Select none","icon":"far fa-square","function":"alert()","text":"","shortcut":['Ctrl','Shift','A',]},</v>
+      </c>
+      <c r="J69" t="s">
+        <v>253</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
+        <v>264</v>
+      </c>
+      <c r="N69">
+        <v>65</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(65, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" t="s">
+        <v>272</v>
+      </c>
+      <c r="F70" t="s">
+        <v>208</v>
+      </c>
+      <c r="G70" t="str">
+        <f>"["&amp;IF(ISBLANK(K70),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L70),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M70),"","'"&amp;M70&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','X',]</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" ref="H70" si="2">IF(ISBLANK(A70),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G70&amp;"}"&amp;IF(ISBLANK(A74),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G70&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Cut","icon":"fas fa-cut","function":"alert()","text":"Copies the selected Uyamak models into the clipboard and deletes the original ones","shortcut":['Ctrl','X',]},</v>
+      </c>
+      <c r="J70" t="s">
+        <v>253</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>256</v>
+      </c>
+      <c r="N70">
+        <v>88</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(88, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" t="s">
+        <v>272</v>
+      </c>
+      <c r="F71" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" t="str">
+        <f>"["&amp;IF(ISBLANK(K71),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L71),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M71),"","'"&amp;M71&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','C',]</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Copy","icon":"fas fa-copy","function":"alert()","text":"Copies the selected Uyamak models into the clipboard","shortcut":['Ctrl','C',]},</v>
+      </c>
+      <c r="J71" t="s">
+        <v>253</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>244</v>
+      </c>
+      <c r="N71">
+        <v>67</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(67, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" t="s">
+        <v>209</v>
+      </c>
+      <c r="G72" t="str">
+        <f>"["&amp;IF(ISBLANK(K72),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L72),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M72),"","'"&amp;M72&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','V',]</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Paste","icon":"fas fa-paste","function":"alert()","text":"Pastes the clipboard Uyamak models to the present Uyamak system","shortcut":['Ctrl','V',]},</v>
+      </c>
+      <c r="J72" t="s">
+        <v>253</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>257</v>
+      </c>
+      <c r="N72">
+        <v>86</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(86, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" t="s">
+        <v>272</v>
+      </c>
+      <c r="F73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G73" t="str">
+        <f>"["&amp;IF(ISBLANK(K73),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L73),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M73),"","'"&amp;M73&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','C',]</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Clone","icon":"fas fa-clone","function":"alert()","text":"Clones the selected Uyamak models","shortcut":['Ctrl','Shift','C',]},</v>
+      </c>
+      <c r="J73" t="s">
+        <v>253</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>244</v>
+      </c>
+      <c r="N73">
+        <v>67</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(67, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" t="s">
+        <v>316</v>
+      </c>
+      <c r="F74" t="s">
+        <v>211</v>
+      </c>
+      <c r="G74" t="str">
+        <f>"["&amp;IF(ISBLANK(K74),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L74),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M74),"","'"&amp;M74&amp;"',")&amp;"]"</f>
+        <v>['Delete',]</v>
+      </c>
+      <c r="H74" t="str">
+        <f>IF(ISBLANK(A74),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G74&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G74&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Delete","icon":"fas fa-trash-alt","function":"if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();","text":"Delete the selected Uyamak models and Sub-systems","shortcut":['Delete',]}]},</v>
+      </c>
+      <c r="J74" t="s">
+        <v>253</v>
+      </c>
+      <c r="M74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74">
+        <v>46</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindKey(46, function (evt){if (mainSystem.graph.isEnabled()) mainSystem.graph.removeCells();});</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>327</v>
+      </c>
+      <c r="F75" t="s">
+        <v>212</v>
+      </c>
+      <c r="G75" t="str">
+        <f>"["&amp;IF(ISBLANK(K75),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L75),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M75),"","'"&amp;M75&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Z',]</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Undo","icon":"fas fa-undo","function":"mainSystem.undoManager.undo();","text":"Undo the recent changes","shortcut":['Ctrl','Z',]},</v>
+      </c>
+      <c r="J75" t="s">
+        <v>253</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>258</v>
+      </c>
+      <c r="N75">
+        <v>90</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(90, function (evt){mainSystem.undoManager.undo();});</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" t="s">
+        <v>328</v>
+      </c>
+      <c r="F76" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" t="str">
+        <f>"["&amp;IF(ISBLANK(K76),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L76),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M76),"","'"&amp;M76&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','Z',]</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Redo","icon":"fas fa-redo","function":"mainSystem.undoManager.redo();","text":"Redo the recent changes","shortcut":['Ctrl','Shift','Z',]}]},</v>
+      </c>
+      <c r="J76" t="s">
+        <v>253</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N76">
+        <v>90</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(90, function (evt){mainSystem.undoManager.redo();});</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77">
+        <v>390</v>
+      </c>
+      <c r="F77" t="s">
+        <v>215</v>
+      </c>
+      <c r="G77" t="str">
+        <f>"["&amp;IF(ISBLANK(K77),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L77),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M77),"","'"&amp;M77&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"View","icon":"fas fa-desktop","width":"390","text":"Menu gives different options to visualize the Uyamak system","shortcut":[],"items":[</v>
+      </c>
+      <c r="J77" t="s">
+        <v>253</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" t="str">
+        <f>"["&amp;IF(ISBLANK(K78),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L78),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M78),"","'"&amp;M78&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','+',]</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Zoom in","icon":"fas fa-search-plus","function":"mainSystem.graph.zoomIn();","text":"Zooms in","shortcut":['Ctrl','+',]},</v>
+      </c>
+      <c r="J78" t="s">
+        <v>253</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
+        <v>259</v>
+      </c>
+      <c r="N78">
+        <v>107</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(107, function (evt){mainSystem.graph.zoomIn();});</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" t="str">
+        <f>"["&amp;IF(ISBLANK(K79),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L79),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M79),"","'"&amp;M79&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','-',]</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Zoom out","icon":"fas fa-search-minus","function":"mainSystem.graph.zoomOut();","text":"Zooms out","shortcut":['Ctrl','-',]},</v>
+      </c>
+      <c r="J79" t="s">
+        <v>253</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>260</v>
+      </c>
+      <c r="N79">
+        <v>109</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(109, function (evt){mainSystem.graph.zoomOut();});</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" t="s">
+        <v>218</v>
+      </c>
+      <c r="G80" t="str">
+        <f>"["&amp;IF(ISBLANK(K80),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L80),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M80),"","'"&amp;M80&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','0',]</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Original size","icon":"fas fa-compress","function":"mainSystem.graph.zoomActual();","text":"Shows the original size. Some items may be out of view. You can see them by scrolling","shortcut":['Ctrl','0',]},</v>
+      </c>
+      <c r="J80" t="s">
+        <v>253</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>96</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(96, function (evt){mainSystem.graph.zoomActual();});</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>322</v>
+      </c>
+      <c r="F81" t="s">
+        <v>219</v>
+      </c>
+      <c r="G81" t="str">
+        <f>"["&amp;IF(ISBLANK(K81),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L81),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M81),"","'"&amp;M81&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','0',]</v>
+      </c>
+      <c r="H81" t="str">
+        <f>IF(ISBLANK(A81),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G81&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G81&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Fit all","icon":"fas fa-expand","function":"mainSystem.graph.fit();","text":"Shows the complete Uyamak system","shortcut":['Ctrl','Shift','0',]}]},</v>
+      </c>
+      <c r="J81" t="s">
+        <v>253</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>96</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(96, function (evt){mainSystem.graph.fit();});</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" t="s">
+        <v>273</v>
+      </c>
+      <c r="F82" t="s">
+        <v>220</v>
+      </c>
+      <c r="G82" t="str">
+        <f>"["&amp;IF(ISBLANK(K82),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L82),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M82),"","'"&amp;M82&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','M',]</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Minimize  subsystem(s)","icon":"fas fa-window-minimize","function":"foldItems();","text":"Minimizes the selected subsystem. If nothing is selected, all the sub-systems will be minimized","shortcut":['Ctrl','M',]},</v>
+      </c>
+      <c r="J82" t="s">
+        <v>253</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
+        <v>247</v>
+      </c>
+      <c r="N82">
+        <v>77</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(77, function (evt){foldItems();});</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83" t="s">
+        <v>221</v>
+      </c>
+      <c r="G83" t="str">
+        <f>"["&amp;IF(ISBLANK(K83),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L83),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M83),"","'"&amp;M83&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Shift','M',]</v>
+      </c>
+      <c r="H83" t="str">
+        <f>IF(ISBLANK(A83),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G83&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G83&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Maximize  subsystem(s)","icon":"fas fa-window-maximize","function":"foldItems(false);","text":"Maximizes the selected subsystem. If nothing is selected, all the sub-systems will be maximized","shortcut":['Ctrl','Shift','M',]}]},</v>
+      </c>
+      <c r="J83" t="s">
+        <v>253</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>247</v>
+      </c>
+      <c r="N83">
+        <v>77</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(77, function (evt){foldItems(false);});</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" t="s">
+        <v>280</v>
+      </c>
+      <c r="E84" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" t="s">
+        <v>281</v>
+      </c>
+      <c r="G84" t="str">
+        <f>"["&amp;IF(ISBLANK(K84),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L84),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M84),"","'"&amp;M84&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','R',]</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(ISBLANK(A84),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G84&amp;"}"&amp;IF(ISBLANK(A86),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G84&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Execution order","icon":"fas fa-sort-numeric-up-alt","function":"displayExecutionOrder()","text":"Shows simulation order and errors","shortcut":['Ctrl','R',]},</v>
+      </c>
+      <c r="J84" t="s">
+        <v>253</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>250</v>
+      </c>
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(82, function (evt){displayExecutionOrder()});</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" t="str">
+        <f>"["&amp;IF(ISBLANK(K85),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L85),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M85),"","'"&amp;M85&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','F',]</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"System outline","icon":"fas fa-image","function":"alert()","text":"Shows outline of the Uyamak system in a small window on the top right corner","shortcut":['Ctrl','F',]},</v>
+      </c>
+      <c r="J85" t="s">
+        <v>253</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>261</v>
+      </c>
+      <c r="N85">
+        <v>70</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(70, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" t="s">
+        <v>224</v>
+      </c>
+      <c r="G86" t="str">
+        <f>"["&amp;IF(ISBLANK(K86),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L86),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M86),"","'"&amp;M86&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','G',]</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Show/Hide Grid lines","icon":"fas fa-border-all","function":"alert()","text":"Shows or hide the grid lines","shortcut":['Ctrl','G',]},</v>
+      </c>
+      <c r="J86" t="s">
+        <v>253</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="M86" t="s">
+        <v>252</v>
+      </c>
+      <c r="N86">
+        <v>71</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(71, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" t="str">
+        <f>"["&amp;IF(ISBLANK(K87),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L87),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M87),"","'"&amp;M87&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','T',]</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Toggle snap to grid","icon":"fas fa-magnet","function":"alert()","text":"When snap to grid is activated, the blocks are moved at a steps instead of smoothly","shortcut":['Ctrl','T',]},</v>
+      </c>
+      <c r="J87" t="s">
+        <v>253</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>262</v>
+      </c>
+      <c r="N87">
+        <v>84</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(84, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" t="s">
+        <v>272</v>
+      </c>
+      <c r="F88" t="s">
+        <v>226</v>
+      </c>
+      <c r="G88" t="str">
+        <f>"["&amp;IF(ISBLANK(K88),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L88),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M88),"","'"&amp;M88&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','Y',]</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Keyboard shortcuts","icon":"far fa-keyboard","function":"alert()","text":"Displays all the keyboard shortcuts","shortcut":['Ctrl','Y',]}]},</v>
+      </c>
+      <c r="J88" t="s">
+        <v>253</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>263</v>
+      </c>
+      <c r="N88">
+        <v>89</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(89, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89">
+        <v>315</v>
+      </c>
+      <c r="F89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G89" t="str">
+        <f>"["&amp;IF(ISBLANK(K89),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L89),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M89),"","'"&amp;M89&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Account","icon":"fas fa-user-alt","width":"315","text":"Menu gives options to manage the user account","shortcut":[],"items":[</v>
+      </c>
+      <c r="J89" t="s">
+        <v>253</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" t="s">
+        <v>272</v>
+      </c>
+      <c r="F90" t="s">
+        <v>228</v>
+      </c>
+      <c r="G90" t="str">
+        <f>"["&amp;IF(ISBLANK(K90),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L90),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M90),"","'"&amp;M90&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Profile","icon":"fas fa-user-cog","function":"alert()","text":"Opens another page where you can manage your Uyamak profile","shortcut":[]},</v>
+      </c>
+      <c r="J90" t="s">
+        <v>253</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" t="s">
+        <v>272</v>
+      </c>
+      <c r="F91" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91" t="str">
+        <f>"["&amp;IF(ISBLANK(K91),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L91),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M91),"","'"&amp;M91&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','B',]</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Extend licence period","icon":"fas fa-ticket-alt","function":"alert()","text":"Lets you extend the license period","shortcut":['Ctrl','B',]},</v>
+      </c>
+      <c r="J91" t="s">
+        <v>253</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>265</v>
+      </c>
+      <c r="N91">
+        <v>66</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(66, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" t="s">
+        <v>272</v>
+      </c>
+      <c r="F92" t="s">
+        <v>230</v>
+      </c>
+      <c r="G92" t="str">
+        <f>"["&amp;IF(ISBLANK(K92),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L92),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M92),"","'"&amp;M92&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','W',]</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Sign out","icon":"fas fa-door-open","function":"alert()","text":"Signing out","shortcut":['Ctrl','W',]}]},</v>
+      </c>
+      <c r="J92" t="s">
+        <v>253</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="M92" t="s">
+        <v>266</v>
+      </c>
+      <c r="N92">
+        <v>87</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(87, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93">
+        <v>275</v>
+      </c>
+      <c r="F93" t="s">
+        <v>231</v>
+      </c>
+      <c r="G93" t="str">
+        <f>"["&amp;IF(ISBLANK(K93),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L93),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M93),"","'"&amp;M93&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Help","icon":"far fa-life-ring","width":"275","text":"Menu gives access to documentation and help","shortcut":[],"items":[</v>
+      </c>
+      <c r="J93" t="s">
+        <v>253</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" t="s">
+        <v>272</v>
+      </c>
+      <c r="F94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G94" t="str">
+        <f>"["&amp;IF(ISBLANK(K94),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L94),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M94),"","'"&amp;M94&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','D',]</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"Documentation","icon":"fas fa-book","function":"alert()","text":"Takes you to the documentation page","shortcut":['Ctrl','D',]},</v>
+      </c>
+      <c r="J94" t="s">
+        <v>253</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="M94" t="s">
+        <v>245</v>
+      </c>
+      <c r="N94">
+        <v>68</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(68, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" t="s">
+        <v>272</v>
+      </c>
+      <c r="F95" t="s">
+        <v>233</v>
+      </c>
+      <c r="G95" t="str">
+        <f>"["&amp;IF(ISBLANK(K95),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L95),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M95),"","'"&amp;M95&amp;"',")&amp;"]"</f>
+        <v>['Ctrl','H',]</v>
+      </c>
+      <c r="H95" t="str">
+        <f>IF(ISBLANK(A95),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"function"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G95&amp;"}"&amp;IF(ISBLANK(#REF!),",","]},"),"{"&amp;CHAR(34)&amp;"value"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;A95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"icon"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"width"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"text"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"shortcut"&amp;CHAR(34)&amp;":"&amp;G95&amp;","&amp;CHAR(34)&amp;"items"&amp;CHAR(34)&amp;":[")</f>
+        <v>{"value":"Context help","icon":"far fa-question-circle","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":['Ctrl','H',]}]},</v>
+      </c>
+      <c r="J95" t="s">
+        <v>253</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>267</v>
+      </c>
+      <c r="N95">
+        <v>72</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(72, function (evt){alert()});</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E96" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" t="s">
+        <v>233</v>
+      </c>
+      <c r="G96" t="str">
+        <f>"["&amp;IF(ISBLANK(K96),"","'"&amp;$K$52&amp;"',")&amp;IF(ISBLANK(L96),"","'"&amp;$L$52&amp;"',")&amp;IF(ISBLANK(M96),"","'"&amp;M96&amp;"',")&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>{"value":"About","icon":"fas fa-info","function":"alert()","text":"Shows the documentation for the selected Uyamak model","shortcut":[]}]},</v>
+      </c>
+      <c r="J96" t="s">
+        <v>253</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>135</v>
+      </c>
+      <c r="J97" t="s">
+        <v>253</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>323</v>
+      </c>
+      <c r="J98" t="s">
+        <v>253</v>
+      </c>
+      <c r="M98" t="s">
+        <v>275</v>
+      </c>
+      <c r="N98">
+        <v>38</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindKey(38, function (evt){movemainSystem.graph("up");});</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>324</v>
+      </c>
+      <c r="J99" t="s">
+        <v>253</v>
+      </c>
+      <c r="M99" t="s">
+        <v>276</v>
+      </c>
+      <c r="N99">
+        <v>40</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindKey(40, function (evt){movemainSystem.graph("down");});</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>325</v>
+      </c>
+      <c r="J100" t="s">
+        <v>253</v>
+      </c>
+      <c r="M100" t="s">
+        <v>277</v>
+      </c>
+      <c r="N100">
+        <v>39</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindKey(39, function (evt){movemainSystem.graph("right");});</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>326</v>
+      </c>
+      <c r="J101" t="s">
+        <v>253</v>
+      </c>
+      <c r="M101" t="s">
+        <v>278</v>
+      </c>
+      <c r="N101">
+        <v>37</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindKey(37, function (evt){movemainSystem.graph("left");});</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>321</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>48</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlKey(48, function (evt){mainSystem.graph.zoomActual();});</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>322</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>48</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="0"/>
+        <v>mainSystem.keyHandler.bindControlShiftKey(48, function (evt){mainSystem.graph.fit();});</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O104" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O105" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G52:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10242" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button2_Click">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>91440</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>23</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE6658-0E00-4FDB-8E76-C0A09F361C9E}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>370</v>
+      </c>
+      <c r="B35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>371</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B38">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>382</v>
+      </c>
+      <c r="B47">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>385</v>
+      </c>
+      <c r="B50">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>387</v>
+      </c>
+      <c r="B52">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B53">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>389</v>
+      </c>
+      <c r="B56">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>391</v>
+      </c>
+      <c r="B58">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>392</v>
+      </c>
+      <c r="B59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>399</v>
+      </c>
+      <c r="B66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>401</v>
+      </c>
+      <c r="B68">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>404</v>
+      </c>
+      <c r="B71">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>405</v>
+      </c>
+      <c r="B72">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>406</v>
+      </c>
+      <c r="B73">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>407</v>
+      </c>
+      <c r="B74">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>409</v>
+      </c>
+      <c r="B76">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>410</v>
+      </c>
+      <c r="B77">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>411</v>
+      </c>
+      <c r="B78">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>412</v>
+      </c>
+      <c r="B79">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>413</v>
+      </c>
+      <c r="B80">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>414</v>
+      </c>
+      <c r="B81">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>415</v>
+      </c>
+      <c r="B82">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>416</v>
+      </c>
+      <c r="B83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>419</v>
+      </c>
+      <c r="B86">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>420</v>
+      </c>
+      <c r="B87">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>421</v>
+      </c>
+      <c r="B88">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>422</v>
+      </c>
+      <c r="B89">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>423</v>
+      </c>
+      <c r="B90">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>425</v>
+      </c>
+      <c r="B92">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>426</v>
+      </c>
+      <c r="B93">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>427</v>
+      </c>
+      <c r="B94">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>428</v>
+      </c>
+      <c r="B95">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>429</v>
+      </c>
+      <c r="B96">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>432</v>
+      </c>
+      <c r="B99">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F39CB5B-D4DE-41EA-B454-0F01FA82151C}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2193,10 +7212,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4139B7B6-819E-4DED-B255-521F625E0B22}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4290,7 +9310,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4299,6 +9319,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9250CB0-786D-4D3C-93C0-166783B5CCA7}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
@@ -4462,6 +9483,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ABC199-4C78-43F5-9B30-3F244827938A}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
@@ -4652,6 +9674,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C9AEB-C6BB-44D2-B1DC-A1A0A65CA6D9}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4711,6 +9734,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD001D-C99D-4E3C-BE5C-3929C71869C0}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4770,6 +9794,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B75BB5-727D-43CB-AB8E-FD2D3EDBD069}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5093,4 +10118,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56CD0A-41AE-40C5-9AB3-7B6EB0447C99}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" t="str">
+        <f ca="1">"const "&amp; MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)&amp;"={"&amp;_xlfn.CONCAT(K:K)&amp;","&amp;_xlfn.CONCAT(L:L)&amp;"}"</f>
+        <v>const GUIText={"en-us":{"hide":"Hide","errorShortWidth":"Your screen's width is too small to run this app. ","errorShortHeight":"Your screen's height is too small to run this app. "},"es-mx":{"hide":"Esconder","errorShortWidth":"El ancho de su pantalla es demasiado pequeño para ejecutar esta aplicación.","errorShortHeight":"La altura de su pantalla es demasiado pequeña para ejecutar esta aplicación."}}</v>
+      </c>
+      <c r="K1" t="str">
+        <f>""""&amp;B1&amp;""":{"</f>
+        <v>"en-us":{</v>
+      </c>
+      <c r="L1" t="str">
+        <f>""""&amp;C1&amp;""":{"</f>
+        <v>"es-mx":{</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(ISBLANK($A2),"",""""&amp;$A2&amp;""":"""&amp;B2&amp;""""&amp;IF(ISBLANK(A3),"}",","))</f>
+        <v>"hide":"Hide",</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(ISBLANK($A2),"",""""&amp;$A2&amp;""":"""&amp;C2&amp;""""&amp;IF(ISBLANK(B3),"}",","))</f>
+        <v>"hide":"Esconder",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:L6" si="0">IF(ISBLANK($A3),"",""""&amp;$A3&amp;""":"""&amp;B3&amp;""""&amp;IF(ISBLANK(A4),"}",","))</f>
+        <v>"errorShortWidth":"Your screen's width is too small to run this app. ",</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>"errorShortWidth":"El ancho de su pantalla es demasiado pequeño para ejecutar esta aplicación.",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>"errorShortHeight":"Your screen's height is too small to run this app. "}</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>"errorShortHeight":"La altura de su pantalla es demasiado pequeña para ejecutar esta aplicación."}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>